--- a/artfynd/A 40639-2022.xlsx
+++ b/artfynd/A 40639-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +795,8550 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>111840127</v>
+      </c>
+      <c r="B3" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>612097.6396491884</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7036226.122720091</v>
+      </c>
+      <c r="S3" t="n">
+        <v>20</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>111840177</v>
+      </c>
+      <c r="B4" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>611671.8001653572</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7036615.675445669</v>
+      </c>
+      <c r="S4" t="n">
+        <v>20</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>111840173</v>
+      </c>
+      <c r="B5" t="n">
+        <v>89419</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gränsticka</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Phellopilus nigrolimitatus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>612202.8558842771</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7036078.4067488</v>
+      </c>
+      <c r="S5" t="n">
+        <v>20</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>111840155</v>
+      </c>
+      <c r="B6" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>611724.3624407195</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7036587.505142178</v>
+      </c>
+      <c r="S6" t="n">
+        <v>20</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>111840133</v>
+      </c>
+      <c r="B7" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>611900.6540649632</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7036471.399798824</v>
+      </c>
+      <c r="S7" t="n">
+        <v>20</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>111840142</v>
+      </c>
+      <c r="B8" t="n">
+        <v>78605</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6462</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Stuplav</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Nephroma bellum</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>611625.1043809571</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7036617.178122533</v>
+      </c>
+      <c r="S8" t="n">
+        <v>20</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>111840156</v>
+      </c>
+      <c r="B9" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>611644.9077998699</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7036615.18305849</v>
+      </c>
+      <c r="S9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>111840118</v>
+      </c>
+      <c r="B10" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>611685.1446571616</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7036618.829449931</v>
+      </c>
+      <c r="S10" t="n">
+        <v>20</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>111840106</v>
+      </c>
+      <c r="B11" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>611685.1759468586</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7036617.934765363</v>
+      </c>
+      <c r="S11" t="n">
+        <v>20</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>111840128</v>
+      </c>
+      <c r="B12" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>612050.5924099417</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7036237.462344669</v>
+      </c>
+      <c r="S12" t="n">
+        <v>20</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>111840169</v>
+      </c>
+      <c r="B13" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>611826.8177700657</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7036530.624793339</v>
+      </c>
+      <c r="S13" t="n">
+        <v>20</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>111840114</v>
+      </c>
+      <c r="B14" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>611931.1515982752</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7036433.051986331</v>
+      </c>
+      <c r="S14" t="n">
+        <v>20</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>111840140</v>
+      </c>
+      <c r="B15" t="n">
+        <v>78605</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6462</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Stuplav</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Nephroma bellum</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>611968.467425107</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7036238.61380059</v>
+      </c>
+      <c r="S15" t="n">
+        <v>20</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111840103</v>
+      </c>
+      <c r="B16" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>611937.0536248725</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7036431.019251303</v>
+      </c>
+      <c r="S16" t="n">
+        <v>20</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111840116</v>
+      </c>
+      <c r="B17" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>611789.2367900747</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7036592.014885741</v>
+      </c>
+      <c r="S17" t="n">
+        <v>20</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111840153</v>
+      </c>
+      <c r="B18" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>611889.0449884314</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7036303.469514119</v>
+      </c>
+      <c r="S18" t="n">
+        <v>20</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>111840122</v>
+      </c>
+      <c r="B19" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>612218.6938216727</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7036074.483427257</v>
+      </c>
+      <c r="S19" t="n">
+        <v>20</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>111840135</v>
+      </c>
+      <c r="B20" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>611892.7620166774</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7036376.61240829</v>
+      </c>
+      <c r="S20" t="n">
+        <v>20</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>111840100</v>
+      </c>
+      <c r="B21" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>612126.00427822</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7036197.553588478</v>
+      </c>
+      <c r="S21" t="n">
+        <v>20</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>111840099</v>
+      </c>
+      <c r="B22" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>611935.4835508752</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7036271.053399008</v>
+      </c>
+      <c r="S22" t="n">
+        <v>20</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>111840124</v>
+      </c>
+      <c r="B23" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>612162.5263506409</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7036089.981436108</v>
+      </c>
+      <c r="S23" t="n">
+        <v>20</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>111840176</v>
+      </c>
+      <c r="B24" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>612157.958919349</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7036053.983385305</v>
+      </c>
+      <c r="S24" t="n">
+        <v>20</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>111840172</v>
+      </c>
+      <c r="B25" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>611736.8774460263</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7036614.368652546</v>
+      </c>
+      <c r="S25" t="n">
+        <v>20</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>111840102</v>
+      </c>
+      <c r="B26" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>611958.0414993305</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7036382.483518991</v>
+      </c>
+      <c r="S26" t="n">
+        <v>20</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>111840117</v>
+      </c>
+      <c r="B27" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>611725.3738043295</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7036571.416293882</v>
+      </c>
+      <c r="S27" t="n">
+        <v>20</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>111840162</v>
+      </c>
+      <c r="B28" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>611796.2630279514</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7036596.291893803</v>
+      </c>
+      <c r="S28" t="n">
+        <v>20</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>111840174</v>
+      </c>
+      <c r="B29" t="n">
+        <v>89419</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Gränsticka</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Phellopilus nigrolimitatus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>612005.5308763357</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7036320.094612861</v>
+      </c>
+      <c r="S29" t="n">
+        <v>20</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>111840164</v>
+      </c>
+      <c r="B30" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>611550.5735735258</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7036580.982027167</v>
+      </c>
+      <c r="S30" t="n">
+        <v>20</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>111840129</v>
+      </c>
+      <c r="B31" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>612009.0800721663</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7036270.05001692</v>
+      </c>
+      <c r="S31" t="n">
+        <v>20</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>111840113</v>
+      </c>
+      <c r="B32" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>611968.6292715519</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7036400.323734847</v>
+      </c>
+      <c r="S32" t="n">
+        <v>20</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>111840107</v>
+      </c>
+      <c r="B33" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>611649.8351994418</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7036615.355325347</v>
+      </c>
+      <c r="S33" t="n">
+        <v>20</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>111840104</v>
+      </c>
+      <c r="B34" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>611931.9467388361</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7036448.75694545</v>
+      </c>
+      <c r="S34" t="n">
+        <v>20</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>111840115</v>
+      </c>
+      <c r="B35" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>611896.7164174926</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7036468.574357864</v>
+      </c>
+      <c r="S35" t="n">
+        <v>20</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>111840182</v>
+      </c>
+      <c r="B36" t="n">
+        <v>89679</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>6008693</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Kritporing</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Resinoporia crassa</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Audet</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>611987.1301913462</v>
+      </c>
+      <c r="R36" t="n">
+        <v>7036294.81288166</v>
+      </c>
+      <c r="S36" t="n">
+        <v>20</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>111840098</v>
+      </c>
+      <c r="B37" t="n">
+        <v>94134</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>53</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Crossocalyx hellerianus</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>612200.5371952844</v>
+      </c>
+      <c r="R37" t="n">
+        <v>7036080.565151189</v>
+      </c>
+      <c r="S37" t="n">
+        <v>20</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>111840136</v>
+      </c>
+      <c r="B38" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>stationär</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>611872.9006968342</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7036367.406045308</v>
+      </c>
+      <c r="S38" t="n">
+        <v>20</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>111840139</v>
+      </c>
+      <c r="B39" t="n">
+        <v>78605</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>6462</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Stuplav</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Nephroma bellum</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>611538.4945442909</v>
+      </c>
+      <c r="R39" t="n">
+        <v>7036580.1122336</v>
+      </c>
+      <c r="S39" t="n">
+        <v>20</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>111840112</v>
+      </c>
+      <c r="B40" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>611748.0554904841</v>
+      </c>
+      <c r="R40" t="n">
+        <v>7036525.628309194</v>
+      </c>
+      <c r="S40" t="n">
+        <v>20</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>111840178</v>
+      </c>
+      <c r="B41" t="n">
+        <v>96265</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>219790</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Dactylorhiza maculata</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(L.) Soó</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>611660.8587535081</v>
+      </c>
+      <c r="R41" t="n">
+        <v>7036556.618785212</v>
+      </c>
+      <c r="S41" t="n">
+        <v>20</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>111840149</v>
+      </c>
+      <c r="B42" t="n">
+        <v>90854</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2079</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Nordtagging</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Odonticium romellii</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(S.Lundell) Parmasto</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>612070.4118449257</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7036183.955704447</v>
+      </c>
+      <c r="S42" t="n">
+        <v>20</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>111840171</v>
+      </c>
+      <c r="B43" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>611730.9818362541</v>
+      </c>
+      <c r="R43" t="n">
+        <v>7036603.412985859</v>
+      </c>
+      <c r="S43" t="n">
+        <v>20</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>111840175</v>
+      </c>
+      <c r="B44" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>612016.4676519124</v>
+      </c>
+      <c r="R44" t="n">
+        <v>7036264.037915429</v>
+      </c>
+      <c r="S44" t="n">
+        <v>20</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>111840163</v>
+      </c>
+      <c r="B45" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>612073.4874485112</v>
+      </c>
+      <c r="R45" t="n">
+        <v>7036236.921791457</v>
+      </c>
+      <c r="S45" t="n">
+        <v>20</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>111840161</v>
+      </c>
+      <c r="B46" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>611774.9902539523</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7036601.817765385</v>
+      </c>
+      <c r="S46" t="n">
+        <v>20</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>111840123</v>
+      </c>
+      <c r="B47" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>612199.4368418896</v>
+      </c>
+      <c r="R47" t="n">
+        <v>7036086.350105605</v>
+      </c>
+      <c r="S47" t="n">
+        <v>20</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>111840158</v>
+      </c>
+      <c r="B48" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>611625.1043809571</v>
+      </c>
+      <c r="R48" t="n">
+        <v>7036617.178122533</v>
+      </c>
+      <c r="S48" t="n">
+        <v>20</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>111840125</v>
+      </c>
+      <c r="B49" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>612150.1243816372</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7036136.582292198</v>
+      </c>
+      <c r="S49" t="n">
+        <v>20</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>111840157</v>
+      </c>
+      <c r="B50" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>611643.964991785</v>
+      </c>
+      <c r="R50" t="n">
+        <v>7036616.493765838</v>
+      </c>
+      <c r="S50" t="n">
+        <v>20</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>111840151</v>
+      </c>
+      <c r="B51" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>611655.8999817995</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7036557.341203817</v>
+      </c>
+      <c r="S51" t="n">
+        <v>20</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>111840111</v>
+      </c>
+      <c r="B52" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>611565.3246701241</v>
+      </c>
+      <c r="R52" t="n">
+        <v>7036582.393106925</v>
+      </c>
+      <c r="S52" t="n">
+        <v>20</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>111840132</v>
+      </c>
+      <c r="B53" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>611730.0076862896</v>
+      </c>
+      <c r="R53" t="n">
+        <v>7036605.618362699</v>
+      </c>
+      <c r="S53" t="n">
+        <v>20</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>111840181</v>
+      </c>
+      <c r="B54" t="n">
+        <v>78611</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>6463</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Bårdlav</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Nephroma parile</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>611643.964991785</v>
+      </c>
+      <c r="R54" t="n">
+        <v>7036616.493765838</v>
+      </c>
+      <c r="S54" t="n">
+        <v>20</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>111840141</v>
+      </c>
+      <c r="B55" t="n">
+        <v>78605</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>6462</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Stuplav</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Nephroma bellum</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>611995.7935480368</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7036214.038866865</v>
+      </c>
+      <c r="S55" t="n">
+        <v>20</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>111840110</v>
+      </c>
+      <c r="B56" t="n">
+        <v>89745</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2062</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Ulltickeporing</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Skeletocutis brevispora</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>611896.7164174926</v>
+      </c>
+      <c r="R56" t="n">
+        <v>7036468.574357864</v>
+      </c>
+      <c r="S56" t="n">
+        <v>20</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>111840145</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>611966.0247136273</v>
+      </c>
+      <c r="R57" t="n">
+        <v>7036359.471176716</v>
+      </c>
+      <c r="S57" t="n">
+        <v>20</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>111840150</v>
+      </c>
+      <c r="B58" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>611550.6048254245</v>
+      </c>
+      <c r="R58" t="n">
+        <v>7036580.087332346</v>
+      </c>
+      <c r="S58" t="n">
+        <v>20</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>111840152</v>
+      </c>
+      <c r="B59" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>611691.7206150193</v>
+      </c>
+      <c r="R59" t="n">
+        <v>7036559.041695474</v>
+      </c>
+      <c r="S59" t="n">
+        <v>20</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>111840131</v>
+      </c>
+      <c r="B60" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>611968.8017988449</v>
+      </c>
+      <c r="R60" t="n">
+        <v>7036395.402627021</v>
+      </c>
+      <c r="S60" t="n">
+        <v>20</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>111840146</v>
+      </c>
+      <c r="B61" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>611935.9852041593</v>
+      </c>
+      <c r="R61" t="n">
+        <v>7036435.908902055</v>
+      </c>
+      <c r="S61" t="n">
+        <v>20</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>111840105</v>
+      </c>
+      <c r="B62" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>611887.4997693001</v>
+      </c>
+      <c r="R62" t="n">
+        <v>7036488.407450524</v>
+      </c>
+      <c r="S62" t="n">
+        <v>20</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>111840101</v>
+      </c>
+      <c r="B63" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>612073.4874485112</v>
+      </c>
+      <c r="R63" t="n">
+        <v>7036236.921791457</v>
+      </c>
+      <c r="S63" t="n">
+        <v>20</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>111840120</v>
+      </c>
+      <c r="B64" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>611913.2339886408</v>
+      </c>
+      <c r="R64" t="n">
+        <v>7036278.784565655</v>
+      </c>
+      <c r="S64" t="n">
+        <v>20</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>111840126</v>
+      </c>
+      <c r="B65" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>612130.930864902</v>
+      </c>
+      <c r="R65" t="n">
+        <v>7036146.659491631</v>
+      </c>
+      <c r="S65" t="n">
+        <v>20</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>111840119</v>
+      </c>
+      <c r="B66" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>611657.7574473261</v>
+      </c>
+      <c r="R66" t="n">
+        <v>7036619.663314155</v>
+      </c>
+      <c r="S66" t="n">
+        <v>20</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>111840167</v>
+      </c>
+      <c r="B67" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>612162.5263506409</v>
+      </c>
+      <c r="R67" t="n">
+        <v>7036089.981436108</v>
+      </c>
+      <c r="S67" t="n">
+        <v>20</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>111840154</v>
+      </c>
+      <c r="B68" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>611999.9284227985</v>
+      </c>
+      <c r="R68" t="n">
+        <v>7036224.038725983</v>
+      </c>
+      <c r="S68" t="n">
+        <v>20</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>111840134</v>
+      </c>
+      <c r="B69" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>611775.6287810439</v>
+      </c>
+      <c r="R69" t="n">
+        <v>7036557.94632658</v>
+      </c>
+      <c r="S69" t="n">
+        <v>20</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>111840170</v>
+      </c>
+      <c r="B70" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>611721.2521968643</v>
+      </c>
+      <c r="R70" t="n">
+        <v>7036599.489451895</v>
+      </c>
+      <c r="S70" t="n">
+        <v>20</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT70" t="inlineStr"/>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>111840143</v>
+      </c>
+      <c r="B71" t="n">
+        <v>89351</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>112</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Stjärntagging</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Asterodon ferruginosus</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Pat.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>611935.9852041593</v>
+      </c>
+      <c r="R71" t="n">
+        <v>7036435.908902055</v>
+      </c>
+      <c r="S71" t="n">
+        <v>20</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT71" t="inlineStr"/>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>111840144</v>
+      </c>
+      <c r="B72" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>611756.2283190354</v>
+      </c>
+      <c r="R72" t="n">
+        <v>7036522.778974289</v>
+      </c>
+      <c r="S72" t="n">
+        <v>20</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT72" t="inlineStr"/>
+      <c r="AW72" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX72" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>111840165</v>
+      </c>
+      <c r="B73" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>611625.6525432562</v>
+      </c>
+      <c r="R73" t="n">
+        <v>7036563.002264032</v>
+      </c>
+      <c r="S73" t="n">
+        <v>20</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX73" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>111840168</v>
+      </c>
+      <c r="B74" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>611958.0414993305</v>
+      </c>
+      <c r="R74" t="n">
+        <v>7036382.483518991</v>
+      </c>
+      <c r="S74" t="n">
+        <v>20</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT74" t="inlineStr"/>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>111840166</v>
+      </c>
+      <c r="B75" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>611872.0517480521</v>
+      </c>
+      <c r="R75" t="n">
+        <v>7036366.032528495</v>
+      </c>
+      <c r="S75" t="n">
+        <v>20</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT75" t="inlineStr"/>
+      <c r="AW75" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX75" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>111840121</v>
+      </c>
+      <c r="B76" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>612131.8014658812</v>
+      </c>
+      <c r="R76" t="n">
+        <v>7036083.52705478</v>
+      </c>
+      <c r="S76" t="n">
+        <v>20</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT76" t="inlineStr"/>
+      <c r="AW76" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX76" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>111840130</v>
+      </c>
+      <c r="B77" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Björkån-Älggårdshöjden, Ång</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>611987.1615648521</v>
+      </c>
+      <c r="R77" t="n">
+        <v>7036293.918105817</v>
+      </c>
+      <c r="S77" t="n">
+        <v>20</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Resele</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT77" t="inlineStr"/>
+      <c r="AW77" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX77" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY77" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 40639-2022.xlsx
+++ b/artfynd/A 40639-2022.xlsx
@@ -797,7 +797,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111840127</v>
+        <v>111840129</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>612097.6396491884</v>
+        <v>612009.0800721663</v>
       </c>
       <c r="R3" t="n">
-        <v>7036226.122720091</v>
+        <v>7036270.05001692</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111840177</v>
+        <v>111840105</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>89369</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,25 +926,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>611671.8001653572</v>
+        <v>611887.4997693001</v>
       </c>
       <c r="R4" t="n">
-        <v>7036615.675445669</v>
+        <v>7036488.407450524</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111840173</v>
+        <v>111840166</v>
       </c>
       <c r="B5" t="n">
-        <v>89419</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,38 +1038,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1204</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>612202.8558842771</v>
+        <v>611872.0517480521</v>
       </c>
       <c r="R5" t="n">
-        <v>7036078.4067488</v>
+        <v>7036366.032528495</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1138,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111840155</v>
+        <v>111840103</v>
       </c>
       <c r="B6" t="n">
-        <v>78578</v>
+        <v>89369</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,25 +1154,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1182,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>611724.3624407195</v>
+        <v>611937.0536248725</v>
       </c>
       <c r="R6" t="n">
-        <v>7036587.505142178</v>
+        <v>7036431.019251303</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1250,7 +1254,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111840133</v>
+        <v>111840127</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1295,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>611900.6540649632</v>
+        <v>612097.6396491884</v>
       </c>
       <c r="R7" t="n">
-        <v>7036471.399798824</v>
+        <v>7036226.122720091</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1367,10 +1371,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111840142</v>
+        <v>111840167</v>
       </c>
       <c r="B8" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,38 +1383,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>611625.1043809571</v>
+        <v>612162.5263506409</v>
       </c>
       <c r="R8" t="n">
-        <v>7036617.178122533</v>
+        <v>7036089.981436108</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1479,10 +1487,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111840156</v>
+        <v>111840125</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1495,34 +1503,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>611644.9077998699</v>
+        <v>612150.1243816372</v>
       </c>
       <c r="R9" t="n">
-        <v>7036615.18305849</v>
+        <v>7036136.582292198</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1591,10 +1604,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111840118</v>
+        <v>111840132</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1607,34 +1620,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>611685.1446571616</v>
+        <v>611730.0076862896</v>
       </c>
       <c r="R10" t="n">
-        <v>7036618.829449931</v>
+        <v>7036605.618362699</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1703,10 +1721,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111840106</v>
+        <v>111840126</v>
       </c>
       <c r="B11" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1715,38 +1733,43 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>611685.1759468586</v>
+        <v>612130.930864902</v>
       </c>
       <c r="R11" t="n">
-        <v>7036617.934765363</v>
+        <v>7036146.659491631</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1815,10 +1838,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111840128</v>
+        <v>111840173</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1831,39 +1854,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>612050.5924099417</v>
+        <v>612202.8558842771</v>
       </c>
       <c r="R12" t="n">
-        <v>7036237.462344669</v>
+        <v>7036078.4067488</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1932,10 +1950,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111840169</v>
+        <v>111840113</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1944,42 +1962,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>611826.8177700657</v>
+        <v>611968.6292715519</v>
       </c>
       <c r="R13" t="n">
-        <v>7036530.624793339</v>
+        <v>7036400.323734847</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2048,10 +2062,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111840114</v>
+        <v>111840176</v>
       </c>
       <c r="B14" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2064,21 +2078,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2088,10 +2102,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>611931.1515982752</v>
+        <v>612157.958919349</v>
       </c>
       <c r="R14" t="n">
-        <v>7036433.051986331</v>
+        <v>7036053.983385305</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2160,10 +2174,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111840140</v>
+        <v>111840149</v>
       </c>
       <c r="B15" t="n">
-        <v>78605</v>
+        <v>90854</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2172,25 +2186,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6462</v>
+        <v>2079</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2200,10 +2214,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>611968.467425107</v>
+        <v>612070.4118449257</v>
       </c>
       <c r="R15" t="n">
-        <v>7036238.61380059</v>
+        <v>7036183.955704447</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2272,10 +2286,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111840103</v>
+        <v>111840121</v>
       </c>
       <c r="B16" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2284,38 +2298,43 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>611937.0536248725</v>
+        <v>612131.8014658812</v>
       </c>
       <c r="R16" t="n">
-        <v>7036431.019251303</v>
+        <v>7036083.52705478</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2384,10 +2403,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111840116</v>
+        <v>111840172</v>
       </c>
       <c r="B17" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2396,38 +2415,42 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>611789.2367900747</v>
+        <v>611736.8774460263</v>
       </c>
       <c r="R17" t="n">
-        <v>7036592.014885741</v>
+        <v>7036614.368652546</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2496,10 +2519,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111840153</v>
+        <v>111840146</v>
       </c>
       <c r="B18" t="n">
-        <v>78578</v>
+        <v>56414</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2512,34 +2535,39 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>611889.0449884314</v>
+        <v>611935.9852041593</v>
       </c>
       <c r="R18" t="n">
-        <v>7036303.469514119</v>
+        <v>7036435.908902055</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2608,10 +2636,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111840122</v>
+        <v>111840164</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2620,31 +2648,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>50</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2653,10 +2680,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>612218.6938216727</v>
+        <v>611550.5735735258</v>
       </c>
       <c r="R19" t="n">
-        <v>7036074.483427257</v>
+        <v>7036580.982027167</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2725,10 +2752,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111840135</v>
+        <v>111840101</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2737,43 +2764,38 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>611892.7620166774</v>
+        <v>612073.4874485112</v>
       </c>
       <c r="R20" t="n">
-        <v>7036376.61240829</v>
+        <v>7036236.921791457</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2842,10 +2864,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111840100</v>
+        <v>111840162</v>
       </c>
       <c r="B21" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2854,38 +2876,42 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>612126.00427822</v>
+        <v>611796.2630279514</v>
       </c>
       <c r="R21" t="n">
-        <v>7036197.553588478</v>
+        <v>7036596.291893803</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2954,10 +2980,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111840099</v>
+        <v>111840161</v>
       </c>
       <c r="B22" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2966,38 +2992,42 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>611935.4835508752</v>
+        <v>611774.9902539523</v>
       </c>
       <c r="R22" t="n">
-        <v>7036271.053399008</v>
+        <v>7036601.817765385</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -3066,10 +3096,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111840124</v>
+        <v>111840104</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3078,43 +3108,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>612162.5263506409</v>
+        <v>611931.9467388361</v>
       </c>
       <c r="R23" t="n">
-        <v>7036089.981436108</v>
+        <v>7036448.75694545</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -3183,10 +3208,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111840176</v>
+        <v>111840156</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3199,21 +3224,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3223,10 +3248,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>612157.958919349</v>
+        <v>611644.9077998699</v>
       </c>
       <c r="R24" t="n">
-        <v>7036053.983385305</v>
+        <v>7036615.18305849</v>
       </c>
       <c r="S24" t="n">
         <v>20</v>
@@ -3295,10 +3320,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111840172</v>
+        <v>111840151</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3307,42 +3332,38 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>611736.8774460263</v>
+        <v>611655.8999817995</v>
       </c>
       <c r="R25" t="n">
-        <v>7036614.368652546</v>
+        <v>7036557.341203817</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3411,10 +3432,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111840102</v>
+        <v>111840168</v>
       </c>
       <c r="B26" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3423,28 +3444,32 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
@@ -3523,10 +3548,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111840117</v>
+        <v>111840163</v>
       </c>
       <c r="B27" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3535,38 +3560,42 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>611725.3738043295</v>
+        <v>612073.4874485112</v>
       </c>
       <c r="R27" t="n">
-        <v>7036571.416293882</v>
+        <v>7036236.921791457</v>
       </c>
       <c r="S27" t="n">
         <v>20</v>
@@ -3635,10 +3664,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111840162</v>
+        <v>111840141</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3647,42 +3676,38 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>611796.2630279514</v>
+        <v>611995.7935480368</v>
       </c>
       <c r="R28" t="n">
-        <v>7036596.291893803</v>
+        <v>7036214.038866865</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3751,10 +3776,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111840174</v>
+        <v>111840170</v>
       </c>
       <c r="B29" t="n">
-        <v>89419</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3763,38 +3788,42 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1204</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>612005.5308763357</v>
+        <v>611721.2521968643</v>
       </c>
       <c r="R29" t="n">
-        <v>7036320.094612861</v>
+        <v>7036599.489451895</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>
@@ -3863,7 +3892,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111840164</v>
+        <v>111840171</v>
       </c>
       <c r="B30" t="n">
         <v>96348</v>
@@ -3896,21 +3925,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>611550.5735735258</v>
+        <v>611730.9818362541</v>
       </c>
       <c r="R30" t="n">
-        <v>7036580.982027167</v>
+        <v>7036603.412985859</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -3979,7 +4004,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111840129</v>
+        <v>111840133</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -4024,10 +4049,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>612009.0800721663</v>
+        <v>611900.6540649632</v>
       </c>
       <c r="R31" t="n">
-        <v>7036270.05001692</v>
+        <v>7036471.399798824</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -4096,10 +4121,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111840113</v>
+        <v>111840169</v>
       </c>
       <c r="B32" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4108,38 +4133,42 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>611968.6292715519</v>
+        <v>611826.8177700657</v>
       </c>
       <c r="R32" t="n">
-        <v>7036400.323734847</v>
+        <v>7036530.624793339</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -4208,10 +4237,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111840107</v>
+        <v>111840130</v>
       </c>
       <c r="B33" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4220,38 +4249,43 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>611649.8351994418</v>
+        <v>611987.1615648521</v>
       </c>
       <c r="R33" t="n">
-        <v>7036615.355325347</v>
+        <v>7036293.918105817</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -4320,10 +4354,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111840104</v>
+        <v>111840115</v>
       </c>
       <c r="B34" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4332,25 +4366,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4360,10 +4394,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>611931.9467388361</v>
+        <v>611896.7164174926</v>
       </c>
       <c r="R34" t="n">
-        <v>7036448.75694545</v>
+        <v>7036468.574357864</v>
       </c>
       <c r="S34" t="n">
         <v>20</v>
@@ -4432,10 +4466,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111840115</v>
+        <v>111840135</v>
       </c>
       <c r="B35" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4448,34 +4482,39 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>611896.7164174926</v>
+        <v>611892.7620166774</v>
       </c>
       <c r="R35" t="n">
-        <v>7036468.574357864</v>
+        <v>7036376.61240829</v>
       </c>
       <c r="S35" t="n">
         <v>20</v>
@@ -4544,10 +4583,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111840182</v>
+        <v>111840165</v>
       </c>
       <c r="B36" t="n">
-        <v>89679</v>
+        <v>96348</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4556,38 +4595,42 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6008693</v>
+        <v>220787</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Kritporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Resinoporia crassa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Audet</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>611987.1301913462</v>
+        <v>611625.6525432562</v>
       </c>
       <c r="R36" t="n">
-        <v>7036294.81288166</v>
+        <v>7036563.002264032</v>
       </c>
       <c r="S36" t="n">
         <v>20</v>
@@ -4768,10 +4811,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111840136</v>
+        <v>111840123</v>
       </c>
       <c r="B38" t="n">
-        <v>56543</v>
+        <v>56398</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4784,27 +4827,27 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>stationär</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -4813,10 +4856,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>611872.9006968342</v>
+        <v>612199.4368418896</v>
       </c>
       <c r="R38" t="n">
-        <v>7036367.406045308</v>
+        <v>7036086.350105605</v>
       </c>
       <c r="S38" t="n">
         <v>20</v>
@@ -4885,10 +4928,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111840139</v>
+        <v>111840118</v>
       </c>
       <c r="B39" t="n">
-        <v>78605</v>
+        <v>89405</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4897,25 +4940,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6462</v>
+        <v>1202</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4925,10 +4968,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>611538.4945442909</v>
+        <v>611685.1446571616</v>
       </c>
       <c r="R39" t="n">
-        <v>7036580.1122336</v>
+        <v>7036618.829449931</v>
       </c>
       <c r="S39" t="n">
         <v>20</v>
@@ -4997,10 +5040,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111840112</v>
+        <v>111840110</v>
       </c>
       <c r="B40" t="n">
-        <v>89405</v>
+        <v>89745</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5009,25 +5052,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1202</v>
+        <v>2062</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5037,10 +5080,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>611748.0554904841</v>
+        <v>611896.7164174926</v>
       </c>
       <c r="R40" t="n">
-        <v>7036525.628309194</v>
+        <v>7036468.574357864</v>
       </c>
       <c r="S40" t="n">
         <v>20</v>
@@ -5109,10 +5152,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111840178</v>
+        <v>111840152</v>
       </c>
       <c r="B41" t="n">
-        <v>96265</v>
+        <v>78578</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5121,25 +5164,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>219790</v>
+        <v>6458</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5149,10 +5192,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>611660.8587535081</v>
+        <v>611691.7206150193</v>
       </c>
       <c r="R41" t="n">
-        <v>7036556.618785212</v>
+        <v>7036559.041695474</v>
       </c>
       <c r="S41" t="n">
         <v>20</v>
@@ -5221,10 +5264,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111840149</v>
+        <v>111840143</v>
       </c>
       <c r="B42" t="n">
-        <v>90854</v>
+        <v>89351</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5237,21 +5280,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2079</v>
+        <v>112</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5261,10 +5304,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>612070.4118449257</v>
+        <v>611935.9852041593</v>
       </c>
       <c r="R42" t="n">
-        <v>7036183.955704447</v>
+        <v>7036435.908902055</v>
       </c>
       <c r="S42" t="n">
         <v>20</v>
@@ -5333,10 +5376,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111840171</v>
+        <v>111840155</v>
       </c>
       <c r="B43" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5345,25 +5388,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5373,10 +5416,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>611730.9818362541</v>
+        <v>611724.3624407195</v>
       </c>
       <c r="R43" t="n">
-        <v>7036603.412985859</v>
+        <v>7036587.505142178</v>
       </c>
       <c r="S43" t="n">
         <v>20</v>
@@ -5445,10 +5488,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111840175</v>
+        <v>111840111</v>
       </c>
       <c r="B44" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5461,21 +5504,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5485,10 +5528,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>612016.4676519124</v>
+        <v>611565.3246701241</v>
       </c>
       <c r="R44" t="n">
-        <v>7036264.037915429</v>
+        <v>7036582.393106925</v>
       </c>
       <c r="S44" t="n">
         <v>20</v>
@@ -5557,10 +5600,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111840163</v>
+        <v>111840178</v>
       </c>
       <c r="B45" t="n">
-        <v>96348</v>
+        <v>96265</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5569,42 +5612,38 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>(L.) Soó</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>612073.4874485112</v>
+        <v>611660.8587535081</v>
       </c>
       <c r="R45" t="n">
-        <v>7036236.921791457</v>
+        <v>7036556.618785212</v>
       </c>
       <c r="S45" t="n">
         <v>20</v>
@@ -5673,10 +5712,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111840161</v>
+        <v>111840134</v>
       </c>
       <c r="B46" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5685,30 +5724,31 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>40</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -5717,10 +5757,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>611774.9902539523</v>
+        <v>611775.6287810439</v>
       </c>
       <c r="R46" t="n">
-        <v>7036601.817765385</v>
+        <v>7036557.94632658</v>
       </c>
       <c r="S46" t="n">
         <v>20</v>
@@ -5789,10 +5829,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111840123</v>
+        <v>111840153</v>
       </c>
       <c r="B47" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5805,39 +5845,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>612199.4368418896</v>
+        <v>611889.0449884314</v>
       </c>
       <c r="R47" t="n">
-        <v>7036086.350105605</v>
+        <v>7036303.469514119</v>
       </c>
       <c r="S47" t="n">
         <v>20</v>
@@ -5906,10 +5941,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111840158</v>
+        <v>111840181</v>
       </c>
       <c r="B48" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5918,25 +5953,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5946,10 +5981,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>611625.1043809571</v>
+        <v>611643.964991785</v>
       </c>
       <c r="R48" t="n">
-        <v>7036617.178122533</v>
+        <v>7036616.493765838</v>
       </c>
       <c r="S48" t="n">
         <v>20</v>
@@ -6018,10 +6053,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111840125</v>
+        <v>111840099</v>
       </c>
       <c r="B49" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6030,43 +6065,38 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>612150.1243816372</v>
+        <v>611935.4835508752</v>
       </c>
       <c r="R49" t="n">
-        <v>7036136.582292198</v>
+        <v>7036271.053399008</v>
       </c>
       <c r="S49" t="n">
         <v>20</v>
@@ -6135,7 +6165,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111840157</v>
+        <v>111840154</v>
       </c>
       <c r="B50" t="n">
         <v>78578</v>
@@ -6175,10 +6205,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>611643.964991785</v>
+        <v>611999.9284227985</v>
       </c>
       <c r="R50" t="n">
-        <v>7036616.493765838</v>
+        <v>7036224.038725983</v>
       </c>
       <c r="S50" t="n">
         <v>20</v>
@@ -6247,10 +6277,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111840151</v>
+        <v>111840175</v>
       </c>
       <c r="B51" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6263,21 +6293,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6287,10 +6317,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>611655.8999817995</v>
+        <v>612016.4676519124</v>
       </c>
       <c r="R51" t="n">
-        <v>7036557.341203817</v>
+        <v>7036264.037915429</v>
       </c>
       <c r="S51" t="n">
         <v>20</v>
@@ -6359,10 +6389,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111840111</v>
+        <v>111840157</v>
       </c>
       <c r="B52" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6375,21 +6405,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6399,10 +6429,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>611565.3246701241</v>
+        <v>611643.964991785</v>
       </c>
       <c r="R52" t="n">
-        <v>7036582.393106925</v>
+        <v>7036616.493765838</v>
       </c>
       <c r="S52" t="n">
         <v>20</v>
@@ -6471,7 +6501,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111840132</v>
+        <v>111840120</v>
       </c>
       <c r="B53" t="n">
         <v>56398</v>
@@ -6507,7 +6537,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>upprörd, varnande</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -6516,10 +6546,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>611730.0076862896</v>
+        <v>611913.2339886408</v>
       </c>
       <c r="R53" t="n">
-        <v>7036605.618362699</v>
+        <v>7036278.784565655</v>
       </c>
       <c r="S53" t="n">
         <v>20</v>
@@ -6588,10 +6618,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111840181</v>
+        <v>111840107</v>
       </c>
       <c r="B54" t="n">
-        <v>78611</v>
+        <v>89369</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6604,21 +6634,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6463</v>
+        <v>5447</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6628,10 +6658,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>611643.964991785</v>
+        <v>611649.8351994418</v>
       </c>
       <c r="R54" t="n">
-        <v>7036616.493765838</v>
+        <v>7036615.355325347</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6700,10 +6730,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111840141</v>
+        <v>111840144</v>
       </c>
       <c r="B55" t="n">
-        <v>78605</v>
+        <v>56414</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6712,38 +6742,43 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6462</v>
+        <v>100049</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>611995.7935480368</v>
+        <v>611756.2283190354</v>
       </c>
       <c r="R55" t="n">
-        <v>7036214.038866865</v>
+        <v>7036522.778974289</v>
       </c>
       <c r="S55" t="n">
         <v>20</v>
@@ -6812,10 +6847,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111840110</v>
+        <v>111840131</v>
       </c>
       <c r="B56" t="n">
-        <v>89745</v>
+        <v>56398</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6824,38 +6859,43 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2062</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>611896.7164174926</v>
+        <v>611968.8017988449</v>
       </c>
       <c r="R56" t="n">
-        <v>7036468.574357864</v>
+        <v>7036395.402627021</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>
@@ -6924,10 +6964,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111840145</v>
+        <v>111840112</v>
       </c>
       <c r="B57" t="n">
-        <v>56414</v>
+        <v>89405</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6940,39 +6980,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>611966.0247136273</v>
+        <v>611748.0554904841</v>
       </c>
       <c r="R57" t="n">
-        <v>7036359.471176716</v>
+        <v>7036525.628309194</v>
       </c>
       <c r="S57" t="n">
         <v>20</v>
@@ -7041,10 +7076,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111840150</v>
+        <v>111840174</v>
       </c>
       <c r="B58" t="n">
-        <v>78578</v>
+        <v>89419</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7057,21 +7092,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7081,10 +7116,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>611550.6048254245</v>
+        <v>612005.5308763357</v>
       </c>
       <c r="R58" t="n">
-        <v>7036580.087332346</v>
+        <v>7036320.094612861</v>
       </c>
       <c r="S58" t="n">
         <v>20</v>
@@ -7153,10 +7188,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111840152</v>
+        <v>111840106</v>
       </c>
       <c r="B59" t="n">
-        <v>78578</v>
+        <v>89369</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7165,25 +7200,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7193,10 +7228,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>611691.7206150193</v>
+        <v>611685.1759468586</v>
       </c>
       <c r="R59" t="n">
-        <v>7036559.041695474</v>
+        <v>7036617.934765363</v>
       </c>
       <c r="S59" t="n">
         <v>20</v>
@@ -7265,10 +7300,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111840131</v>
+        <v>111840140</v>
       </c>
       <c r="B60" t="n">
-        <v>56398</v>
+        <v>78605</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7277,43 +7312,38 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>611968.8017988449</v>
+        <v>611968.467425107</v>
       </c>
       <c r="R60" t="n">
-        <v>7036395.402627021</v>
+        <v>7036238.61380059</v>
       </c>
       <c r="S60" t="n">
         <v>20</v>
@@ -7382,10 +7412,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111840146</v>
+        <v>111840124</v>
       </c>
       <c r="B61" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7398,16 +7428,16 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -7427,10 +7457,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>611935.9852041593</v>
+        <v>612162.5263506409</v>
       </c>
       <c r="R61" t="n">
-        <v>7036435.908902055</v>
+        <v>7036089.981436108</v>
       </c>
       <c r="S61" t="n">
         <v>20</v>
@@ -7499,10 +7529,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111840105</v>
+        <v>111840116</v>
       </c>
       <c r="B62" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7511,25 +7541,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7539,10 +7569,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>611887.4997693001</v>
+        <v>611789.2367900747</v>
       </c>
       <c r="R62" t="n">
-        <v>7036488.407450524</v>
+        <v>7036592.014885741</v>
       </c>
       <c r="S62" t="n">
         <v>20</v>
@@ -7611,10 +7641,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111840101</v>
+        <v>111840117</v>
       </c>
       <c r="B63" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7623,25 +7653,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7651,10 +7681,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>612073.4874485112</v>
+        <v>611725.3738043295</v>
       </c>
       <c r="R63" t="n">
-        <v>7036236.921791457</v>
+        <v>7036571.416293882</v>
       </c>
       <c r="S63" t="n">
         <v>20</v>
@@ -7723,10 +7753,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111840120</v>
+        <v>111840150</v>
       </c>
       <c r="B64" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7739,39 +7769,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>611913.2339886408</v>
+        <v>611550.6048254245</v>
       </c>
       <c r="R64" t="n">
-        <v>7036278.784565655</v>
+        <v>7036580.087332346</v>
       </c>
       <c r="S64" t="n">
         <v>20</v>
@@ -7840,10 +7865,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111840126</v>
+        <v>111840102</v>
       </c>
       <c r="B65" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7852,43 +7877,38 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>612130.930864902</v>
+        <v>611958.0414993305</v>
       </c>
       <c r="R65" t="n">
-        <v>7036146.659491631</v>
+        <v>7036382.483518991</v>
       </c>
       <c r="S65" t="n">
         <v>20</v>
@@ -7957,10 +7977,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111840119</v>
+        <v>111840128</v>
       </c>
       <c r="B66" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7973,34 +7993,39 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>611657.7574473261</v>
+        <v>612050.5924099417</v>
       </c>
       <c r="R66" t="n">
-        <v>7036619.663314155</v>
+        <v>7036237.462344669</v>
       </c>
       <c r="S66" t="n">
         <v>20</v>
@@ -8069,10 +8094,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111840167</v>
+        <v>111840122</v>
       </c>
       <c r="B67" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8081,30 +8106,31 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -8113,10 +8139,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>612162.5263506409</v>
+        <v>612218.6938216727</v>
       </c>
       <c r="R67" t="n">
-        <v>7036089.981436108</v>
+        <v>7036074.483427257</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -8185,7 +8211,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111840154</v>
+        <v>111840158</v>
       </c>
       <c r="B68" t="n">
         <v>78578</v>
@@ -8225,10 +8251,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>611999.9284227985</v>
+        <v>611625.1043809571</v>
       </c>
       <c r="R68" t="n">
-        <v>7036224.038725983</v>
+        <v>7036617.178122533</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -8297,10 +8323,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111840134</v>
+        <v>111840145</v>
       </c>
       <c r="B69" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8313,16 +8339,16 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -8333,7 +8359,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -8342,10 +8368,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>611775.6287810439</v>
+        <v>611966.0247136273</v>
       </c>
       <c r="R69" t="n">
-        <v>7036557.94632658</v>
+        <v>7036359.471176716</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -8414,10 +8440,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111840170</v>
+        <v>111840182</v>
       </c>
       <c r="B70" t="n">
-        <v>96348</v>
+        <v>89679</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8426,42 +8452,38 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>220787</v>
+        <v>6008693</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kritporing</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Resinoporia crassa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Audet</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>611721.2521968643</v>
+        <v>611987.1301913462</v>
       </c>
       <c r="R70" t="n">
-        <v>7036599.489451895</v>
+        <v>7036294.81288166</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>
@@ -8530,10 +8552,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111840143</v>
+        <v>111840177</v>
       </c>
       <c r="B71" t="n">
-        <v>89351</v>
+        <v>77515</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8546,21 +8568,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>112</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8570,10 +8592,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>611935.9852041593</v>
+        <v>611671.8001653572</v>
       </c>
       <c r="R71" t="n">
-        <v>7036435.908902055</v>
+        <v>7036615.675445669</v>
       </c>
       <c r="S71" t="n">
         <v>20</v>
@@ -8642,10 +8664,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111840144</v>
+        <v>111840139</v>
       </c>
       <c r="B72" t="n">
-        <v>56414</v>
+        <v>78605</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8654,43 +8676,38 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>100049</v>
+        <v>6462</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P72" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>611756.2283190354</v>
+        <v>611538.4945442909</v>
       </c>
       <c r="R72" t="n">
-        <v>7036522.778974289</v>
+        <v>7036580.1122336</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -8759,10 +8776,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111840165</v>
+        <v>111840119</v>
       </c>
       <c r="B73" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8771,42 +8788,38 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>611625.6525432562</v>
+        <v>611657.7574473261</v>
       </c>
       <c r="R73" t="n">
-        <v>7036563.002264032</v>
+        <v>7036619.663314155</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>
@@ -8875,10 +8888,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111840168</v>
+        <v>111840100</v>
       </c>
       <c r="B74" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8887,42 +8900,38 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>611958.0414993305</v>
+        <v>612126.00427822</v>
       </c>
       <c r="R74" t="n">
-        <v>7036382.483518991</v>
+        <v>7036197.553588478</v>
       </c>
       <c r="S74" t="n">
         <v>20</v>
@@ -8991,10 +9000,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111840166</v>
+        <v>111840136</v>
       </c>
       <c r="B75" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9003,30 +9012,31 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>stationär</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -9035,10 +9045,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>611872.0517480521</v>
+        <v>611872.9006968342</v>
       </c>
       <c r="R75" t="n">
-        <v>7036366.032528495</v>
+        <v>7036367.406045308</v>
       </c>
       <c r="S75" t="n">
         <v>20</v>
@@ -9107,10 +9117,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111840121</v>
+        <v>111840142</v>
       </c>
       <c r="B76" t="n">
-        <v>56398</v>
+        <v>78605</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9119,43 +9129,38 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>612131.8014658812</v>
+        <v>611625.1043809571</v>
       </c>
       <c r="R76" t="n">
-        <v>7036083.52705478</v>
+        <v>7036617.178122533</v>
       </c>
       <c r="S76" t="n">
         <v>20</v>
@@ -9224,10 +9229,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111840130</v>
+        <v>111840114</v>
       </c>
       <c r="B77" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9240,39 +9245,34 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P77" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>611987.1615648521</v>
+        <v>611931.1515982752</v>
       </c>
       <c r="R77" t="n">
-        <v>7036293.918105817</v>
+        <v>7036433.051986331</v>
       </c>
       <c r="S77" t="n">
         <v>20</v>

--- a/artfynd/A 40639-2022.xlsx
+++ b/artfynd/A 40639-2022.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111840129</v>
+        <v>111840166</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,31 +809,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -842,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>612009.0800721663</v>
+        <v>611872.0517480521</v>
       </c>
       <c r="R3" t="n">
-        <v>7036270.05001692</v>
+        <v>7036366.032528495</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -914,7 +913,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111840105</v>
+        <v>111840106</v>
       </c>
       <c r="B4" t="n">
         <v>89369</v>
@@ -954,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>611887.4997693001</v>
+        <v>611685.1759468586</v>
       </c>
       <c r="R4" t="n">
-        <v>7036488.407450524</v>
+        <v>7036617.934765363</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1026,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111840166</v>
+        <v>111840124</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,30 +1037,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>611872.0517480521</v>
+        <v>612162.5263506409</v>
       </c>
       <c r="R5" t="n">
-        <v>7036366.032528495</v>
+        <v>7036089.981436108</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1142,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111840103</v>
+        <v>111840149</v>
       </c>
       <c r="B6" t="n">
-        <v>89369</v>
+        <v>90854</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,25 +1154,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5447</v>
+        <v>2079</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>611937.0536248725</v>
+        <v>612070.4118449257</v>
       </c>
       <c r="R6" t="n">
-        <v>7036431.019251303</v>
+        <v>7036183.955704447</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1254,10 +1254,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111840127</v>
+        <v>111840165</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,31 +1266,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>75</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1299,10 +1298,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>612097.6396491884</v>
+        <v>611625.6525432562</v>
       </c>
       <c r="R7" t="n">
-        <v>7036226.122720091</v>
+        <v>7036563.002264032</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1371,10 +1370,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111840167</v>
+        <v>111840113</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1383,42 +1382,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>612162.5263506409</v>
+        <v>611968.6292715519</v>
       </c>
       <c r="R8" t="n">
-        <v>7036089.981436108</v>
+        <v>7036400.323734847</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1487,10 +1482,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111840125</v>
+        <v>111840164</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1499,31 +1494,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>50</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1532,10 +1526,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>612150.1243816372</v>
+        <v>611550.5735735258</v>
       </c>
       <c r="R9" t="n">
-        <v>7036136.582292198</v>
+        <v>7036580.982027167</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1604,7 +1598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111840132</v>
+        <v>111840121</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1640,7 +1634,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>upprörd, varnande</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1649,10 +1643,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>611730.0076862896</v>
+        <v>612131.8014658812</v>
       </c>
       <c r="R10" t="n">
-        <v>7036605.618362699</v>
+        <v>7036083.52705478</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1721,10 +1715,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111840126</v>
+        <v>111840102</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1733,43 +1727,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>612130.930864902</v>
+        <v>611958.0414993305</v>
       </c>
       <c r="R11" t="n">
-        <v>7036146.659491631</v>
+        <v>7036382.483518991</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1838,10 +1827,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111840173</v>
+        <v>111840140</v>
       </c>
       <c r="B12" t="n">
-        <v>89419</v>
+        <v>78605</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1850,25 +1839,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1204</v>
+        <v>6462</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1878,10 +1867,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>612202.8558842771</v>
+        <v>611968.467425107</v>
       </c>
       <c r="R12" t="n">
-        <v>7036078.4067488</v>
+        <v>7036238.61380059</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1950,10 +1939,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111840113</v>
+        <v>111840163</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1962,38 +1951,42 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>611968.6292715519</v>
+        <v>612073.4874485112</v>
       </c>
       <c r="R13" t="n">
-        <v>7036400.323734847</v>
+        <v>7036236.921791457</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2062,10 +2055,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111840176</v>
+        <v>111840131</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2078,34 +2071,39 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>612157.958919349</v>
+        <v>611968.8017988449</v>
       </c>
       <c r="R14" t="n">
-        <v>7036053.983385305</v>
+        <v>7036395.402627021</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2174,10 +2172,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111840149</v>
+        <v>111840132</v>
       </c>
       <c r="B15" t="n">
-        <v>90854</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2190,34 +2188,39 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2079</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>612070.4118449257</v>
+        <v>611730.0076862896</v>
       </c>
       <c r="R15" t="n">
-        <v>7036183.955704447</v>
+        <v>7036605.618362699</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2286,10 +2289,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111840121</v>
+        <v>111840168</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2298,31 +2301,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2331,10 +2333,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>612131.8014658812</v>
+        <v>611958.0414993305</v>
       </c>
       <c r="R16" t="n">
-        <v>7036083.52705478</v>
+        <v>7036382.483518991</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2403,10 +2405,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111840172</v>
+        <v>111840100</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2415,42 +2417,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>611736.8774460263</v>
+        <v>612126.00427822</v>
       </c>
       <c r="R17" t="n">
-        <v>7036614.368652546</v>
+        <v>7036197.553588478</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2519,10 +2517,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111840146</v>
+        <v>111840135</v>
       </c>
       <c r="B18" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2535,16 +2533,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2564,10 +2562,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>611935.9852041593</v>
+        <v>611892.7620166774</v>
       </c>
       <c r="R18" t="n">
-        <v>7036435.908902055</v>
+        <v>7036376.61240829</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2636,10 +2634,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111840164</v>
+        <v>111840123</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2648,30 +2646,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>50</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2680,10 +2679,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>611550.5735735258</v>
+        <v>612199.4368418896</v>
       </c>
       <c r="R19" t="n">
-        <v>7036580.982027167</v>
+        <v>7036086.350105605</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2752,10 +2751,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111840101</v>
+        <v>111840142</v>
       </c>
       <c r="B20" t="n">
-        <v>89369</v>
+        <v>78605</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2768,21 +2767,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5447</v>
+        <v>6462</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2792,10 +2791,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>612073.4874485112</v>
+        <v>611625.1043809571</v>
       </c>
       <c r="R20" t="n">
-        <v>7036236.921791457</v>
+        <v>7036617.178122533</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2864,10 +2863,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111840162</v>
+        <v>111840151</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2876,42 +2875,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>611796.2630279514</v>
+        <v>611655.8999817995</v>
       </c>
       <c r="R21" t="n">
-        <v>7036596.291893803</v>
+        <v>7036557.341203817</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2980,10 +2975,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111840161</v>
+        <v>111840099</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2992,42 +2987,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>611774.9902539523</v>
+        <v>611935.4835508752</v>
       </c>
       <c r="R22" t="n">
-        <v>7036601.817765385</v>
+        <v>7036271.053399008</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -3096,10 +3087,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111840104</v>
+        <v>111840125</v>
       </c>
       <c r="B23" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3108,38 +3099,43 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>611931.9467388361</v>
+        <v>612150.1243816372</v>
       </c>
       <c r="R23" t="n">
-        <v>7036448.75694545</v>
+        <v>7036136.582292198</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -3208,10 +3204,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111840156</v>
+        <v>111840146</v>
       </c>
       <c r="B24" t="n">
-        <v>78578</v>
+        <v>56414</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3224,34 +3220,39 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>100049</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>611644.9077998699</v>
+        <v>611935.9852041593</v>
       </c>
       <c r="R24" t="n">
-        <v>7036615.18305849</v>
+        <v>7036435.908902055</v>
       </c>
       <c r="S24" t="n">
         <v>20</v>
@@ -3320,10 +3321,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111840151</v>
+        <v>111840172</v>
       </c>
       <c r="B25" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3332,38 +3333,42 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>611655.8999817995</v>
+        <v>611736.8774460263</v>
       </c>
       <c r="R25" t="n">
-        <v>7036557.341203817</v>
+        <v>7036614.368652546</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3432,10 +3437,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111840168</v>
+        <v>111840117</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3444,42 +3449,38 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>611958.0414993305</v>
+        <v>611725.3738043295</v>
       </c>
       <c r="R26" t="n">
-        <v>7036382.483518991</v>
+        <v>7036571.416293882</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3548,10 +3549,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111840163</v>
+        <v>111840104</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3560,42 +3561,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>612073.4874485112</v>
+        <v>611931.9467388361</v>
       </c>
       <c r="R27" t="n">
-        <v>7036236.921791457</v>
+        <v>7036448.75694545</v>
       </c>
       <c r="S27" t="n">
         <v>20</v>
@@ -3664,10 +3661,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111840141</v>
+        <v>111840156</v>
       </c>
       <c r="B28" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3676,25 +3673,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3704,10 +3701,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>611995.7935480368</v>
+        <v>611644.9077998699</v>
       </c>
       <c r="R28" t="n">
-        <v>7036214.038866865</v>
+        <v>7036615.18305849</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3776,10 +3773,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111840170</v>
+        <v>111840139</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3788,42 +3785,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>611721.2521968643</v>
+        <v>611538.4945442909</v>
       </c>
       <c r="R29" t="n">
-        <v>7036599.489451895</v>
+        <v>7036580.1122336</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>
@@ -3892,10 +3885,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111840171</v>
+        <v>111840133</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3904,38 +3897,43 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>611730.9818362541</v>
+        <v>611900.6540649632</v>
       </c>
       <c r="R30" t="n">
-        <v>7036603.412985859</v>
+        <v>7036471.399798824</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -4004,10 +4002,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111840133</v>
+        <v>111840175</v>
       </c>
       <c r="B31" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4020,39 +4018,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>611900.6540649632</v>
+        <v>612016.4676519124</v>
       </c>
       <c r="R31" t="n">
-        <v>7036471.399798824</v>
+        <v>7036264.037915429</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -4121,10 +4114,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111840169</v>
+        <v>111840150</v>
       </c>
       <c r="B32" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4133,42 +4126,38 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>611826.8177700657</v>
+        <v>611550.6048254245</v>
       </c>
       <c r="R32" t="n">
-        <v>7036530.624793339</v>
+        <v>7036580.087332346</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -4237,10 +4226,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111840130</v>
+        <v>111840152</v>
       </c>
       <c r="B33" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4253,39 +4242,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>611987.1615648521</v>
+        <v>611691.7206150193</v>
       </c>
       <c r="R33" t="n">
-        <v>7036293.918105817</v>
+        <v>7036559.041695474</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -4354,10 +4338,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111840115</v>
+        <v>111840134</v>
       </c>
       <c r="B34" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4370,34 +4354,39 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>611896.7164174926</v>
+        <v>611775.6287810439</v>
       </c>
       <c r="R34" t="n">
-        <v>7036468.574357864</v>
+        <v>7036557.94632658</v>
       </c>
       <c r="S34" t="n">
         <v>20</v>
@@ -4466,10 +4455,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111840135</v>
+        <v>111840155</v>
       </c>
       <c r="B35" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4482,39 +4471,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>611892.7620166774</v>
+        <v>611724.3624407195</v>
       </c>
       <c r="R35" t="n">
-        <v>7036376.61240829</v>
+        <v>7036587.505142178</v>
       </c>
       <c r="S35" t="n">
         <v>20</v>
@@ -4583,10 +4567,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111840165</v>
+        <v>111840105</v>
       </c>
       <c r="B36" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4595,42 +4579,38 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>611625.6525432562</v>
+        <v>611887.4997693001</v>
       </c>
       <c r="R36" t="n">
-        <v>7036563.002264032</v>
+        <v>7036488.407450524</v>
       </c>
       <c r="S36" t="n">
         <v>20</v>
@@ -4699,10 +4679,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111840098</v>
+        <v>111840141</v>
       </c>
       <c r="B37" t="n">
-        <v>94134</v>
+        <v>78605</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4711,25 +4691,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>53</v>
+        <v>6462</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4739,10 +4719,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>612200.5371952844</v>
+        <v>611995.7935480368</v>
       </c>
       <c r="R37" t="n">
-        <v>7036080.565151189</v>
+        <v>7036214.038866865</v>
       </c>
       <c r="S37" t="n">
         <v>20</v>
@@ -4811,10 +4791,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111840123</v>
+        <v>111840174</v>
       </c>
       <c r="B38" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4827,39 +4807,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>612199.4368418896</v>
+        <v>612005.5308763357</v>
       </c>
       <c r="R38" t="n">
-        <v>7036086.350105605</v>
+        <v>7036320.094612861</v>
       </c>
       <c r="S38" t="n">
         <v>20</v>
@@ -4928,10 +4903,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111840118</v>
+        <v>111840171</v>
       </c>
       <c r="B39" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4940,25 +4915,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4968,10 +4943,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>611685.1446571616</v>
+        <v>611730.9818362541</v>
       </c>
       <c r="R39" t="n">
-        <v>7036618.829449931</v>
+        <v>7036603.412985859</v>
       </c>
       <c r="S39" t="n">
         <v>20</v>
@@ -5040,10 +5015,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111840110</v>
+        <v>111840101</v>
       </c>
       <c r="B40" t="n">
-        <v>89745</v>
+        <v>89369</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5052,25 +5027,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2062</v>
+        <v>5447</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5080,10 +5055,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>611896.7164174926</v>
+        <v>612073.4874485112</v>
       </c>
       <c r="R40" t="n">
-        <v>7036468.574357864</v>
+        <v>7036236.921791457</v>
       </c>
       <c r="S40" t="n">
         <v>20</v>
@@ -5152,10 +5127,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111840152</v>
+        <v>111840173</v>
       </c>
       <c r="B41" t="n">
-        <v>78578</v>
+        <v>89419</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5168,21 +5143,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5192,10 +5167,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>611691.7206150193</v>
+        <v>612202.8558842771</v>
       </c>
       <c r="R41" t="n">
-        <v>7036559.041695474</v>
+        <v>7036078.4067488</v>
       </c>
       <c r="S41" t="n">
         <v>20</v>
@@ -5264,10 +5239,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111840143</v>
+        <v>111840120</v>
       </c>
       <c r="B42" t="n">
-        <v>89351</v>
+        <v>56398</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5280,34 +5255,39 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>112</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>611935.9852041593</v>
+        <v>611913.2339886408</v>
       </c>
       <c r="R42" t="n">
-        <v>7036435.908902055</v>
+        <v>7036278.784565655</v>
       </c>
       <c r="S42" t="n">
         <v>20</v>
@@ -5376,10 +5356,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111840155</v>
+        <v>111840167</v>
       </c>
       <c r="B43" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5388,38 +5368,42 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>611724.3624407195</v>
+        <v>612162.5263506409</v>
       </c>
       <c r="R43" t="n">
-        <v>7036587.505142178</v>
+        <v>7036089.981436108</v>
       </c>
       <c r="S43" t="n">
         <v>20</v>
@@ -5488,10 +5472,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111840111</v>
+        <v>111840128</v>
       </c>
       <c r="B44" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5504,34 +5488,39 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>611565.3246701241</v>
+        <v>612050.5924099417</v>
       </c>
       <c r="R44" t="n">
-        <v>7036582.393106925</v>
+        <v>7036237.462344669</v>
       </c>
       <c r="S44" t="n">
         <v>20</v>
@@ -5600,10 +5589,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111840178</v>
+        <v>111840145</v>
       </c>
       <c r="B45" t="n">
-        <v>96265</v>
+        <v>56414</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5612,38 +5601,43 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>219790</v>
+        <v>100049</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>611660.8587535081</v>
+        <v>611966.0247136273</v>
       </c>
       <c r="R45" t="n">
-        <v>7036556.618785212</v>
+        <v>7036359.471176716</v>
       </c>
       <c r="S45" t="n">
         <v>20</v>
@@ -5712,10 +5706,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111840134</v>
+        <v>111840153</v>
       </c>
       <c r="B46" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5728,39 +5722,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>611775.6287810439</v>
+        <v>611889.0449884314</v>
       </c>
       <c r="R46" t="n">
-        <v>7036557.94632658</v>
+        <v>7036303.469514119</v>
       </c>
       <c r="S46" t="n">
         <v>20</v>
@@ -5829,10 +5818,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111840153</v>
+        <v>111840161</v>
       </c>
       <c r="B47" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5841,38 +5830,42 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>611889.0449884314</v>
+        <v>611774.9902539523</v>
       </c>
       <c r="R47" t="n">
-        <v>7036303.469514119</v>
+        <v>7036601.817765385</v>
       </c>
       <c r="S47" t="n">
         <v>20</v>
@@ -5941,10 +5934,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111840181</v>
+        <v>111840111</v>
       </c>
       <c r="B48" t="n">
-        <v>78611</v>
+        <v>89405</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5953,25 +5946,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6463</v>
+        <v>1202</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5981,10 +5974,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>611643.964991785</v>
+        <v>611565.3246701241</v>
       </c>
       <c r="R48" t="n">
-        <v>7036616.493765838</v>
+        <v>7036582.393106925</v>
       </c>
       <c r="S48" t="n">
         <v>20</v>
@@ -6053,10 +6046,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111840099</v>
+        <v>111840154</v>
       </c>
       <c r="B49" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6065,25 +6058,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6093,10 +6086,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>611935.4835508752</v>
+        <v>611999.9284227985</v>
       </c>
       <c r="R49" t="n">
-        <v>7036271.053399008</v>
+        <v>7036224.038725983</v>
       </c>
       <c r="S49" t="n">
         <v>20</v>
@@ -6165,10 +6158,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111840154</v>
+        <v>111840119</v>
       </c>
       <c r="B50" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6181,21 +6174,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6205,10 +6198,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>611999.9284227985</v>
+        <v>611657.7574473261</v>
       </c>
       <c r="R50" t="n">
-        <v>7036224.038725983</v>
+        <v>7036619.663314155</v>
       </c>
       <c r="S50" t="n">
         <v>20</v>
@@ -6277,10 +6270,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111840175</v>
+        <v>111840181</v>
       </c>
       <c r="B51" t="n">
-        <v>89423</v>
+        <v>78611</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6289,25 +6282,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5432</v>
+        <v>6463</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6317,10 +6310,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>612016.4676519124</v>
+        <v>611643.964991785</v>
       </c>
       <c r="R51" t="n">
-        <v>7036264.037915429</v>
+        <v>7036616.493765838</v>
       </c>
       <c r="S51" t="n">
         <v>20</v>
@@ -6389,10 +6382,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111840157</v>
+        <v>111840162</v>
       </c>
       <c r="B52" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6401,38 +6394,42 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>611643.964991785</v>
+        <v>611796.2630279514</v>
       </c>
       <c r="R52" t="n">
-        <v>7036616.493765838</v>
+        <v>7036596.291893803</v>
       </c>
       <c r="S52" t="n">
         <v>20</v>
@@ -6501,10 +6498,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111840120</v>
+        <v>111840112</v>
       </c>
       <c r="B53" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6517,39 +6514,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>611913.2339886408</v>
+        <v>611748.0554904841</v>
       </c>
       <c r="R53" t="n">
-        <v>7036278.784565655</v>
+        <v>7036525.628309194</v>
       </c>
       <c r="S53" t="n">
         <v>20</v>
@@ -6618,10 +6610,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111840107</v>
+        <v>111840130</v>
       </c>
       <c r="B54" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6630,38 +6622,43 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>611649.8351994418</v>
+        <v>611987.1615648521</v>
       </c>
       <c r="R54" t="n">
-        <v>7036615.355325347</v>
+        <v>7036293.918105817</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6730,10 +6727,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111840144</v>
+        <v>111840114</v>
       </c>
       <c r="B55" t="n">
-        <v>56414</v>
+        <v>89405</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6746,39 +6743,34 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P55" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>611756.2283190354</v>
+        <v>611931.1515982752</v>
       </c>
       <c r="R55" t="n">
-        <v>7036522.778974289</v>
+        <v>7036433.051986331</v>
       </c>
       <c r="S55" t="n">
         <v>20</v>
@@ -6847,10 +6839,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111840131</v>
+        <v>111840136</v>
       </c>
       <c r="B56" t="n">
-        <v>56398</v>
+        <v>56543</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6863,27 +6855,27 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>stationär</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -6892,10 +6884,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>611968.8017988449</v>
+        <v>611872.9006968342</v>
       </c>
       <c r="R56" t="n">
-        <v>7036395.402627021</v>
+        <v>7036367.406045308</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>
@@ -6964,10 +6956,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111840112</v>
+        <v>111840177</v>
       </c>
       <c r="B57" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6980,21 +6972,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7004,10 +6996,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>611748.0554904841</v>
+        <v>611671.8001653572</v>
       </c>
       <c r="R57" t="n">
-        <v>7036525.628309194</v>
+        <v>7036615.675445669</v>
       </c>
       <c r="S57" t="n">
         <v>20</v>
@@ -7076,10 +7068,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111840174</v>
+        <v>111840178</v>
       </c>
       <c r="B58" t="n">
-        <v>89419</v>
+        <v>96265</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7088,25 +7080,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1204</v>
+        <v>219790</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7116,10 +7108,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>612005.5308763357</v>
+        <v>611660.8587535081</v>
       </c>
       <c r="R58" t="n">
-        <v>7036320.094612861</v>
+        <v>7036556.618785212</v>
       </c>
       <c r="S58" t="n">
         <v>20</v>
@@ -7188,10 +7180,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111840106</v>
+        <v>111840129</v>
       </c>
       <c r="B59" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7200,38 +7192,43 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>611685.1759468586</v>
+        <v>612009.0800721663</v>
       </c>
       <c r="R59" t="n">
-        <v>7036617.934765363</v>
+        <v>7036270.05001692</v>
       </c>
       <c r="S59" t="n">
         <v>20</v>
@@ -7300,10 +7297,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111840140</v>
+        <v>111840182</v>
       </c>
       <c r="B60" t="n">
-        <v>78605</v>
+        <v>89679</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7312,25 +7309,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6462</v>
+        <v>6008693</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Kritporing</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Resinoporia crassa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Audet</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7340,10 +7337,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>611968.467425107</v>
+        <v>611987.1301913462</v>
       </c>
       <c r="R60" t="n">
-        <v>7036238.61380059</v>
+        <v>7036294.81288166</v>
       </c>
       <c r="S60" t="n">
         <v>20</v>
@@ -7412,7 +7409,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111840124</v>
+        <v>111840127</v>
       </c>
       <c r="B61" t="n">
         <v>56398</v>
@@ -7448,7 +7445,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -7457,10 +7454,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>612162.5263506409</v>
+        <v>612097.6396491884</v>
       </c>
       <c r="R61" t="n">
-        <v>7036089.981436108</v>
+        <v>7036226.122720091</v>
       </c>
       <c r="S61" t="n">
         <v>20</v>
@@ -7529,10 +7526,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111840116</v>
+        <v>111840158</v>
       </c>
       <c r="B62" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7545,21 +7542,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7569,10 +7566,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>611789.2367900747</v>
+        <v>611625.1043809571</v>
       </c>
       <c r="R62" t="n">
-        <v>7036592.014885741</v>
+        <v>7036617.178122533</v>
       </c>
       <c r="S62" t="n">
         <v>20</v>
@@ -7641,7 +7638,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111840117</v>
+        <v>111840116</v>
       </c>
       <c r="B63" t="n">
         <v>89405</v>
@@ -7681,10 +7678,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>611725.3738043295</v>
+        <v>611789.2367900747</v>
       </c>
       <c r="R63" t="n">
-        <v>7036571.416293882</v>
+        <v>7036592.014885741</v>
       </c>
       <c r="S63" t="n">
         <v>20</v>
@@ -7753,10 +7750,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111840150</v>
+        <v>111840126</v>
       </c>
       <c r="B64" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7769,34 +7766,39 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>611550.6048254245</v>
+        <v>612130.930864902</v>
       </c>
       <c r="R64" t="n">
-        <v>7036580.087332346</v>
+        <v>7036146.659491631</v>
       </c>
       <c r="S64" t="n">
         <v>20</v>
@@ -7865,10 +7867,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111840102</v>
+        <v>111840157</v>
       </c>
       <c r="B65" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7877,25 +7879,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7905,10 +7907,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>611958.0414993305</v>
+        <v>611643.964991785</v>
       </c>
       <c r="R65" t="n">
-        <v>7036382.483518991</v>
+        <v>7036616.493765838</v>
       </c>
       <c r="S65" t="n">
         <v>20</v>
@@ -7977,10 +7979,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111840128</v>
+        <v>111840169</v>
       </c>
       <c r="B66" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7989,31 +7991,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -8022,10 +8023,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>612050.5924099417</v>
+        <v>611826.8177700657</v>
       </c>
       <c r="R66" t="n">
-        <v>7036237.462344669</v>
+        <v>7036530.624793339</v>
       </c>
       <c r="S66" t="n">
         <v>20</v>
@@ -8094,10 +8095,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111840122</v>
+        <v>111840144</v>
       </c>
       <c r="B67" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8110,16 +8111,16 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -8139,10 +8140,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>612218.6938216727</v>
+        <v>611756.2283190354</v>
       </c>
       <c r="R67" t="n">
-        <v>7036074.483427257</v>
+        <v>7036522.778974289</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -8211,10 +8212,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111840158</v>
+        <v>111840176</v>
       </c>
       <c r="B68" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8227,21 +8228,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8251,10 +8252,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>611625.1043809571</v>
+        <v>612157.958919349</v>
       </c>
       <c r="R68" t="n">
-        <v>7036617.178122533</v>
+        <v>7036053.983385305</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -8323,10 +8324,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111840145</v>
+        <v>111840170</v>
       </c>
       <c r="B69" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8335,31 +8336,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>20</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -8368,10 +8368,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>611966.0247136273</v>
+        <v>611721.2521968643</v>
       </c>
       <c r="R69" t="n">
-        <v>7036359.471176716</v>
+        <v>7036599.489451895</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -8440,10 +8440,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111840182</v>
+        <v>111840122</v>
       </c>
       <c r="B70" t="n">
-        <v>89679</v>
+        <v>56398</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8452,38 +8452,43 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6008693</v>
+        <v>100109</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Kritporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Resinoporia crassa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(P.Karst.) Audet</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>611987.1301913462</v>
+        <v>612218.6938216727</v>
       </c>
       <c r="R70" t="n">
-        <v>7036294.81288166</v>
+        <v>7036074.483427257</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>
@@ -8552,10 +8557,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111840177</v>
+        <v>111840098</v>
       </c>
       <c r="B71" t="n">
-        <v>77515</v>
+        <v>94134</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8568,21 +8573,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8592,10 +8597,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>611671.8001653572</v>
+        <v>612200.5371952844</v>
       </c>
       <c r="R71" t="n">
-        <v>7036615.675445669</v>
+        <v>7036080.565151189</v>
       </c>
       <c r="S71" t="n">
         <v>20</v>
@@ -8664,10 +8669,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111840139</v>
+        <v>111840103</v>
       </c>
       <c r="B72" t="n">
-        <v>78605</v>
+        <v>89369</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8680,21 +8685,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6462</v>
+        <v>5447</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8704,10 +8709,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>611538.4945442909</v>
+        <v>611937.0536248725</v>
       </c>
       <c r="R72" t="n">
-        <v>7036580.1122336</v>
+        <v>7036431.019251303</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -8776,10 +8781,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111840119</v>
+        <v>111840143</v>
       </c>
       <c r="B73" t="n">
-        <v>89405</v>
+        <v>89351</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8792,21 +8797,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1202</v>
+        <v>112</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8816,10 +8821,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>611657.7574473261</v>
+        <v>611935.9852041593</v>
       </c>
       <c r="R73" t="n">
-        <v>7036619.663314155</v>
+        <v>7036435.908902055</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>
@@ -8888,10 +8893,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111840100</v>
+        <v>111840115</v>
       </c>
       <c r="B74" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8900,25 +8905,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8928,10 +8933,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>612126.00427822</v>
+        <v>611896.7164174926</v>
       </c>
       <c r="R74" t="n">
-        <v>7036197.553588478</v>
+        <v>7036468.574357864</v>
       </c>
       <c r="S74" t="n">
         <v>20</v>
@@ -9000,10 +9005,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111840136</v>
+        <v>111840107</v>
       </c>
       <c r="B75" t="n">
-        <v>56543</v>
+        <v>89369</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9012,43 +9017,38 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>103021</v>
+        <v>5447</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>stationär</t>
-        </is>
-      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>611872.9006968342</v>
+        <v>611649.8351994418</v>
       </c>
       <c r="R75" t="n">
-        <v>7036367.406045308</v>
+        <v>7036615.355325347</v>
       </c>
       <c r="S75" t="n">
         <v>20</v>
@@ -9117,10 +9117,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111840142</v>
+        <v>111840118</v>
       </c>
       <c r="B76" t="n">
-        <v>78605</v>
+        <v>89405</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9129,25 +9129,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6462</v>
+        <v>1202</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9157,10 +9157,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>611625.1043809571</v>
+        <v>611685.1446571616</v>
       </c>
       <c r="R76" t="n">
-        <v>7036617.178122533</v>
+        <v>7036618.829449931</v>
       </c>
       <c r="S76" t="n">
         <v>20</v>
@@ -9229,10 +9229,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111840114</v>
+        <v>111840110</v>
       </c>
       <c r="B77" t="n">
-        <v>89405</v>
+        <v>89745</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9241,25 +9241,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1202</v>
+        <v>2062</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9269,10 +9269,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>611931.1515982752</v>
+        <v>611896.7164174926</v>
       </c>
       <c r="R77" t="n">
-        <v>7036433.051986331</v>
+        <v>7036468.574357864</v>
       </c>
       <c r="S77" t="n">
         <v>20</v>

--- a/artfynd/A 40639-2022.xlsx
+++ b/artfynd/A 40639-2022.xlsx
@@ -8781,10 +8781,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111840143</v>
+        <v>111840110</v>
       </c>
       <c r="B73" t="n">
-        <v>89351</v>
+        <v>89745</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8793,25 +8793,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>112</v>
+        <v>2062</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8821,10 +8821,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>611935.9852041593</v>
+        <v>611896.7164174926</v>
       </c>
       <c r="R73" t="n">
-        <v>7036435.908902055</v>
+        <v>7036468.574357864</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>
@@ -8893,10 +8893,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111840115</v>
+        <v>111840143</v>
       </c>
       <c r="B74" t="n">
-        <v>89405</v>
+        <v>89351</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8909,21 +8909,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1202</v>
+        <v>112</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8933,10 +8933,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>611896.7164174926</v>
+        <v>611935.9852041593</v>
       </c>
       <c r="R74" t="n">
-        <v>7036468.574357864</v>
+        <v>7036435.908902055</v>
       </c>
       <c r="S74" t="n">
         <v>20</v>
@@ -9005,10 +9005,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111840107</v>
+        <v>111840115</v>
       </c>
       <c r="B75" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9017,25 +9017,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9045,10 +9045,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>611649.8351994418</v>
+        <v>611896.7164174926</v>
       </c>
       <c r="R75" t="n">
-        <v>7036615.355325347</v>
+        <v>7036468.574357864</v>
       </c>
       <c r="S75" t="n">
         <v>20</v>
@@ -9117,10 +9117,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111840118</v>
+        <v>111840107</v>
       </c>
       <c r="B76" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9129,25 +9129,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9157,10 +9157,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>611685.1446571616</v>
+        <v>611649.8351994418</v>
       </c>
       <c r="R76" t="n">
-        <v>7036618.829449931</v>
+        <v>7036615.355325347</v>
       </c>
       <c r="S76" t="n">
         <v>20</v>
@@ -9229,10 +9229,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111840110</v>
+        <v>111840118</v>
       </c>
       <c r="B77" t="n">
-        <v>89745</v>
+        <v>89405</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9241,25 +9241,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2062</v>
+        <v>1202</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9269,10 +9269,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>611896.7164174926</v>
+        <v>611685.1446571616</v>
       </c>
       <c r="R77" t="n">
-        <v>7036468.574357864</v>
+        <v>7036618.829449931</v>
       </c>
       <c r="S77" t="n">
         <v>20</v>

--- a/artfynd/A 40639-2022.xlsx
+++ b/artfynd/A 40639-2022.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111840166</v>
+        <v>111840098</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,42 +809,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>611872.0517480521</v>
+        <v>612200.5371952844</v>
       </c>
       <c r="R3" t="n">
-        <v>7036366.032528495</v>
+        <v>7036080.565151189</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -913,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111840106</v>
+        <v>111840181</v>
       </c>
       <c r="B4" t="n">
-        <v>89369</v>
+        <v>78611</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,21 +925,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5447</v>
+        <v>6463</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -953,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>611685.1759468586</v>
+        <v>611643.964991785</v>
       </c>
       <c r="R4" t="n">
-        <v>7036617.934765363</v>
+        <v>7036616.493765838</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1025,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111840124</v>
+        <v>111840158</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,39 +1037,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>612162.5263506409</v>
+        <v>611625.1043809571</v>
       </c>
       <c r="R5" t="n">
-        <v>7036089.981436108</v>
+        <v>7036617.178122533</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1142,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111840149</v>
+        <v>111840141</v>
       </c>
       <c r="B6" t="n">
-        <v>90854</v>
+        <v>78605</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,25 +1145,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2079</v>
+        <v>6462</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1182,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>612070.4118449257</v>
+        <v>611995.7935480368</v>
       </c>
       <c r="R6" t="n">
-        <v>7036183.955704447</v>
+        <v>7036214.038866865</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1254,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111840165</v>
+        <v>111840129</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,30 +1257,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>75</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1298,10 +1290,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>611625.6525432562</v>
+        <v>612009.0800721663</v>
       </c>
       <c r="R7" t="n">
-        <v>7036563.002264032</v>
+        <v>7036270.05001692</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1370,10 +1362,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111840113</v>
+        <v>111840133</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1386,34 +1378,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>611968.6292715519</v>
+        <v>611900.6540649632</v>
       </c>
       <c r="R8" t="n">
-        <v>7036400.323734847</v>
+        <v>7036471.399798824</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1482,10 +1479,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111840164</v>
+        <v>111840101</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1494,42 +1491,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>611550.5735735258</v>
+        <v>612073.4874485112</v>
       </c>
       <c r="R9" t="n">
-        <v>7036580.982027167</v>
+        <v>7036236.921791457</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1598,10 +1591,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111840121</v>
+        <v>111840145</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1614,16 +1607,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1634,7 +1627,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1643,10 +1636,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>612131.8014658812</v>
+        <v>611966.0247136273</v>
       </c>
       <c r="R10" t="n">
-        <v>7036083.52705478</v>
+        <v>7036359.471176716</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1715,10 +1708,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111840102</v>
+        <v>111840130</v>
       </c>
       <c r="B11" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1727,38 +1720,43 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>611958.0414993305</v>
+        <v>611987.1615648521</v>
       </c>
       <c r="R11" t="n">
-        <v>7036382.483518991</v>
+        <v>7036293.918105817</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1827,10 +1825,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111840140</v>
+        <v>111840154</v>
       </c>
       <c r="B12" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1839,25 +1837,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1867,10 +1865,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>611968.467425107</v>
+        <v>611999.9284227985</v>
       </c>
       <c r="R12" t="n">
-        <v>7036238.61380059</v>
+        <v>7036224.038725983</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1939,10 +1937,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111840163</v>
+        <v>111840136</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1951,30 +1949,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>15</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>stationär</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1983,10 +1982,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>612073.4874485112</v>
+        <v>611872.9006968342</v>
       </c>
       <c r="R13" t="n">
-        <v>7036236.921791457</v>
+        <v>7036367.406045308</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2055,7 +2054,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111840131</v>
+        <v>111840124</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2091,7 +2090,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2100,10 +2099,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>611968.8017988449</v>
+        <v>612162.5263506409</v>
       </c>
       <c r="R14" t="n">
-        <v>7036395.402627021</v>
+        <v>7036089.981436108</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2172,10 +2171,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111840132</v>
+        <v>111840163</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2184,31 +2183,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>15</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2217,10 +2215,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>611730.0076862896</v>
+        <v>612073.4874485112</v>
       </c>
       <c r="R15" t="n">
-        <v>7036605.618362699</v>
+        <v>7036236.921791457</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2289,10 +2287,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111840168</v>
+        <v>111840175</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>89423</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2301,42 +2299,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>611958.0414993305</v>
+        <v>612016.4676519124</v>
       </c>
       <c r="R16" t="n">
-        <v>7036382.483518991</v>
+        <v>7036264.037915429</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2405,10 +2399,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111840100</v>
+        <v>111840143</v>
       </c>
       <c r="B17" t="n">
-        <v>89369</v>
+        <v>89351</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2417,25 +2411,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5447</v>
+        <v>112</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2445,10 +2439,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>612126.00427822</v>
+        <v>611935.9852041593</v>
       </c>
       <c r="R17" t="n">
-        <v>7036197.553588478</v>
+        <v>7036435.908902055</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2517,10 +2511,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111840135</v>
+        <v>111840165</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2529,31 +2523,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>75</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2562,10 +2555,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>611892.7620166774</v>
+        <v>611625.6525432562</v>
       </c>
       <c r="R18" t="n">
-        <v>7036376.61240829</v>
+        <v>7036563.002264032</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2634,10 +2627,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111840123</v>
+        <v>111840106</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2646,43 +2639,38 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>612199.4368418896</v>
+        <v>611685.1759468586</v>
       </c>
       <c r="R19" t="n">
-        <v>7036086.350105605</v>
+        <v>7036617.934765363</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2751,10 +2739,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111840142</v>
+        <v>111840146</v>
       </c>
       <c r="B20" t="n">
-        <v>78605</v>
+        <v>56414</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2763,38 +2751,43 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6462</v>
+        <v>100049</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>611625.1043809571</v>
+        <v>611935.9852041593</v>
       </c>
       <c r="R20" t="n">
-        <v>7036617.178122533</v>
+        <v>7036435.908902055</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2863,10 +2856,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111840151</v>
+        <v>111840112</v>
       </c>
       <c r="B21" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2879,21 +2872,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2903,10 +2896,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>611655.8999817995</v>
+        <v>611748.0554904841</v>
       </c>
       <c r="R21" t="n">
-        <v>7036557.341203817</v>
+        <v>7036525.628309194</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2975,10 +2968,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111840099</v>
+        <v>111840170</v>
       </c>
       <c r="B22" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2987,38 +2980,42 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>611935.4835508752</v>
+        <v>611721.2521968643</v>
       </c>
       <c r="R22" t="n">
-        <v>7036271.053399008</v>
+        <v>7036599.489451895</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -3087,10 +3084,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111840125</v>
+        <v>111840152</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3103,39 +3100,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>612150.1243816372</v>
+        <v>611691.7206150193</v>
       </c>
       <c r="R23" t="n">
-        <v>7036136.582292198</v>
+        <v>7036559.041695474</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -3204,10 +3196,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111840146</v>
+        <v>111840123</v>
       </c>
       <c r="B24" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3220,16 +3212,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3249,10 +3241,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>611935.9852041593</v>
+        <v>612199.4368418896</v>
       </c>
       <c r="R24" t="n">
-        <v>7036435.908902055</v>
+        <v>7036086.350105605</v>
       </c>
       <c r="S24" t="n">
         <v>20</v>
@@ -3321,10 +3313,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111840172</v>
+        <v>111840139</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3333,42 +3325,38 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>611736.8774460263</v>
+        <v>611538.4945442909</v>
       </c>
       <c r="R25" t="n">
-        <v>7036614.368652546</v>
+        <v>7036580.1122336</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3437,10 +3425,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111840117</v>
+        <v>111840121</v>
       </c>
       <c r="B26" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3453,34 +3441,39 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>611725.3738043295</v>
+        <v>612131.8014658812</v>
       </c>
       <c r="R26" t="n">
-        <v>7036571.416293882</v>
+        <v>7036083.52705478</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3549,10 +3542,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111840104</v>
+        <v>111840174</v>
       </c>
       <c r="B27" t="n">
-        <v>89369</v>
+        <v>89419</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3561,25 +3554,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5447</v>
+        <v>1204</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3589,10 +3582,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>611931.9467388361</v>
+        <v>612005.5308763357</v>
       </c>
       <c r="R27" t="n">
-        <v>7036448.75694545</v>
+        <v>7036320.094612861</v>
       </c>
       <c r="S27" t="n">
         <v>20</v>
@@ -3661,10 +3654,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111840156</v>
+        <v>111840126</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3677,34 +3670,39 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>611644.9077998699</v>
+        <v>612130.930864902</v>
       </c>
       <c r="R28" t="n">
-        <v>7036615.18305849</v>
+        <v>7036146.659491631</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3773,10 +3771,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111840139</v>
+        <v>111840176</v>
       </c>
       <c r="B29" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3785,25 +3783,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3813,10 +3811,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>611538.4945442909</v>
+        <v>612157.958919349</v>
       </c>
       <c r="R29" t="n">
-        <v>7036580.1122336</v>
+        <v>7036053.983385305</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>
@@ -3885,7 +3883,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111840133</v>
+        <v>111840132</v>
       </c>
       <c r="B30" t="n">
         <v>56398</v>
@@ -3921,7 +3919,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>upprörd, varnande</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3930,10 +3928,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>611900.6540649632</v>
+        <v>611730.0076862896</v>
       </c>
       <c r="R30" t="n">
-        <v>7036471.399798824</v>
+        <v>7036605.618362699</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -4002,10 +4000,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111840175</v>
+        <v>111840127</v>
       </c>
       <c r="B31" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4018,34 +4016,39 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>612016.4676519124</v>
+        <v>612097.6396491884</v>
       </c>
       <c r="R31" t="n">
-        <v>7036264.037915429</v>
+        <v>7036226.122720091</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -4114,10 +4117,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111840150</v>
+        <v>111840177</v>
       </c>
       <c r="B32" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4130,21 +4133,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4154,10 +4157,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>611550.6048254245</v>
+        <v>611671.8001653572</v>
       </c>
       <c r="R32" t="n">
-        <v>7036580.087332346</v>
+        <v>7036615.675445669</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -4226,7 +4229,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111840152</v>
+        <v>111840153</v>
       </c>
       <c r="B33" t="n">
         <v>78578</v>
@@ -4266,10 +4269,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>611691.7206150193</v>
+        <v>611889.0449884314</v>
       </c>
       <c r="R33" t="n">
-        <v>7036559.041695474</v>
+        <v>7036303.469514119</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -4338,10 +4341,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111840134</v>
+        <v>111840162</v>
       </c>
       <c r="B34" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4350,31 +4353,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>200</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>611775.6287810439</v>
+        <v>611796.2630279514</v>
       </c>
       <c r="R34" t="n">
-        <v>7036557.94632658</v>
+        <v>7036596.291893803</v>
       </c>
       <c r="S34" t="n">
         <v>20</v>
@@ -4455,10 +4457,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111840155</v>
+        <v>111840117</v>
       </c>
       <c r="B35" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4471,21 +4473,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4495,10 +4497,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>611724.3624407195</v>
+        <v>611725.3738043295</v>
       </c>
       <c r="R35" t="n">
-        <v>7036587.505142178</v>
+        <v>7036571.416293882</v>
       </c>
       <c r="S35" t="n">
         <v>20</v>
@@ -4567,10 +4569,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111840105</v>
+        <v>111840111</v>
       </c>
       <c r="B36" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4579,25 +4581,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4607,10 +4609,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>611887.4997693001</v>
+        <v>611565.3246701241</v>
       </c>
       <c r="R36" t="n">
-        <v>7036488.407450524</v>
+        <v>7036582.393106925</v>
       </c>
       <c r="S36" t="n">
         <v>20</v>
@@ -4679,10 +4681,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111840141</v>
+        <v>111840151</v>
       </c>
       <c r="B37" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4691,25 +4693,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4719,10 +4721,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>611995.7935480368</v>
+        <v>611655.8999817995</v>
       </c>
       <c r="R37" t="n">
-        <v>7036214.038866865</v>
+        <v>7036557.341203817</v>
       </c>
       <c r="S37" t="n">
         <v>20</v>
@@ -4791,10 +4793,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111840174</v>
+        <v>111840116</v>
       </c>
       <c r="B38" t="n">
-        <v>89419</v>
+        <v>89405</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4807,21 +4809,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4831,10 +4833,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>612005.5308763357</v>
+        <v>611789.2367900747</v>
       </c>
       <c r="R38" t="n">
-        <v>7036320.094612861</v>
+        <v>7036592.014885741</v>
       </c>
       <c r="S38" t="n">
         <v>20</v>
@@ -4903,10 +4905,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111840171</v>
+        <v>111840099</v>
       </c>
       <c r="B39" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4915,25 +4917,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4943,10 +4945,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>611730.9818362541</v>
+        <v>611935.4835508752</v>
       </c>
       <c r="R39" t="n">
-        <v>7036603.412985859</v>
+        <v>7036271.053399008</v>
       </c>
       <c r="S39" t="n">
         <v>20</v>
@@ -5015,10 +5017,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111840101</v>
+        <v>111840134</v>
       </c>
       <c r="B40" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5027,38 +5029,43 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>612073.4874485112</v>
+        <v>611775.6287810439</v>
       </c>
       <c r="R40" t="n">
-        <v>7036236.921791457</v>
+        <v>7036557.94632658</v>
       </c>
       <c r="S40" t="n">
         <v>20</v>
@@ -5127,10 +5134,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111840173</v>
+        <v>111840168</v>
       </c>
       <c r="B41" t="n">
-        <v>89419</v>
+        <v>96348</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5139,38 +5146,42 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1204</v>
+        <v>220787</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>612202.8558842771</v>
+        <v>611958.0414993305</v>
       </c>
       <c r="R41" t="n">
-        <v>7036078.4067488</v>
+        <v>7036382.483518991</v>
       </c>
       <c r="S41" t="n">
         <v>20</v>
@@ -5239,10 +5250,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111840120</v>
+        <v>111840156</v>
       </c>
       <c r="B42" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5255,39 +5266,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>611913.2339886408</v>
+        <v>611644.9077998699</v>
       </c>
       <c r="R42" t="n">
-        <v>7036278.784565655</v>
+        <v>7036615.18305849</v>
       </c>
       <c r="S42" t="n">
         <v>20</v>
@@ -5356,10 +5362,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111840167</v>
+        <v>111840135</v>
       </c>
       <c r="B43" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5368,30 +5374,31 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5400,10 +5407,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>612162.5263506409</v>
+        <v>611892.7620166774</v>
       </c>
       <c r="R43" t="n">
-        <v>7036089.981436108</v>
+        <v>7036376.61240829</v>
       </c>
       <c r="S43" t="n">
         <v>20</v>
@@ -5472,7 +5479,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111840128</v>
+        <v>111840120</v>
       </c>
       <c r="B44" t="n">
         <v>56398</v>
@@ -5508,7 +5515,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -5517,10 +5524,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>612050.5924099417</v>
+        <v>611913.2339886408</v>
       </c>
       <c r="R44" t="n">
-        <v>7036237.462344669</v>
+        <v>7036278.784565655</v>
       </c>
       <c r="S44" t="n">
         <v>20</v>
@@ -5589,10 +5596,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111840145</v>
+        <v>111840119</v>
       </c>
       <c r="B45" t="n">
-        <v>56414</v>
+        <v>89405</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5605,39 +5612,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>611966.0247136273</v>
+        <v>611657.7574473261</v>
       </c>
       <c r="R45" t="n">
-        <v>7036359.471176716</v>
+        <v>7036619.663314155</v>
       </c>
       <c r="S45" t="n">
         <v>20</v>
@@ -5706,10 +5708,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111840153</v>
+        <v>111840114</v>
       </c>
       <c r="B46" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5722,21 +5724,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5746,10 +5748,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>611889.0449884314</v>
+        <v>611931.1515982752</v>
       </c>
       <c r="R46" t="n">
-        <v>7036303.469514119</v>
+        <v>7036433.051986331</v>
       </c>
       <c r="S46" t="n">
         <v>20</v>
@@ -5818,10 +5820,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111840161</v>
+        <v>111840149</v>
       </c>
       <c r="B47" t="n">
-        <v>96348</v>
+        <v>90854</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5830,42 +5832,38 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>220787</v>
+        <v>2079</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t>(S.Lundell) Parmasto</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>611774.9902539523</v>
+        <v>612070.4118449257</v>
       </c>
       <c r="R47" t="n">
-        <v>7036601.817765385</v>
+        <v>7036183.955704447</v>
       </c>
       <c r="S47" t="n">
         <v>20</v>
@@ -5934,10 +5932,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111840111</v>
+        <v>111840103</v>
       </c>
       <c r="B48" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5946,25 +5944,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5974,10 +5972,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>611565.3246701241</v>
+        <v>611937.0536248725</v>
       </c>
       <c r="R48" t="n">
-        <v>7036582.393106925</v>
+        <v>7036431.019251303</v>
       </c>
       <c r="S48" t="n">
         <v>20</v>
@@ -6046,10 +6044,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111840154</v>
+        <v>111840172</v>
       </c>
       <c r="B49" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6058,38 +6056,42 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>611999.9284227985</v>
+        <v>611736.8774460263</v>
       </c>
       <c r="R49" t="n">
-        <v>7036224.038725983</v>
+        <v>7036614.368652546</v>
       </c>
       <c r="S49" t="n">
         <v>20</v>
@@ -6158,7 +6160,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111840119</v>
+        <v>111840115</v>
       </c>
       <c r="B50" t="n">
         <v>89405</v>
@@ -6198,10 +6200,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>611657.7574473261</v>
+        <v>611896.7164174926</v>
       </c>
       <c r="R50" t="n">
-        <v>7036619.663314155</v>
+        <v>7036468.574357864</v>
       </c>
       <c r="S50" t="n">
         <v>20</v>
@@ -6270,10 +6272,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111840181</v>
+        <v>111840107</v>
       </c>
       <c r="B51" t="n">
-        <v>78611</v>
+        <v>89369</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6286,21 +6288,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6463</v>
+        <v>5447</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6310,10 +6312,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>611643.964991785</v>
+        <v>611649.8351994418</v>
       </c>
       <c r="R51" t="n">
-        <v>7036616.493765838</v>
+        <v>7036615.355325347</v>
       </c>
       <c r="S51" t="n">
         <v>20</v>
@@ -6382,10 +6384,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111840162</v>
+        <v>111840102</v>
       </c>
       <c r="B52" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6394,42 +6396,38 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>611796.2630279514</v>
+        <v>611958.0414993305</v>
       </c>
       <c r="R52" t="n">
-        <v>7036596.291893803</v>
+        <v>7036382.483518991</v>
       </c>
       <c r="S52" t="n">
         <v>20</v>
@@ -6498,10 +6496,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111840112</v>
+        <v>111840150</v>
       </c>
       <c r="B53" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6514,21 +6512,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6538,10 +6536,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>611748.0554904841</v>
+        <v>611550.6048254245</v>
       </c>
       <c r="R53" t="n">
-        <v>7036525.628309194</v>
+        <v>7036580.087332346</v>
       </c>
       <c r="S53" t="n">
         <v>20</v>
@@ -6610,10 +6608,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111840130</v>
+        <v>111840140</v>
       </c>
       <c r="B54" t="n">
-        <v>56398</v>
+        <v>78605</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6622,43 +6620,38 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P54" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>611987.1615648521</v>
+        <v>611968.467425107</v>
       </c>
       <c r="R54" t="n">
-        <v>7036293.918105817</v>
+        <v>7036238.61380059</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6727,10 +6720,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111840114</v>
+        <v>111840161</v>
       </c>
       <c r="B55" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6739,38 +6732,42 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>611931.1515982752</v>
+        <v>611774.9902539523</v>
       </c>
       <c r="R55" t="n">
-        <v>7036433.051986331</v>
+        <v>7036601.817765385</v>
       </c>
       <c r="S55" t="n">
         <v>20</v>
@@ -6839,10 +6836,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111840136</v>
+        <v>111840157</v>
       </c>
       <c r="B56" t="n">
-        <v>56543</v>
+        <v>78578</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6855,39 +6852,34 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>103021</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>stationär</t>
-        </is>
-      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>611872.9006968342</v>
+        <v>611643.964991785</v>
       </c>
       <c r="R56" t="n">
-        <v>7036367.406045308</v>
+        <v>7036616.493765838</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>
@@ -6956,10 +6948,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111840177</v>
+        <v>111840155</v>
       </c>
       <c r="B57" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6972,21 +6964,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6996,10 +6988,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>611671.8001653572</v>
+        <v>611724.3624407195</v>
       </c>
       <c r="R57" t="n">
-        <v>7036615.675445669</v>
+        <v>7036587.505142178</v>
       </c>
       <c r="S57" t="n">
         <v>20</v>
@@ -7068,10 +7060,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111840178</v>
+        <v>111840100</v>
       </c>
       <c r="B58" t="n">
-        <v>96265</v>
+        <v>89369</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7084,21 +7076,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>219790</v>
+        <v>5447</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7108,10 +7100,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>611660.8587535081</v>
+        <v>612126.00427822</v>
       </c>
       <c r="R58" t="n">
-        <v>7036556.618785212</v>
+        <v>7036197.553588478</v>
       </c>
       <c r="S58" t="n">
         <v>20</v>
@@ -7180,10 +7172,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111840129</v>
+        <v>111840110</v>
       </c>
       <c r="B59" t="n">
-        <v>56398</v>
+        <v>89745</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7192,43 +7184,38 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>2062</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P59" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>612009.0800721663</v>
+        <v>611896.7164174926</v>
       </c>
       <c r="R59" t="n">
-        <v>7036270.05001692</v>
+        <v>7036468.574357864</v>
       </c>
       <c r="S59" t="n">
         <v>20</v>
@@ -7297,10 +7284,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111840182</v>
+        <v>111840166</v>
       </c>
       <c r="B60" t="n">
-        <v>89679</v>
+        <v>96348</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7309,38 +7296,42 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6008693</v>
+        <v>220787</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Kritporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Resinoporia crassa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(P.Karst.) Audet</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>611987.1301913462</v>
+        <v>611872.0517480521</v>
       </c>
       <c r="R60" t="n">
-        <v>7036294.81288166</v>
+        <v>7036366.032528495</v>
       </c>
       <c r="S60" t="n">
         <v>20</v>
@@ -7409,10 +7400,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111840127</v>
+        <v>111840113</v>
       </c>
       <c r="B61" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7425,39 +7416,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>612097.6396491884</v>
+        <v>611968.6292715519</v>
       </c>
       <c r="R61" t="n">
-        <v>7036226.122720091</v>
+        <v>7036400.323734847</v>
       </c>
       <c r="S61" t="n">
         <v>20</v>
@@ -7526,10 +7512,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111840158</v>
+        <v>111840167</v>
       </c>
       <c r="B62" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7538,38 +7524,42 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>611625.1043809571</v>
+        <v>612162.5263506409</v>
       </c>
       <c r="R62" t="n">
-        <v>7036617.178122533</v>
+        <v>7036089.981436108</v>
       </c>
       <c r="S62" t="n">
         <v>20</v>
@@ -7638,10 +7628,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111840116</v>
+        <v>111840105</v>
       </c>
       <c r="B63" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7650,25 +7640,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7678,10 +7668,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>611789.2367900747</v>
+        <v>611887.4997693001</v>
       </c>
       <c r="R63" t="n">
-        <v>7036592.014885741</v>
+        <v>7036488.407450524</v>
       </c>
       <c r="S63" t="n">
         <v>20</v>
@@ -7750,10 +7740,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111840126</v>
+        <v>111840164</v>
       </c>
       <c r="B64" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7762,31 +7752,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>50</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -7795,10 +7784,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>612130.930864902</v>
+        <v>611550.5735735258</v>
       </c>
       <c r="R64" t="n">
-        <v>7036146.659491631</v>
+        <v>7036580.982027167</v>
       </c>
       <c r="S64" t="n">
         <v>20</v>
@@ -7867,10 +7856,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111840157</v>
+        <v>111840178</v>
       </c>
       <c r="B65" t="n">
-        <v>78578</v>
+        <v>96265</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7879,25 +7868,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6458</v>
+        <v>219790</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7907,10 +7896,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>611643.964991785</v>
+        <v>611660.8587535081</v>
       </c>
       <c r="R65" t="n">
-        <v>7036616.493765838</v>
+        <v>7036556.618785212</v>
       </c>
       <c r="S65" t="n">
         <v>20</v>
@@ -7979,10 +7968,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111840169</v>
+        <v>111840144</v>
       </c>
       <c r="B66" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7991,30 +7980,31 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>100</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -8023,10 +8013,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>611826.8177700657</v>
+        <v>611756.2283190354</v>
       </c>
       <c r="R66" t="n">
-        <v>7036530.624793339</v>
+        <v>7036522.778974289</v>
       </c>
       <c r="S66" t="n">
         <v>20</v>
@@ -8095,10 +8085,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111840144</v>
+        <v>111840125</v>
       </c>
       <c r="B67" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8111,16 +8101,16 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -8140,10 +8130,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>611756.2283190354</v>
+        <v>612150.1243816372</v>
       </c>
       <c r="R67" t="n">
-        <v>7036522.778974289</v>
+        <v>7036136.582292198</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -8212,10 +8202,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111840176</v>
+        <v>111840128</v>
       </c>
       <c r="B68" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8228,34 +8218,39 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>612157.958919349</v>
+        <v>612050.5924099417</v>
       </c>
       <c r="R68" t="n">
-        <v>7036053.983385305</v>
+        <v>7036237.462344669</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -8324,10 +8319,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111840170</v>
+        <v>111840131</v>
       </c>
       <c r="B69" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8336,30 +8331,31 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>20</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -8368,10 +8364,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>611721.2521968643</v>
+        <v>611968.8017988449</v>
       </c>
       <c r="R69" t="n">
-        <v>7036599.489451895</v>
+        <v>7036395.402627021</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -8440,10 +8436,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111840122</v>
+        <v>111840104</v>
       </c>
       <c r="B70" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8452,43 +8448,38 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P70" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>612218.6938216727</v>
+        <v>611931.9467388361</v>
       </c>
       <c r="R70" t="n">
-        <v>7036074.483427257</v>
+        <v>7036448.75694545</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>
@@ -8557,10 +8548,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111840098</v>
+        <v>111840122</v>
       </c>
       <c r="B71" t="n">
-        <v>94134</v>
+        <v>56398</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8573,34 +8564,39 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>53</v>
+        <v>100109</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>612200.5371952844</v>
+        <v>612218.6938216727</v>
       </c>
       <c r="R71" t="n">
-        <v>7036080.565151189</v>
+        <v>7036074.483427257</v>
       </c>
       <c r="S71" t="n">
         <v>20</v>
@@ -8669,10 +8665,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111840103</v>
+        <v>111840142</v>
       </c>
       <c r="B72" t="n">
-        <v>89369</v>
+        <v>78605</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8685,21 +8681,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>5447</v>
+        <v>6462</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8709,10 +8705,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>611937.0536248725</v>
+        <v>611625.1043809571</v>
       </c>
       <c r="R72" t="n">
-        <v>7036431.019251303</v>
+        <v>7036617.178122533</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -8781,10 +8777,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111840110</v>
+        <v>111840182</v>
       </c>
       <c r="B73" t="n">
-        <v>89745</v>
+        <v>89679</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8793,25 +8789,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2062</v>
+        <v>6008693</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Kritporing</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Resinoporia crassa</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Audet</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8821,10 +8817,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>611896.7164174926</v>
+        <v>611987.1301913462</v>
       </c>
       <c r="R73" t="n">
-        <v>7036468.574357864</v>
+        <v>7036294.81288166</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>
@@ -8893,10 +8889,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111840143</v>
+        <v>111840171</v>
       </c>
       <c r="B74" t="n">
-        <v>89351</v>
+        <v>96348</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8905,25 +8901,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>112</v>
+        <v>220787</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8933,10 +8929,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>611935.9852041593</v>
+        <v>611730.9818362541</v>
       </c>
       <c r="R74" t="n">
-        <v>7036435.908902055</v>
+        <v>7036603.412985859</v>
       </c>
       <c r="S74" t="n">
         <v>20</v>
@@ -9005,10 +9001,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111840115</v>
+        <v>111840173</v>
       </c>
       <c r="B75" t="n">
-        <v>89405</v>
+        <v>89419</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9021,21 +9017,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9045,10 +9041,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>611896.7164174926</v>
+        <v>612202.8558842771</v>
       </c>
       <c r="R75" t="n">
-        <v>7036468.574357864</v>
+        <v>7036078.4067488</v>
       </c>
       <c r="S75" t="n">
         <v>20</v>
@@ -9117,10 +9113,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111840107</v>
+        <v>111840169</v>
       </c>
       <c r="B76" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9129,38 +9125,42 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>611649.8351994418</v>
+        <v>611826.8177700657</v>
       </c>
       <c r="R76" t="n">
-        <v>7036615.355325347</v>
+        <v>7036530.624793339</v>
       </c>
       <c r="S76" t="n">
         <v>20</v>

--- a/artfynd/A 40639-2022.xlsx
+++ b/artfynd/A 40639-2022.xlsx
@@ -5250,10 +5250,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111840156</v>
+        <v>111840119</v>
       </c>
       <c r="B42" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5266,21 +5266,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5290,10 +5290,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>611644.9077998699</v>
+        <v>611657.7574473261</v>
       </c>
       <c r="R42" t="n">
-        <v>7036615.18305849</v>
+        <v>7036619.663314155</v>
       </c>
       <c r="S42" t="n">
         <v>20</v>
@@ -5362,10 +5362,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111840135</v>
+        <v>111840156</v>
       </c>
       <c r="B43" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5378,39 +5378,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>611892.7620166774</v>
+        <v>611644.9077998699</v>
       </c>
       <c r="R43" t="n">
-        <v>7036376.61240829</v>
+        <v>7036615.18305849</v>
       </c>
       <c r="S43" t="n">
         <v>20</v>
@@ -5479,7 +5474,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111840120</v>
+        <v>111840135</v>
       </c>
       <c r="B44" t="n">
         <v>56398</v>
@@ -5524,10 +5519,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>611913.2339886408</v>
+        <v>611892.7620166774</v>
       </c>
       <c r="R44" t="n">
-        <v>7036278.784565655</v>
+        <v>7036376.61240829</v>
       </c>
       <c r="S44" t="n">
         <v>20</v>
@@ -5596,10 +5591,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111840119</v>
+        <v>111840120</v>
       </c>
       <c r="B45" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5612,34 +5607,39 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>611657.7574473261</v>
+        <v>611913.2339886408</v>
       </c>
       <c r="R45" t="n">
-        <v>7036619.663314155</v>
+        <v>7036278.784565655</v>
       </c>
       <c r="S45" t="n">
         <v>20</v>

--- a/artfynd/A 40639-2022.xlsx
+++ b/artfynd/A 40639-2022.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111840098</v>
+        <v>111840135</v>
       </c>
       <c r="B3" t="n">
-        <v>94134</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,34 +813,39 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>612200.5371952844</v>
+        <v>611892.7620166774</v>
       </c>
       <c r="R3" t="n">
-        <v>7036080.565151189</v>
+        <v>7036376.61240829</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -909,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111840181</v>
+        <v>111840134</v>
       </c>
       <c r="B4" t="n">
-        <v>78611</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -921,38 +926,43 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6463</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>611643.964991785</v>
+        <v>611775.6287810439</v>
       </c>
       <c r="R4" t="n">
-        <v>7036616.493765838</v>
+        <v>7036557.94632658</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1021,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111840158</v>
+        <v>111840165</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1033,38 +1043,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>611625.1043809571</v>
+        <v>611625.6525432562</v>
       </c>
       <c r="R5" t="n">
-        <v>7036617.178122533</v>
+        <v>7036563.002264032</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1133,10 +1147,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111840141</v>
+        <v>111840155</v>
       </c>
       <c r="B6" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,25 +1159,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1187,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>611995.7935480368</v>
+        <v>611724.3624407195</v>
       </c>
       <c r="R6" t="n">
-        <v>7036214.038866865</v>
+        <v>7036587.505142178</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1245,10 +1259,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111840129</v>
+        <v>111840098</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>94134</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,39 +1275,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>53</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>612009.0800721663</v>
+        <v>612200.5371952844</v>
       </c>
       <c r="R7" t="n">
-        <v>7036270.05001692</v>
+        <v>7036080.565151189</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1362,7 +1371,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111840133</v>
+        <v>111840129</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1407,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>611900.6540649632</v>
+        <v>612009.0800721663</v>
       </c>
       <c r="R8" t="n">
-        <v>7036471.399798824</v>
+        <v>7036270.05001692</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1479,10 +1488,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111840101</v>
+        <v>111840153</v>
       </c>
       <c r="B9" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1491,25 +1500,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1519,10 +1528,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>612073.4874485112</v>
+        <v>611889.0449884314</v>
       </c>
       <c r="R9" t="n">
-        <v>7036236.921791457</v>
+        <v>7036303.469514119</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1591,10 +1600,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111840145</v>
+        <v>111840119</v>
       </c>
       <c r="B10" t="n">
-        <v>56414</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1607,39 +1616,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>611966.0247136273</v>
+        <v>611657.7574473261</v>
       </c>
       <c r="R10" t="n">
-        <v>7036359.471176716</v>
+        <v>7036619.663314155</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1708,10 +1712,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111840130</v>
+        <v>111840107</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1720,43 +1724,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>611987.1615648521</v>
+        <v>611649.8351994418</v>
       </c>
       <c r="R11" t="n">
-        <v>7036293.918105817</v>
+        <v>7036615.355325347</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1825,10 +1824,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111840154</v>
+        <v>111840149</v>
       </c>
       <c r="B12" t="n">
-        <v>78578</v>
+        <v>90854</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1841,21 +1840,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>2079</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1865,10 +1864,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>611999.9284227985</v>
+        <v>612070.4118449257</v>
       </c>
       <c r="R12" t="n">
-        <v>7036224.038725983</v>
+        <v>7036183.955704447</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1937,10 +1936,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111840136</v>
+        <v>111840099</v>
       </c>
       <c r="B13" t="n">
-        <v>56543</v>
+        <v>89369</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1949,43 +1948,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>103021</v>
+        <v>5447</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>stationär</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>611872.9006968342</v>
+        <v>611935.4835508752</v>
       </c>
       <c r="R13" t="n">
-        <v>7036367.406045308</v>
+        <v>7036271.053399008</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2054,10 +2048,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111840124</v>
+        <v>111840143</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>89351</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2070,39 +2064,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>112</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>612162.5263506409</v>
+        <v>611935.9852041593</v>
       </c>
       <c r="R14" t="n">
-        <v>7036089.981436108</v>
+        <v>7036435.908902055</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2171,10 +2160,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111840163</v>
+        <v>111840181</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>78611</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2183,42 +2172,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>612073.4874485112</v>
+        <v>611643.964991785</v>
       </c>
       <c r="R15" t="n">
-        <v>7036236.921791457</v>
+        <v>7036616.493765838</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2287,10 +2272,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111840175</v>
+        <v>111840121</v>
       </c>
       <c r="B16" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2303,34 +2288,39 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>612016.4676519124</v>
+        <v>612131.8014658812</v>
       </c>
       <c r="R16" t="n">
-        <v>7036264.037915429</v>
+        <v>7036083.52705478</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2399,10 +2389,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111840143</v>
+        <v>111840126</v>
       </c>
       <c r="B17" t="n">
-        <v>89351</v>
+        <v>56398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2415,34 +2405,39 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>112</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>611935.9852041593</v>
+        <v>612130.930864902</v>
       </c>
       <c r="R17" t="n">
-        <v>7036435.908902055</v>
+        <v>7036146.659491631</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2511,10 +2506,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111840165</v>
+        <v>111840106</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2523,42 +2518,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>611625.6525432562</v>
+        <v>611685.1759468586</v>
       </c>
       <c r="R18" t="n">
-        <v>7036563.002264032</v>
+        <v>7036617.934765363</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2627,10 +2618,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111840106</v>
+        <v>111840162</v>
       </c>
       <c r="B19" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2639,38 +2630,42 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>611685.1759468586</v>
+        <v>611796.2630279514</v>
       </c>
       <c r="R19" t="n">
-        <v>7036617.934765363</v>
+        <v>7036596.291893803</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2739,10 +2734,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111840146</v>
+        <v>111840132</v>
       </c>
       <c r="B20" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2755,16 +2750,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2775,7 +2770,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>upprörd, varnande</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2784,10 +2779,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>611935.9852041593</v>
+        <v>611730.0076862896</v>
       </c>
       <c r="R20" t="n">
-        <v>7036435.908902055</v>
+        <v>7036605.618362699</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2856,10 +2851,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111840112</v>
+        <v>111840105</v>
       </c>
       <c r="B21" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2868,25 +2863,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2896,10 +2891,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>611748.0554904841</v>
+        <v>611887.4997693001</v>
       </c>
       <c r="R21" t="n">
-        <v>7036525.628309194</v>
+        <v>7036488.407450524</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2968,7 +2963,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111840170</v>
+        <v>111840164</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3003,7 +2998,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>50</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -3012,10 +3007,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>611721.2521968643</v>
+        <v>611550.5735735258</v>
       </c>
       <c r="R22" t="n">
-        <v>7036599.489451895</v>
+        <v>7036580.982027167</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -3084,7 +3079,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111840152</v>
+        <v>111840156</v>
       </c>
       <c r="B23" t="n">
         <v>78578</v>
@@ -3124,10 +3119,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>611691.7206150193</v>
+        <v>611644.9077998699</v>
       </c>
       <c r="R23" t="n">
-        <v>7036559.041695474</v>
+        <v>7036615.18305849</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -3196,10 +3191,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111840123</v>
+        <v>111840144</v>
       </c>
       <c r="B24" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3212,16 +3207,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3232,7 +3227,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3241,10 +3236,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>612199.4368418896</v>
+        <v>611756.2283190354</v>
       </c>
       <c r="R24" t="n">
-        <v>7036086.350105605</v>
+        <v>7036522.778974289</v>
       </c>
       <c r="S24" t="n">
         <v>20</v>
@@ -3313,10 +3308,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111840139</v>
+        <v>111840166</v>
       </c>
       <c r="B25" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3325,38 +3320,42 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>611538.4945442909</v>
+        <v>611872.0517480521</v>
       </c>
       <c r="R25" t="n">
-        <v>7036580.1122336</v>
+        <v>7036366.032528495</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3425,10 +3424,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111840121</v>
+        <v>111840100</v>
       </c>
       <c r="B26" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3437,43 +3436,38 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>612131.8014658812</v>
+        <v>612126.00427822</v>
       </c>
       <c r="R26" t="n">
-        <v>7036083.52705478</v>
+        <v>7036197.553588478</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3542,10 +3536,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111840174</v>
+        <v>111840130</v>
       </c>
       <c r="B27" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3558,34 +3552,39 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>612005.5308763357</v>
+        <v>611987.1615648521</v>
       </c>
       <c r="R27" t="n">
-        <v>7036320.094612861</v>
+        <v>7036293.918105817</v>
       </c>
       <c r="S27" t="n">
         <v>20</v>
@@ -3654,7 +3653,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111840126</v>
+        <v>111840123</v>
       </c>
       <c r="B28" t="n">
         <v>56398</v>
@@ -3690,7 +3689,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3699,10 +3698,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>612130.930864902</v>
+        <v>612199.4368418896</v>
       </c>
       <c r="R28" t="n">
-        <v>7036146.659491631</v>
+        <v>7036086.350105605</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3771,10 +3770,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111840176</v>
+        <v>111840116</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3787,21 +3786,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3811,10 +3810,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>612157.958919349</v>
+        <v>611789.2367900747</v>
       </c>
       <c r="R29" t="n">
-        <v>7036053.983385305</v>
+        <v>7036592.014885741</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>
@@ -3883,10 +3882,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111840132</v>
+        <v>111840174</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3899,39 +3898,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>611730.0076862896</v>
+        <v>612005.5308763357</v>
       </c>
       <c r="R30" t="n">
-        <v>7036605.618362699</v>
+        <v>7036320.094612861</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -4000,7 +3994,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111840127</v>
+        <v>111840124</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -4036,7 +4030,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4045,10 +4039,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>612097.6396491884</v>
+        <v>612162.5263506409</v>
       </c>
       <c r="R31" t="n">
-        <v>7036226.122720091</v>
+        <v>7036089.981436108</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -4117,10 +4111,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111840177</v>
+        <v>111840173</v>
       </c>
       <c r="B32" t="n">
-        <v>77515</v>
+        <v>89419</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4133,21 +4127,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4157,10 +4151,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>611671.8001653572</v>
+        <v>612202.8558842771</v>
       </c>
       <c r="R32" t="n">
-        <v>7036615.675445669</v>
+        <v>7036078.4067488</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -4229,7 +4223,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111840153</v>
+        <v>111840157</v>
       </c>
       <c r="B33" t="n">
         <v>78578</v>
@@ -4269,10 +4263,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>611889.0449884314</v>
+        <v>611643.964991785</v>
       </c>
       <c r="R33" t="n">
-        <v>7036303.469514119</v>
+        <v>7036616.493765838</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -4341,7 +4335,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111840162</v>
+        <v>111840169</v>
       </c>
       <c r="B34" t="n">
         <v>96348</v>
@@ -4376,7 +4370,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>100</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4385,10 +4379,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>611796.2630279514</v>
+        <v>611826.8177700657</v>
       </c>
       <c r="R34" t="n">
-        <v>7036596.291893803</v>
+        <v>7036530.624793339</v>
       </c>
       <c r="S34" t="n">
         <v>20</v>
@@ -4457,7 +4451,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111840117</v>
+        <v>111840111</v>
       </c>
       <c r="B35" t="n">
         <v>89405</v>
@@ -4497,10 +4491,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>611725.3738043295</v>
+        <v>611565.3246701241</v>
       </c>
       <c r="R35" t="n">
-        <v>7036571.416293882</v>
+        <v>7036582.393106925</v>
       </c>
       <c r="S35" t="n">
         <v>20</v>
@@ -4569,10 +4563,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111840111</v>
+        <v>111840128</v>
       </c>
       <c r="B36" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4585,34 +4579,39 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>611565.3246701241</v>
+        <v>612050.5924099417</v>
       </c>
       <c r="R36" t="n">
-        <v>7036582.393106925</v>
+        <v>7036237.462344669</v>
       </c>
       <c r="S36" t="n">
         <v>20</v>
@@ -4681,10 +4680,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111840151</v>
+        <v>111840175</v>
       </c>
       <c r="B37" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4697,21 +4696,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4721,10 +4720,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>611655.8999817995</v>
+        <v>612016.4676519124</v>
       </c>
       <c r="R37" t="n">
-        <v>7036557.341203817</v>
+        <v>7036264.037915429</v>
       </c>
       <c r="S37" t="n">
         <v>20</v>
@@ -4793,7 +4792,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111840116</v>
+        <v>111840115</v>
       </c>
       <c r="B38" t="n">
         <v>89405</v>
@@ -4833,10 +4832,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>611789.2367900747</v>
+        <v>611896.7164174926</v>
       </c>
       <c r="R38" t="n">
-        <v>7036592.014885741</v>
+        <v>7036468.574357864</v>
       </c>
       <c r="S38" t="n">
         <v>20</v>
@@ -4905,10 +4904,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111840099</v>
+        <v>111840117</v>
       </c>
       <c r="B39" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4917,25 +4916,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4945,10 +4944,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>611935.4835508752</v>
+        <v>611725.3738043295</v>
       </c>
       <c r="R39" t="n">
-        <v>7036271.053399008</v>
+        <v>7036571.416293882</v>
       </c>
       <c r="S39" t="n">
         <v>20</v>
@@ -5017,10 +5016,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111840134</v>
+        <v>111840104</v>
       </c>
       <c r="B40" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5029,43 +5028,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>611775.6287810439</v>
+        <v>611931.9467388361</v>
       </c>
       <c r="R40" t="n">
-        <v>7036557.94632658</v>
+        <v>7036448.75694545</v>
       </c>
       <c r="S40" t="n">
         <v>20</v>
@@ -5134,10 +5128,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111840168</v>
+        <v>111840142</v>
       </c>
       <c r="B41" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5146,42 +5140,38 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>611958.0414993305</v>
+        <v>611625.1043809571</v>
       </c>
       <c r="R41" t="n">
-        <v>7036382.483518991</v>
+        <v>7036617.178122533</v>
       </c>
       <c r="S41" t="n">
         <v>20</v>
@@ -5250,10 +5240,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111840119</v>
+        <v>111840172</v>
       </c>
       <c r="B42" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5262,38 +5252,42 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>611657.7574473261</v>
+        <v>611736.8774460263</v>
       </c>
       <c r="R42" t="n">
-        <v>7036619.663314155</v>
+        <v>7036614.368652546</v>
       </c>
       <c r="S42" t="n">
         <v>20</v>
@@ -5362,10 +5356,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111840156</v>
+        <v>111840136</v>
       </c>
       <c r="B43" t="n">
-        <v>78578</v>
+        <v>56543</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5378,34 +5372,39 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>stationär</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>611644.9077998699</v>
+        <v>611872.9006968342</v>
       </c>
       <c r="R43" t="n">
-        <v>7036615.18305849</v>
+        <v>7036367.406045308</v>
       </c>
       <c r="S43" t="n">
         <v>20</v>
@@ -5474,10 +5473,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111840135</v>
+        <v>111840140</v>
       </c>
       <c r="B44" t="n">
-        <v>56398</v>
+        <v>78605</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5486,43 +5485,38 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>611892.7620166774</v>
+        <v>611968.467425107</v>
       </c>
       <c r="R44" t="n">
-        <v>7036376.61240829</v>
+        <v>7036238.61380059</v>
       </c>
       <c r="S44" t="n">
         <v>20</v>
@@ -5591,10 +5585,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111840120</v>
+        <v>111840168</v>
       </c>
       <c r="B45" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5603,31 +5597,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -5636,10 +5629,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>611913.2339886408</v>
+        <v>611958.0414993305</v>
       </c>
       <c r="R45" t="n">
-        <v>7036278.784565655</v>
+        <v>7036382.483518991</v>
       </c>
       <c r="S45" t="n">
         <v>20</v>
@@ -5708,10 +5701,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111840114</v>
+        <v>111840151</v>
       </c>
       <c r="B46" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5724,21 +5717,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5748,10 +5741,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>611931.1515982752</v>
+        <v>611655.8999817995</v>
       </c>
       <c r="R46" t="n">
-        <v>7036433.051986331</v>
+        <v>7036557.341203817</v>
       </c>
       <c r="S46" t="n">
         <v>20</v>
@@ -5820,10 +5813,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111840149</v>
+        <v>111840177</v>
       </c>
       <c r="B47" t="n">
-        <v>90854</v>
+        <v>77515</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5836,21 +5829,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2079</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5860,10 +5853,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>612070.4118449257</v>
+        <v>611671.8001653572</v>
       </c>
       <c r="R47" t="n">
-        <v>7036183.955704447</v>
+        <v>7036615.675445669</v>
       </c>
       <c r="S47" t="n">
         <v>20</v>
@@ -5932,7 +5925,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111840103</v>
+        <v>111840102</v>
       </c>
       <c r="B48" t="n">
         <v>89369</v>
@@ -5972,10 +5965,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>611937.0536248725</v>
+        <v>611958.0414993305</v>
       </c>
       <c r="R48" t="n">
-        <v>7036431.019251303</v>
+        <v>7036382.483518991</v>
       </c>
       <c r="S48" t="n">
         <v>20</v>
@@ -6044,7 +6037,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111840172</v>
+        <v>111840167</v>
       </c>
       <c r="B49" t="n">
         <v>96348</v>
@@ -6079,7 +6072,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6088,10 +6081,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>611736.8774460263</v>
+        <v>612162.5263506409</v>
       </c>
       <c r="R49" t="n">
-        <v>7036614.368652546</v>
+        <v>7036089.981436108</v>
       </c>
       <c r="S49" t="n">
         <v>20</v>
@@ -6160,10 +6153,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111840115</v>
+        <v>111840161</v>
       </c>
       <c r="B50" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6172,38 +6165,42 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>611896.7164174926</v>
+        <v>611774.9902539523</v>
       </c>
       <c r="R50" t="n">
-        <v>7036468.574357864</v>
+        <v>7036601.817765385</v>
       </c>
       <c r="S50" t="n">
         <v>20</v>
@@ -6272,10 +6269,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111840107</v>
+        <v>111840171</v>
       </c>
       <c r="B51" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6284,25 +6281,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6312,10 +6309,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>611649.8351994418</v>
+        <v>611730.9818362541</v>
       </c>
       <c r="R51" t="n">
-        <v>7036615.355325347</v>
+        <v>7036603.412985859</v>
       </c>
       <c r="S51" t="n">
         <v>20</v>
@@ -6384,10 +6381,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111840102</v>
+        <v>111840110</v>
       </c>
       <c r="B52" t="n">
-        <v>89369</v>
+        <v>89745</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6396,25 +6393,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5447</v>
+        <v>2062</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6424,10 +6421,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>611958.0414993305</v>
+        <v>611896.7164174926</v>
       </c>
       <c r="R52" t="n">
-        <v>7036382.483518991</v>
+        <v>7036468.574357864</v>
       </c>
       <c r="S52" t="n">
         <v>20</v>
@@ -6496,10 +6493,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111840150</v>
+        <v>111840120</v>
       </c>
       <c r="B53" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6512,34 +6509,39 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>611550.6048254245</v>
+        <v>611913.2339886408</v>
       </c>
       <c r="R53" t="n">
-        <v>7036580.087332346</v>
+        <v>7036278.784565655</v>
       </c>
       <c r="S53" t="n">
         <v>20</v>
@@ -6608,10 +6610,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111840140</v>
+        <v>111840118</v>
       </c>
       <c r="B54" t="n">
-        <v>78605</v>
+        <v>89405</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6620,25 +6622,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6462</v>
+        <v>1202</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6648,10 +6650,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>611968.467425107</v>
+        <v>611685.1446571616</v>
       </c>
       <c r="R54" t="n">
-        <v>7036238.61380059</v>
+        <v>7036618.829449931</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6720,10 +6722,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111840161</v>
+        <v>111840103</v>
       </c>
       <c r="B55" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6732,42 +6734,38 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>611774.9902539523</v>
+        <v>611937.0536248725</v>
       </c>
       <c r="R55" t="n">
-        <v>7036601.817765385</v>
+        <v>7036431.019251303</v>
       </c>
       <c r="S55" t="n">
         <v>20</v>
@@ -6836,7 +6834,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111840157</v>
+        <v>111840150</v>
       </c>
       <c r="B56" t="n">
         <v>78578</v>
@@ -6876,10 +6874,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>611643.964991785</v>
+        <v>611550.6048254245</v>
       </c>
       <c r="R56" t="n">
-        <v>7036616.493765838</v>
+        <v>7036580.087332346</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>
@@ -6948,10 +6946,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111840155</v>
+        <v>111840113</v>
       </c>
       <c r="B57" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6964,21 +6962,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6988,10 +6986,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>611724.3624407195</v>
+        <v>611968.6292715519</v>
       </c>
       <c r="R57" t="n">
-        <v>7036587.505142178</v>
+        <v>7036400.323734847</v>
       </c>
       <c r="S57" t="n">
         <v>20</v>
@@ -7060,10 +7058,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111840100</v>
+        <v>111840163</v>
       </c>
       <c r="B58" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7072,38 +7070,42 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>612126.00427822</v>
+        <v>612073.4874485112</v>
       </c>
       <c r="R58" t="n">
-        <v>7036197.553588478</v>
+        <v>7036236.921791457</v>
       </c>
       <c r="S58" t="n">
         <v>20</v>
@@ -7172,10 +7174,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111840110</v>
+        <v>111840152</v>
       </c>
       <c r="B59" t="n">
-        <v>89745</v>
+        <v>78578</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7184,25 +7186,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2062</v>
+        <v>6458</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7212,10 +7214,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>611896.7164174926</v>
+        <v>611691.7206150193</v>
       </c>
       <c r="R59" t="n">
-        <v>7036468.574357864</v>
+        <v>7036559.041695474</v>
       </c>
       <c r="S59" t="n">
         <v>20</v>
@@ -7284,10 +7286,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111840166</v>
+        <v>111840158</v>
       </c>
       <c r="B60" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7296,42 +7298,38 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>611872.0517480521</v>
+        <v>611625.1043809571</v>
       </c>
       <c r="R60" t="n">
-        <v>7036366.032528495</v>
+        <v>7036617.178122533</v>
       </c>
       <c r="S60" t="n">
         <v>20</v>
@@ -7400,10 +7398,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111840113</v>
+        <v>111840141</v>
       </c>
       <c r="B61" t="n">
-        <v>89405</v>
+        <v>78605</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7412,25 +7410,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1202</v>
+        <v>6462</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7440,10 +7438,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>611968.6292715519</v>
+        <v>611995.7935480368</v>
       </c>
       <c r="R61" t="n">
-        <v>7036400.323734847</v>
+        <v>7036214.038866865</v>
       </c>
       <c r="S61" t="n">
         <v>20</v>
@@ -7512,10 +7510,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111840167</v>
+        <v>111840133</v>
       </c>
       <c r="B62" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7524,30 +7522,31 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -7556,10 +7555,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>612162.5263506409</v>
+        <v>611900.6540649632</v>
       </c>
       <c r="R62" t="n">
-        <v>7036089.981436108</v>
+        <v>7036471.399798824</v>
       </c>
       <c r="S62" t="n">
         <v>20</v>
@@ -7628,10 +7627,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111840105</v>
+        <v>111840146</v>
       </c>
       <c r="B63" t="n">
-        <v>89369</v>
+        <v>56414</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7640,38 +7639,43 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5447</v>
+        <v>100049</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>611887.4997693001</v>
+        <v>611935.9852041593</v>
       </c>
       <c r="R63" t="n">
-        <v>7036488.407450524</v>
+        <v>7036435.908902055</v>
       </c>
       <c r="S63" t="n">
         <v>20</v>
@@ -7740,10 +7744,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111840164</v>
+        <v>111840154</v>
       </c>
       <c r="B64" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7752,42 +7756,38 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>611550.5735735258</v>
+        <v>611999.9284227985</v>
       </c>
       <c r="R64" t="n">
-        <v>7036580.982027167</v>
+        <v>7036224.038725983</v>
       </c>
       <c r="S64" t="n">
         <v>20</v>
@@ -7856,10 +7856,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111840178</v>
+        <v>111840139</v>
       </c>
       <c r="B65" t="n">
-        <v>96265</v>
+        <v>78605</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7872,21 +7872,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>219790</v>
+        <v>6462</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7896,10 +7896,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>611660.8587535081</v>
+        <v>611538.4945442909</v>
       </c>
       <c r="R65" t="n">
-        <v>7036556.618785212</v>
+        <v>7036580.1122336</v>
       </c>
       <c r="S65" t="n">
         <v>20</v>
@@ -7968,10 +7968,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111840144</v>
+        <v>111840131</v>
       </c>
       <c r="B66" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7984,16 +7984,16 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -8013,10 +8013,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>611756.2283190354</v>
+        <v>611968.8017988449</v>
       </c>
       <c r="R66" t="n">
-        <v>7036522.778974289</v>
+        <v>7036395.402627021</v>
       </c>
       <c r="S66" t="n">
         <v>20</v>
@@ -8085,10 +8085,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111840125</v>
+        <v>111840101</v>
       </c>
       <c r="B67" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8097,43 +8097,38 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>612150.1243816372</v>
+        <v>612073.4874485112</v>
       </c>
       <c r="R67" t="n">
-        <v>7036136.582292198</v>
+        <v>7036236.921791457</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -8202,10 +8197,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111840128</v>
+        <v>111840176</v>
       </c>
       <c r="B68" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8218,39 +8213,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>612050.5924099417</v>
+        <v>612157.958919349</v>
       </c>
       <c r="R68" t="n">
-        <v>7036237.462344669</v>
+        <v>7036053.983385305</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -8319,10 +8309,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111840131</v>
+        <v>111840112</v>
       </c>
       <c r="B69" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8335,39 +8325,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P69" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>611968.8017988449</v>
+        <v>611748.0554904841</v>
       </c>
       <c r="R69" t="n">
-        <v>7036395.402627021</v>
+        <v>7036525.628309194</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -8436,10 +8421,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111840104</v>
+        <v>111840127</v>
       </c>
       <c r="B70" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8448,38 +8433,43 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>611931.9467388361</v>
+        <v>612097.6396491884</v>
       </c>
       <c r="R70" t="n">
-        <v>7036448.75694545</v>
+        <v>7036226.122720091</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>
@@ -8548,10 +8538,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111840122</v>
+        <v>111840145</v>
       </c>
       <c r="B71" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8564,16 +8554,16 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -8584,7 +8574,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -8593,10 +8583,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>612218.6938216727</v>
+        <v>611966.0247136273</v>
       </c>
       <c r="R71" t="n">
-        <v>7036074.483427257</v>
+        <v>7036359.471176716</v>
       </c>
       <c r="S71" t="n">
         <v>20</v>
@@ -8665,10 +8655,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111840142</v>
+        <v>111840125</v>
       </c>
       <c r="B72" t="n">
-        <v>78605</v>
+        <v>56398</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8677,38 +8667,43 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>611625.1043809571</v>
+        <v>612150.1243816372</v>
       </c>
       <c r="R72" t="n">
-        <v>7036617.178122533</v>
+        <v>7036136.582292198</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -8777,10 +8772,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111840182</v>
+        <v>111840170</v>
       </c>
       <c r="B73" t="n">
-        <v>89679</v>
+        <v>96348</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8789,38 +8784,42 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6008693</v>
+        <v>220787</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Kritporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Resinoporia crassa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(P.Karst.) Audet</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>611987.1301913462</v>
+        <v>611721.2521968643</v>
       </c>
       <c r="R73" t="n">
-        <v>7036294.81288166</v>
+        <v>7036599.489451895</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>
@@ -8889,10 +8888,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111840171</v>
+        <v>111840178</v>
       </c>
       <c r="B74" t="n">
-        <v>96348</v>
+        <v>96265</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8901,25 +8900,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8929,10 +8928,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>611730.9818362541</v>
+        <v>611660.8587535081</v>
       </c>
       <c r="R74" t="n">
-        <v>7036603.412985859</v>
+        <v>7036556.618785212</v>
       </c>
       <c r="S74" t="n">
         <v>20</v>
@@ -9001,10 +9000,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111840173</v>
+        <v>111840122</v>
       </c>
       <c r="B75" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9017,34 +9016,39 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>612202.8558842771</v>
+        <v>612218.6938216727</v>
       </c>
       <c r="R75" t="n">
-        <v>7036078.4067488</v>
+        <v>7036074.483427257</v>
       </c>
       <c r="S75" t="n">
         <v>20</v>
@@ -9113,10 +9117,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111840169</v>
+        <v>111840114</v>
       </c>
       <c r="B76" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9125,42 +9129,38 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>611826.8177700657</v>
+        <v>611931.1515982752</v>
       </c>
       <c r="R76" t="n">
-        <v>7036530.624793339</v>
+        <v>7036433.051986331</v>
       </c>
       <c r="S76" t="n">
         <v>20</v>
@@ -9229,10 +9229,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111840118</v>
+        <v>111840182</v>
       </c>
       <c r="B77" t="n">
-        <v>89405</v>
+        <v>89679</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9241,25 +9241,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1202</v>
+        <v>6008693</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kritporing</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Resinoporia crassa</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Audet</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9269,10 +9269,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>611685.1446571616</v>
+        <v>611987.1301913462</v>
       </c>
       <c r="R77" t="n">
-        <v>7036618.829449931</v>
+        <v>7036294.81288166</v>
       </c>
       <c r="S77" t="n">
         <v>20</v>

--- a/artfynd/A 40639-2022.xlsx
+++ b/artfynd/A 40639-2022.xlsx
@@ -4680,10 +4680,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111840175</v>
+        <v>111840115</v>
       </c>
       <c r="B37" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4696,21 +4696,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4720,10 +4720,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>612016.4676519124</v>
+        <v>611896.7164174926</v>
       </c>
       <c r="R37" t="n">
-        <v>7036264.037915429</v>
+        <v>7036468.574357864</v>
       </c>
       <c r="S37" t="n">
         <v>20</v>
@@ -4792,10 +4792,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111840115</v>
+        <v>111840175</v>
       </c>
       <c r="B38" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4808,21 +4808,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4832,10 +4832,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>611896.7164174926</v>
+        <v>612016.4676519124</v>
       </c>
       <c r="R38" t="n">
-        <v>7036468.574357864</v>
+        <v>7036264.037915429</v>
       </c>
       <c r="S38" t="n">
         <v>20</v>
@@ -6269,10 +6269,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111840171</v>
+        <v>111840110</v>
       </c>
       <c r="B51" t="n">
-        <v>96348</v>
+        <v>89745</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6285,21 +6285,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>220787</v>
+        <v>2062</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6309,10 +6309,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>611730.9818362541</v>
+        <v>611896.7164174926</v>
       </c>
       <c r="R51" t="n">
-        <v>7036603.412985859</v>
+        <v>7036468.574357864</v>
       </c>
       <c r="S51" t="n">
         <v>20</v>
@@ -6381,10 +6381,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111840110</v>
+        <v>111840171</v>
       </c>
       <c r="B52" t="n">
-        <v>89745</v>
+        <v>96348</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6397,21 +6397,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2062</v>
+        <v>220787</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>611896.7164174926</v>
+        <v>611730.9818362541</v>
       </c>
       <c r="R52" t="n">
-        <v>7036468.574357864</v>
+        <v>7036603.412985859</v>
       </c>
       <c r="S52" t="n">
         <v>20</v>

--- a/artfynd/A 40639-2022.xlsx
+++ b/artfynd/A 40639-2022.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111840135</v>
+        <v>111840115</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,39 +813,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>611892.7620166774</v>
+        <v>611896.7164174926</v>
       </c>
       <c r="R3" t="n">
-        <v>7036376.61240829</v>
+        <v>7036468.574357864</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -914,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111840134</v>
+        <v>111840107</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,43 +921,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>611775.6287810439</v>
+        <v>611649.8351994418</v>
       </c>
       <c r="R4" t="n">
-        <v>7036557.94632658</v>
+        <v>7036615.355325347</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1031,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111840165</v>
+        <v>111840151</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1043,42 +1033,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>611625.6525432562</v>
+        <v>611655.8999817995</v>
       </c>
       <c r="R5" t="n">
-        <v>7036563.002264032</v>
+        <v>7036557.341203817</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1147,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111840155</v>
+        <v>111840165</v>
       </c>
       <c r="B6" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1159,38 +1145,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>611724.3624407195</v>
+        <v>611625.6525432562</v>
       </c>
       <c r="R6" t="n">
-        <v>7036587.505142178</v>
+        <v>7036563.002264032</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1259,10 +1249,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111840098</v>
+        <v>111840132</v>
       </c>
       <c r="B7" t="n">
-        <v>94134</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1275,34 +1265,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>612200.5371952844</v>
+        <v>611730.0076862896</v>
       </c>
       <c r="R7" t="n">
-        <v>7036080.565151189</v>
+        <v>7036605.618362699</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1371,10 +1366,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111840129</v>
+        <v>111840150</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1387,39 +1382,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>612009.0800721663</v>
+        <v>611550.6048254245</v>
       </c>
       <c r="R8" t="n">
-        <v>7036270.05001692</v>
+        <v>7036580.087332346</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1488,10 +1478,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111840153</v>
+        <v>111840146</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>56414</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,34 +1494,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>611889.0449884314</v>
+        <v>611935.9852041593</v>
       </c>
       <c r="R9" t="n">
-        <v>7036303.469514119</v>
+        <v>7036435.908902055</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1600,7 +1595,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111840119</v>
+        <v>111840112</v>
       </c>
       <c r="B10" t="n">
         <v>89405</v>
@@ -1640,10 +1635,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>611657.7574473261</v>
+        <v>611748.0554904841</v>
       </c>
       <c r="R10" t="n">
-        <v>7036619.663314155</v>
+        <v>7036525.628309194</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1712,10 +1707,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111840107</v>
+        <v>111840155</v>
       </c>
       <c r="B11" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1724,25 +1719,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1752,10 +1747,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>611649.8351994418</v>
+        <v>611724.3624407195</v>
       </c>
       <c r="R11" t="n">
-        <v>7036615.355325347</v>
+        <v>7036587.505142178</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1824,10 +1819,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111840149</v>
+        <v>111840105</v>
       </c>
       <c r="B12" t="n">
-        <v>90854</v>
+        <v>89369</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1836,25 +1831,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2079</v>
+        <v>5447</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1864,10 +1859,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>612070.4118449257</v>
+        <v>611887.4997693001</v>
       </c>
       <c r="R12" t="n">
-        <v>7036183.955704447</v>
+        <v>7036488.407450524</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1936,10 +1931,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111840099</v>
+        <v>111840134</v>
       </c>
       <c r="B13" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1948,38 +1943,43 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>611935.4835508752</v>
+        <v>611775.6287810439</v>
       </c>
       <c r="R13" t="n">
-        <v>7036271.053399008</v>
+        <v>7036557.94632658</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2048,10 +2048,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111840143</v>
+        <v>111840174</v>
       </c>
       <c r="B14" t="n">
-        <v>89351</v>
+        <v>89419</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2064,21 +2064,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>112</v>
+        <v>1204</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2088,10 +2088,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>611935.9852041593</v>
+        <v>612005.5308763357</v>
       </c>
       <c r="R14" t="n">
-        <v>7036435.908902055</v>
+        <v>7036320.094612861</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2160,10 +2160,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111840181</v>
+        <v>111840178</v>
       </c>
       <c r="B15" t="n">
-        <v>78611</v>
+        <v>96265</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2176,21 +2176,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6463</v>
+        <v>219790</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>611643.964991785</v>
+        <v>611660.8587535081</v>
       </c>
       <c r="R15" t="n">
-        <v>7036616.493765838</v>
+        <v>7036556.618785212</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2272,10 +2272,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111840121</v>
+        <v>111840166</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2284,31 +2284,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2317,10 +2316,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>612131.8014658812</v>
+        <v>611872.0517480521</v>
       </c>
       <c r="R16" t="n">
-        <v>7036083.52705478</v>
+        <v>7036366.032528495</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2389,10 +2388,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111840126</v>
+        <v>111840102</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2401,43 +2400,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>612130.930864902</v>
+        <v>611958.0414993305</v>
       </c>
       <c r="R17" t="n">
-        <v>7036146.659491631</v>
+        <v>7036382.483518991</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2618,7 +2612,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111840162</v>
+        <v>111840171</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2651,21 +2645,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>611796.2630279514</v>
+        <v>611730.9818362541</v>
       </c>
       <c r="R19" t="n">
-        <v>7036596.291893803</v>
+        <v>7036603.412985859</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2734,10 +2724,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111840132</v>
+        <v>111840101</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2746,43 +2736,38 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>611730.0076862896</v>
+        <v>612073.4874485112</v>
       </c>
       <c r="R20" t="n">
-        <v>7036605.618362699</v>
+        <v>7036236.921791457</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2851,10 +2836,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111840105</v>
+        <v>111840142</v>
       </c>
       <c r="B21" t="n">
-        <v>89369</v>
+        <v>78605</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2867,21 +2852,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5447</v>
+        <v>6462</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2891,10 +2876,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>611887.4997693001</v>
+        <v>611625.1043809571</v>
       </c>
       <c r="R21" t="n">
-        <v>7036488.407450524</v>
+        <v>7036617.178122533</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2963,10 +2948,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111840164</v>
+        <v>111840103</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2975,42 +2960,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>611550.5735735258</v>
+        <v>611937.0536248725</v>
       </c>
       <c r="R22" t="n">
-        <v>7036580.982027167</v>
+        <v>7036431.019251303</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -3079,10 +3060,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111840156</v>
+        <v>111840141</v>
       </c>
       <c r="B23" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3091,25 +3072,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3119,10 +3100,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>611644.9077998699</v>
+        <v>611995.7935480368</v>
       </c>
       <c r="R23" t="n">
-        <v>7036615.18305849</v>
+        <v>7036214.038866865</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -3191,10 +3172,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111840144</v>
+        <v>111840153</v>
       </c>
       <c r="B24" t="n">
-        <v>56414</v>
+        <v>78578</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3207,39 +3188,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100049</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>611756.2283190354</v>
+        <v>611889.0449884314</v>
       </c>
       <c r="R24" t="n">
-        <v>7036522.778974289</v>
+        <v>7036303.469514119</v>
       </c>
       <c r="S24" t="n">
         <v>20</v>
@@ -3308,10 +3284,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111840166</v>
+        <v>111840113</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3320,42 +3296,38 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>611872.0517480521</v>
+        <v>611968.6292715519</v>
       </c>
       <c r="R25" t="n">
-        <v>7036366.032528495</v>
+        <v>7036400.323734847</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3424,10 +3396,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111840100</v>
+        <v>111840116</v>
       </c>
       <c r="B26" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3436,25 +3408,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3464,10 +3436,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>612126.00427822</v>
+        <v>611789.2367900747</v>
       </c>
       <c r="R26" t="n">
-        <v>7036197.553588478</v>
+        <v>7036592.014885741</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3536,10 +3508,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111840130</v>
+        <v>111840176</v>
       </c>
       <c r="B27" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3552,39 +3524,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>611987.1615648521</v>
+        <v>612157.958919349</v>
       </c>
       <c r="R27" t="n">
-        <v>7036293.918105817</v>
+        <v>7036053.983385305</v>
       </c>
       <c r="S27" t="n">
         <v>20</v>
@@ -3653,10 +3620,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111840123</v>
+        <v>111840098</v>
       </c>
       <c r="B28" t="n">
-        <v>56398</v>
+        <v>94134</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3669,39 +3636,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>53</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>612199.4368418896</v>
+        <v>612200.5371952844</v>
       </c>
       <c r="R28" t="n">
-        <v>7036086.350105605</v>
+        <v>7036080.565151189</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3770,10 +3732,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111840116</v>
+        <v>111840123</v>
       </c>
       <c r="B29" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3786,34 +3748,39 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>611789.2367900747</v>
+        <v>612199.4368418896</v>
       </c>
       <c r="R29" t="n">
-        <v>7036592.014885741</v>
+        <v>7036086.350105605</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>
@@ -3882,10 +3849,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111840174</v>
+        <v>111840126</v>
       </c>
       <c r="B30" t="n">
-        <v>89419</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3898,34 +3865,39 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>612005.5308763357</v>
+        <v>612130.930864902</v>
       </c>
       <c r="R30" t="n">
-        <v>7036320.094612861</v>
+        <v>7036146.659491631</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -3994,7 +3966,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111840124</v>
+        <v>111840125</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -4030,7 +4002,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4039,10 +4011,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>612162.5263506409</v>
+        <v>612150.1243816372</v>
       </c>
       <c r="R31" t="n">
-        <v>7036089.981436108</v>
+        <v>7036136.582292198</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -4111,10 +4083,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111840173</v>
+        <v>111840140</v>
       </c>
       <c r="B32" t="n">
-        <v>89419</v>
+        <v>78605</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4123,25 +4095,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1204</v>
+        <v>6462</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4151,10 +4123,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>612202.8558842771</v>
+        <v>611968.467425107</v>
       </c>
       <c r="R32" t="n">
-        <v>7036078.4067488</v>
+        <v>7036238.61380059</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -4223,10 +4195,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111840157</v>
+        <v>111840118</v>
       </c>
       <c r="B33" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4239,21 +4211,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4263,10 +4235,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>611643.964991785</v>
+        <v>611685.1446571616</v>
       </c>
       <c r="R33" t="n">
-        <v>7036616.493765838</v>
+        <v>7036618.829449931</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -4335,10 +4307,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111840169</v>
+        <v>111840104</v>
       </c>
       <c r="B34" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4347,42 +4319,38 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>611826.8177700657</v>
+        <v>611931.9467388361</v>
       </c>
       <c r="R34" t="n">
-        <v>7036530.624793339</v>
+        <v>7036448.75694545</v>
       </c>
       <c r="S34" t="n">
         <v>20</v>
@@ -4451,10 +4419,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111840111</v>
+        <v>111840163</v>
       </c>
       <c r="B35" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4463,38 +4431,42 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>611565.3246701241</v>
+        <v>612073.4874485112</v>
       </c>
       <c r="R35" t="n">
-        <v>7036582.393106925</v>
+        <v>7036236.921791457</v>
       </c>
       <c r="S35" t="n">
         <v>20</v>
@@ -4563,10 +4535,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111840128</v>
+        <v>111840114</v>
       </c>
       <c r="B36" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4579,39 +4551,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>612050.5924099417</v>
+        <v>611931.1515982752</v>
       </c>
       <c r="R36" t="n">
-        <v>7036237.462344669</v>
+        <v>7036433.051986331</v>
       </c>
       <c r="S36" t="n">
         <v>20</v>
@@ -4680,10 +4647,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111840115</v>
+        <v>111840172</v>
       </c>
       <c r="B37" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4692,38 +4659,42 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>611896.7164174926</v>
+        <v>611736.8774460263</v>
       </c>
       <c r="R37" t="n">
-        <v>7036468.574357864</v>
+        <v>7036614.368652546</v>
       </c>
       <c r="S37" t="n">
         <v>20</v>
@@ -4792,10 +4763,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111840175</v>
+        <v>111840143</v>
       </c>
       <c r="B38" t="n">
-        <v>89423</v>
+        <v>89351</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4808,21 +4779,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5432</v>
+        <v>112</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4832,10 +4803,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>612016.4676519124</v>
+        <v>611935.9852041593</v>
       </c>
       <c r="R38" t="n">
-        <v>7036264.037915429</v>
+        <v>7036435.908902055</v>
       </c>
       <c r="S38" t="n">
         <v>20</v>
@@ -4904,10 +4875,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111840117</v>
+        <v>111840182</v>
       </c>
       <c r="B39" t="n">
-        <v>89405</v>
+        <v>89679</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4916,25 +4887,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1202</v>
+        <v>6008693</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kritporing</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Resinoporia crassa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Audet</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4944,10 +4915,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>611725.3738043295</v>
+        <v>611987.1301913462</v>
       </c>
       <c r="R39" t="n">
-        <v>7036571.416293882</v>
+        <v>7036294.81288166</v>
       </c>
       <c r="S39" t="n">
         <v>20</v>
@@ -5016,10 +4987,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111840104</v>
+        <v>111840111</v>
       </c>
       <c r="B40" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5028,25 +4999,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5056,10 +5027,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>611931.9467388361</v>
+        <v>611565.3246701241</v>
       </c>
       <c r="R40" t="n">
-        <v>7036448.75694545</v>
+        <v>7036582.393106925</v>
       </c>
       <c r="S40" t="n">
         <v>20</v>
@@ -5128,10 +5099,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111840142</v>
+        <v>111840127</v>
       </c>
       <c r="B41" t="n">
-        <v>78605</v>
+        <v>56398</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5140,38 +5111,43 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>611625.1043809571</v>
+        <v>612097.6396491884</v>
       </c>
       <c r="R41" t="n">
-        <v>7036617.178122533</v>
+        <v>7036226.122720091</v>
       </c>
       <c r="S41" t="n">
         <v>20</v>
@@ -5240,10 +5216,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111840172</v>
+        <v>111840145</v>
       </c>
       <c r="B42" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5252,30 +5228,31 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>20</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5284,10 +5261,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>611736.8774460263</v>
+        <v>611966.0247136273</v>
       </c>
       <c r="R42" t="n">
-        <v>7036614.368652546</v>
+        <v>7036359.471176716</v>
       </c>
       <c r="S42" t="n">
         <v>20</v>
@@ -5356,10 +5333,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111840136</v>
+        <v>111840152</v>
       </c>
       <c r="B43" t="n">
-        <v>56543</v>
+        <v>78578</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5372,39 +5349,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>103021</v>
+        <v>6458</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>stationär</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>611872.9006968342</v>
+        <v>611691.7206150193</v>
       </c>
       <c r="R43" t="n">
-        <v>7036367.406045308</v>
+        <v>7036559.041695474</v>
       </c>
       <c r="S43" t="n">
         <v>20</v>
@@ -5473,10 +5445,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111840140</v>
+        <v>111840110</v>
       </c>
       <c r="B44" t="n">
-        <v>78605</v>
+        <v>89745</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5485,25 +5457,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6462</v>
+        <v>2062</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5513,10 +5485,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>611968.467425107</v>
+        <v>611896.7164174926</v>
       </c>
       <c r="R44" t="n">
-        <v>7036238.61380059</v>
+        <v>7036468.574357864</v>
       </c>
       <c r="S44" t="n">
         <v>20</v>
@@ -5701,10 +5673,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111840151</v>
+        <v>111840162</v>
       </c>
       <c r="B46" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5713,38 +5685,42 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>611655.8999817995</v>
+        <v>611796.2630279514</v>
       </c>
       <c r="R46" t="n">
-        <v>7036557.341203817</v>
+        <v>7036596.291893803</v>
       </c>
       <c r="S46" t="n">
         <v>20</v>
@@ -5813,10 +5789,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111840177</v>
+        <v>111840149</v>
       </c>
       <c r="B47" t="n">
-        <v>77515</v>
+        <v>90854</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5829,21 +5805,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>2079</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5853,10 +5829,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>611671.8001653572</v>
+        <v>612070.4118449257</v>
       </c>
       <c r="R47" t="n">
-        <v>7036615.675445669</v>
+        <v>7036183.955704447</v>
       </c>
       <c r="S47" t="n">
         <v>20</v>
@@ -5925,10 +5901,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111840102</v>
+        <v>111840121</v>
       </c>
       <c r="B48" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5937,38 +5913,43 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>611958.0414993305</v>
+        <v>612131.8014658812</v>
       </c>
       <c r="R48" t="n">
-        <v>7036382.483518991</v>
+        <v>7036083.52705478</v>
       </c>
       <c r="S48" t="n">
         <v>20</v>
@@ -6037,10 +6018,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111840167</v>
+        <v>111840136</v>
       </c>
       <c r="B49" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6049,30 +6030,31 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>stationär</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6081,10 +6063,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>612162.5263506409</v>
+        <v>611872.9006968342</v>
       </c>
       <c r="R49" t="n">
-        <v>7036089.981436108</v>
+        <v>7036367.406045308</v>
       </c>
       <c r="S49" t="n">
         <v>20</v>
@@ -6153,10 +6135,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111840161</v>
+        <v>111840131</v>
       </c>
       <c r="B50" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6165,30 +6147,31 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>40</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -6197,10 +6180,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>611774.9902539523</v>
+        <v>611968.8017988449</v>
       </c>
       <c r="R50" t="n">
-        <v>7036601.817765385</v>
+        <v>7036395.402627021</v>
       </c>
       <c r="S50" t="n">
         <v>20</v>
@@ -6269,10 +6252,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111840110</v>
+        <v>111840124</v>
       </c>
       <c r="B51" t="n">
-        <v>89745</v>
+        <v>56398</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6281,38 +6264,43 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2062</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>611896.7164174926</v>
+        <v>612162.5263506409</v>
       </c>
       <c r="R51" t="n">
-        <v>7036468.574357864</v>
+        <v>7036089.981436108</v>
       </c>
       <c r="S51" t="n">
         <v>20</v>
@@ -6381,10 +6369,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111840171</v>
+        <v>111840157</v>
       </c>
       <c r="B52" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6393,25 +6381,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6421,10 +6409,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>611730.9818362541</v>
+        <v>611643.964991785</v>
       </c>
       <c r="R52" t="n">
-        <v>7036603.412985859</v>
+        <v>7036616.493765838</v>
       </c>
       <c r="S52" t="n">
         <v>20</v>
@@ -6493,7 +6481,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111840120</v>
+        <v>111840130</v>
       </c>
       <c r="B53" t="n">
         <v>56398</v>
@@ -6529,7 +6517,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -6538,10 +6526,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>611913.2339886408</v>
+        <v>611987.1615648521</v>
       </c>
       <c r="R53" t="n">
-        <v>7036278.784565655</v>
+        <v>7036293.918105817</v>
       </c>
       <c r="S53" t="n">
         <v>20</v>
@@ -6610,10 +6598,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111840118</v>
+        <v>111840135</v>
       </c>
       <c r="B54" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6626,34 +6614,39 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>611685.1446571616</v>
+        <v>611892.7620166774</v>
       </c>
       <c r="R54" t="n">
-        <v>7036618.829449931</v>
+        <v>7036376.61240829</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6722,10 +6715,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111840103</v>
+        <v>111840139</v>
       </c>
       <c r="B55" t="n">
-        <v>89369</v>
+        <v>78605</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6738,21 +6731,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5447</v>
+        <v>6462</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6762,10 +6755,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>611937.0536248725</v>
+        <v>611538.4945442909</v>
       </c>
       <c r="R55" t="n">
-        <v>7036431.019251303</v>
+        <v>7036580.1122336</v>
       </c>
       <c r="S55" t="n">
         <v>20</v>
@@ -6834,10 +6827,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111840150</v>
+        <v>111840144</v>
       </c>
       <c r="B56" t="n">
-        <v>78578</v>
+        <v>56414</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6850,34 +6843,39 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6458</v>
+        <v>100049</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>611550.6048254245</v>
+        <v>611756.2283190354</v>
       </c>
       <c r="R56" t="n">
-        <v>7036580.087332346</v>
+        <v>7036522.778974289</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>
@@ -6946,7 +6944,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111840113</v>
+        <v>111840119</v>
       </c>
       <c r="B57" t="n">
         <v>89405</v>
@@ -6986,10 +6984,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>611968.6292715519</v>
+        <v>611657.7574473261</v>
       </c>
       <c r="R57" t="n">
-        <v>7036400.323734847</v>
+        <v>7036619.663314155</v>
       </c>
       <c r="S57" t="n">
         <v>20</v>
@@ -7058,10 +7056,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111840163</v>
+        <v>111840128</v>
       </c>
       <c r="B58" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7070,30 +7068,31 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>15</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -7102,10 +7101,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>612073.4874485112</v>
+        <v>612050.5924099417</v>
       </c>
       <c r="R58" t="n">
-        <v>7036236.921791457</v>
+        <v>7036237.462344669</v>
       </c>
       <c r="S58" t="n">
         <v>20</v>
@@ -7174,10 +7173,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111840152</v>
+        <v>111840175</v>
       </c>
       <c r="B59" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7190,21 +7189,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7214,10 +7213,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>611691.7206150193</v>
+        <v>612016.4676519124</v>
       </c>
       <c r="R59" t="n">
-        <v>7036559.041695474</v>
+        <v>7036264.037915429</v>
       </c>
       <c r="S59" t="n">
         <v>20</v>
@@ -7286,10 +7285,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111840158</v>
+        <v>111840129</v>
       </c>
       <c r="B60" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7302,34 +7301,39 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>611625.1043809571</v>
+        <v>612009.0800721663</v>
       </c>
       <c r="R60" t="n">
-        <v>7036617.178122533</v>
+        <v>7036270.05001692</v>
       </c>
       <c r="S60" t="n">
         <v>20</v>
@@ -7398,10 +7402,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111840141</v>
+        <v>111840161</v>
       </c>
       <c r="B61" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7410,38 +7414,42 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>611995.7935480368</v>
+        <v>611774.9902539523</v>
       </c>
       <c r="R61" t="n">
-        <v>7036214.038866865</v>
+        <v>7036601.817765385</v>
       </c>
       <c r="S61" t="n">
         <v>20</v>
@@ -7510,10 +7518,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111840133</v>
+        <v>111840156</v>
       </c>
       <c r="B62" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7526,39 +7534,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P62" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>611900.6540649632</v>
+        <v>611644.9077998699</v>
       </c>
       <c r="R62" t="n">
-        <v>7036471.399798824</v>
+        <v>7036615.18305849</v>
       </c>
       <c r="S62" t="n">
         <v>20</v>
@@ -7627,10 +7630,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111840146</v>
+        <v>111840164</v>
       </c>
       <c r="B63" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7639,31 +7642,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>50</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -7672,10 +7674,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>611935.9852041593</v>
+        <v>611550.5735735258</v>
       </c>
       <c r="R63" t="n">
-        <v>7036435.908902055</v>
+        <v>7036580.982027167</v>
       </c>
       <c r="S63" t="n">
         <v>20</v>
@@ -7744,10 +7746,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111840154</v>
+        <v>111840177</v>
       </c>
       <c r="B64" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7760,21 +7762,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7784,10 +7786,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>611999.9284227985</v>
+        <v>611671.8001653572</v>
       </c>
       <c r="R64" t="n">
-        <v>7036224.038725983</v>
+        <v>7036615.675445669</v>
       </c>
       <c r="S64" t="n">
         <v>20</v>
@@ -7856,10 +7858,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111840139</v>
+        <v>111840170</v>
       </c>
       <c r="B65" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7868,38 +7870,42 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>611538.4945442909</v>
+        <v>611721.2521968643</v>
       </c>
       <c r="R65" t="n">
-        <v>7036580.1122336</v>
+        <v>7036599.489451895</v>
       </c>
       <c r="S65" t="n">
         <v>20</v>
@@ -7968,10 +7974,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111840131</v>
+        <v>111840181</v>
       </c>
       <c r="B66" t="n">
-        <v>56398</v>
+        <v>78611</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7980,43 +7986,38 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>6463</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P66" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>611968.8017988449</v>
+        <v>611643.964991785</v>
       </c>
       <c r="R66" t="n">
-        <v>7036395.402627021</v>
+        <v>7036616.493765838</v>
       </c>
       <c r="S66" t="n">
         <v>20</v>
@@ -8085,10 +8086,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111840101</v>
+        <v>111840133</v>
       </c>
       <c r="B67" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8097,38 +8098,43 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>612073.4874485112</v>
+        <v>611900.6540649632</v>
       </c>
       <c r="R67" t="n">
-        <v>7036236.921791457</v>
+        <v>7036471.399798824</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -8197,10 +8203,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111840176</v>
+        <v>111840173</v>
       </c>
       <c r="B68" t="n">
-        <v>77515</v>
+        <v>89419</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8213,21 +8219,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8237,10 +8243,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>612157.958919349</v>
+        <v>612202.8558842771</v>
       </c>
       <c r="R68" t="n">
-        <v>7036053.983385305</v>
+        <v>7036078.4067488</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -8309,7 +8315,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111840112</v>
+        <v>111840117</v>
       </c>
       <c r="B69" t="n">
         <v>89405</v>
@@ -8349,10 +8355,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>611748.0554904841</v>
+        <v>611725.3738043295</v>
       </c>
       <c r="R69" t="n">
-        <v>7036525.628309194</v>
+        <v>7036571.416293882</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -8421,10 +8427,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111840127</v>
+        <v>111840100</v>
       </c>
       <c r="B70" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8433,43 +8439,38 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P70" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>612097.6396491884</v>
+        <v>612126.00427822</v>
       </c>
       <c r="R70" t="n">
-        <v>7036226.122720091</v>
+        <v>7036197.553588478</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>
@@ -8538,10 +8539,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111840145</v>
+        <v>111840167</v>
       </c>
       <c r="B71" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8550,31 +8551,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -8583,10 +8583,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>611966.0247136273</v>
+        <v>612162.5263506409</v>
       </c>
       <c r="R71" t="n">
-        <v>7036359.471176716</v>
+        <v>7036089.981436108</v>
       </c>
       <c r="S71" t="n">
         <v>20</v>
@@ -8655,7 +8655,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111840125</v>
+        <v>111840122</v>
       </c>
       <c r="B72" t="n">
         <v>56398</v>
@@ -8700,10 +8700,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>612150.1243816372</v>
+        <v>612218.6938216727</v>
       </c>
       <c r="R72" t="n">
-        <v>7036136.582292198</v>
+        <v>7036074.483427257</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -8772,10 +8772,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111840170</v>
+        <v>111840154</v>
       </c>
       <c r="B73" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8784,42 +8784,38 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>611721.2521968643</v>
+        <v>611999.9284227985</v>
       </c>
       <c r="R73" t="n">
-        <v>7036599.489451895</v>
+        <v>7036224.038725983</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>
@@ -8888,10 +8884,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111840178</v>
+        <v>111840158</v>
       </c>
       <c r="B74" t="n">
-        <v>96265</v>
+        <v>78578</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8900,25 +8896,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>219790</v>
+        <v>6458</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8928,10 +8924,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>611660.8587535081</v>
+        <v>611625.1043809571</v>
       </c>
       <c r="R74" t="n">
-        <v>7036556.618785212</v>
+        <v>7036617.178122533</v>
       </c>
       <c r="S74" t="n">
         <v>20</v>
@@ -9000,10 +8996,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111840122</v>
+        <v>111840099</v>
       </c>
       <c r="B75" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9012,43 +9008,38 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>612218.6938216727</v>
+        <v>611935.4835508752</v>
       </c>
       <c r="R75" t="n">
-        <v>7036074.483427257</v>
+        <v>7036271.053399008</v>
       </c>
       <c r="S75" t="n">
         <v>20</v>
@@ -9117,10 +9108,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111840114</v>
+        <v>111840120</v>
       </c>
       <c r="B76" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9133,34 +9124,39 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>611931.1515982752</v>
+        <v>611913.2339886408</v>
       </c>
       <c r="R76" t="n">
-        <v>7036433.051986331</v>
+        <v>7036278.784565655</v>
       </c>
       <c r="S76" t="n">
         <v>20</v>
@@ -9229,10 +9225,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111840182</v>
+        <v>111840169</v>
       </c>
       <c r="B77" t="n">
-        <v>89679</v>
+        <v>96348</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9241,38 +9237,42 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6008693</v>
+        <v>220787</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Kritporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Resinoporia crassa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(P.Karst.) Audet</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>611987.1301913462</v>
+        <v>611826.8177700657</v>
       </c>
       <c r="R77" t="n">
-        <v>7036294.81288166</v>
+        <v>7036530.624793339</v>
       </c>
       <c r="S77" t="n">
         <v>20</v>

--- a/artfynd/A 40639-2022.xlsx
+++ b/artfynd/A 40639-2022.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111840115</v>
+        <v>111840125</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,34 +813,39 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>611896.7164174926</v>
+        <v>612150.1243816372</v>
       </c>
       <c r="R3" t="n">
-        <v>7036468.574357864</v>
+        <v>7036136.582292198</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -909,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111840107</v>
+        <v>111840141</v>
       </c>
       <c r="B4" t="n">
-        <v>89369</v>
+        <v>78605</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,21 +930,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5447</v>
+        <v>6462</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -949,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>611649.8351994418</v>
+        <v>611995.7935480368</v>
       </c>
       <c r="R4" t="n">
-        <v>7036615.355325347</v>
+        <v>7036214.038866865</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1021,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111840151</v>
+        <v>111840101</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>89369</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1033,25 +1038,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1061,10 +1066,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>611655.8999817995</v>
+        <v>612073.4874485112</v>
       </c>
       <c r="R5" t="n">
-        <v>7036557.341203817</v>
+        <v>7036236.921791457</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1133,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111840165</v>
+        <v>111840135</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,30 +1150,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>75</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1177,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>611625.6525432562</v>
+        <v>611892.7620166774</v>
       </c>
       <c r="R6" t="n">
-        <v>7036563.002264032</v>
+        <v>7036376.61240829</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1249,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111840132</v>
+        <v>111840136</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>56543</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1265,27 +1271,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>upprörd, varnande</t>
+          <t>stationär</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1294,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>611730.0076862896</v>
+        <v>611872.9006968342</v>
       </c>
       <c r="R7" t="n">
-        <v>7036605.618362699</v>
+        <v>7036367.406045308</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1366,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111840150</v>
+        <v>111840104</v>
       </c>
       <c r="B8" t="n">
-        <v>78578</v>
+        <v>89369</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1378,25 +1384,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1406,10 +1412,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>611550.6048254245</v>
+        <v>611931.9467388361</v>
       </c>
       <c r="R8" t="n">
-        <v>7036580.087332346</v>
+        <v>7036448.75694545</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1478,10 +1484,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111840146</v>
+        <v>111840131</v>
       </c>
       <c r="B9" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1494,16 +1500,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1514,7 +1520,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1523,10 +1529,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>611935.9852041593</v>
+        <v>611968.8017988449</v>
       </c>
       <c r="R9" t="n">
-        <v>7036435.908902055</v>
+        <v>7036395.402627021</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1595,10 +1601,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111840112</v>
+        <v>111840182</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>89679</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1607,25 +1613,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>6008693</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kritporing</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Resinoporia crassa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Audet</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1635,10 +1641,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>611748.0554904841</v>
+        <v>611987.1301913462</v>
       </c>
       <c r="R10" t="n">
-        <v>7036525.628309194</v>
+        <v>7036294.81288166</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1707,10 +1713,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111840155</v>
+        <v>111840139</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1719,25 +1725,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1747,10 +1753,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>611724.3624407195</v>
+        <v>611538.4945442909</v>
       </c>
       <c r="R11" t="n">
-        <v>7036587.505142178</v>
+        <v>7036580.1122336</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1819,10 +1825,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111840105</v>
+        <v>111840116</v>
       </c>
       <c r="B12" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1831,25 +1837,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1859,10 +1865,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>611887.4997693001</v>
+        <v>611789.2367900747</v>
       </c>
       <c r="R12" t="n">
-        <v>7036488.407450524</v>
+        <v>7036592.014885741</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1931,10 +1937,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111840134</v>
+        <v>111840162</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1943,31 +1949,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>200</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1976,10 +1981,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>611775.6287810439</v>
+        <v>611796.2630279514</v>
       </c>
       <c r="R13" t="n">
-        <v>7036557.94632658</v>
+        <v>7036596.291893803</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2048,10 +2053,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111840174</v>
+        <v>111840102</v>
       </c>
       <c r="B14" t="n">
-        <v>89419</v>
+        <v>89369</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2060,25 +2065,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1204</v>
+        <v>5447</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2088,10 +2093,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>612005.5308763357</v>
+        <v>611958.0414993305</v>
       </c>
       <c r="R14" t="n">
-        <v>7036320.094612861</v>
+        <v>7036382.483518991</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2160,10 +2165,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111840178</v>
+        <v>111840166</v>
       </c>
       <c r="B15" t="n">
-        <v>96265</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2172,38 +2177,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>219790</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>611660.8587535081</v>
+        <v>611872.0517480521</v>
       </c>
       <c r="R15" t="n">
-        <v>7036556.618785212</v>
+        <v>7036366.032528495</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2272,10 +2281,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111840166</v>
+        <v>111840149</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>90854</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2284,42 +2293,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>2079</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(S.Lundell) Parmasto</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>611872.0517480521</v>
+        <v>612070.4118449257</v>
       </c>
       <c r="R16" t="n">
-        <v>7036366.032528495</v>
+        <v>7036183.955704447</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2388,10 +2393,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111840102</v>
+        <v>111840127</v>
       </c>
       <c r="B17" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2400,38 +2405,43 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>611958.0414993305</v>
+        <v>612097.6396491884</v>
       </c>
       <c r="R17" t="n">
-        <v>7036382.483518991</v>
+        <v>7036226.122720091</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2500,10 +2510,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111840106</v>
+        <v>111840120</v>
       </c>
       <c r="B18" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2512,38 +2522,43 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>611685.1759468586</v>
+        <v>611913.2339886408</v>
       </c>
       <c r="R18" t="n">
-        <v>7036617.934765363</v>
+        <v>7036278.784565655</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2612,10 +2627,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111840171</v>
+        <v>111840158</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2624,25 +2639,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2652,10 +2667,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>611730.9818362541</v>
+        <v>611625.1043809571</v>
       </c>
       <c r="R19" t="n">
-        <v>7036603.412985859</v>
+        <v>7036617.178122533</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2724,10 +2739,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111840101</v>
+        <v>111840133</v>
       </c>
       <c r="B20" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2736,38 +2751,43 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>612073.4874485112</v>
+        <v>611900.6540649632</v>
       </c>
       <c r="R20" t="n">
-        <v>7036236.921791457</v>
+        <v>7036471.399798824</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2836,10 +2856,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111840142</v>
+        <v>111840171</v>
       </c>
       <c r="B21" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2848,25 +2868,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2876,10 +2896,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>611625.1043809571</v>
+        <v>611730.9818362541</v>
       </c>
       <c r="R21" t="n">
-        <v>7036617.178122533</v>
+        <v>7036603.412985859</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2948,10 +2968,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111840103</v>
+        <v>111840132</v>
       </c>
       <c r="B22" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2960,38 +2980,43 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>611937.0536248725</v>
+        <v>611730.0076862896</v>
       </c>
       <c r="R22" t="n">
-        <v>7036431.019251303</v>
+        <v>7036605.618362699</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -3060,10 +3085,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111840141</v>
+        <v>111840110</v>
       </c>
       <c r="B23" t="n">
-        <v>78605</v>
+        <v>89745</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3072,25 +3097,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6462</v>
+        <v>2062</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3100,10 +3125,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>611995.7935480368</v>
+        <v>611896.7164174926</v>
       </c>
       <c r="R23" t="n">
-        <v>7036214.038866865</v>
+        <v>7036468.574357864</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -3172,10 +3197,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111840153</v>
+        <v>111840140</v>
       </c>
       <c r="B24" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3184,25 +3209,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3212,10 +3237,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>611889.0449884314</v>
+        <v>611968.467425107</v>
       </c>
       <c r="R24" t="n">
-        <v>7036303.469514119</v>
+        <v>7036238.61380059</v>
       </c>
       <c r="S24" t="n">
         <v>20</v>
@@ -3284,10 +3309,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111840113</v>
+        <v>111840164</v>
       </c>
       <c r="B25" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3296,38 +3321,42 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>611968.6292715519</v>
+        <v>611550.5735735258</v>
       </c>
       <c r="R25" t="n">
-        <v>7036400.323734847</v>
+        <v>7036580.982027167</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3396,10 +3425,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111840116</v>
+        <v>111840181</v>
       </c>
       <c r="B26" t="n">
-        <v>89405</v>
+        <v>78611</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3408,25 +3437,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>6463</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3436,10 +3465,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>611789.2367900747</v>
+        <v>611643.964991785</v>
       </c>
       <c r="R26" t="n">
-        <v>7036592.014885741</v>
+        <v>7036616.493765838</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3508,10 +3537,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111840176</v>
+        <v>111840167</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3520,38 +3549,42 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>612157.958919349</v>
+        <v>612162.5263506409</v>
       </c>
       <c r="R27" t="n">
-        <v>7036053.983385305</v>
+        <v>7036089.981436108</v>
       </c>
       <c r="S27" t="n">
         <v>20</v>
@@ -3620,10 +3653,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111840098</v>
+        <v>111840175</v>
       </c>
       <c r="B28" t="n">
-        <v>94134</v>
+        <v>89423</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3636,21 +3669,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>53</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3660,10 +3693,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>612200.5371952844</v>
+        <v>612016.4676519124</v>
       </c>
       <c r="R28" t="n">
-        <v>7036080.565151189</v>
+        <v>7036264.037915429</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3732,10 +3765,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111840123</v>
+        <v>111840115</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3748,39 +3781,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>612199.4368418896</v>
+        <v>611896.7164174926</v>
       </c>
       <c r="R29" t="n">
-        <v>7036086.350105605</v>
+        <v>7036468.574357864</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>
@@ -3849,7 +3877,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111840126</v>
+        <v>111840128</v>
       </c>
       <c r="B30" t="n">
         <v>56398</v>
@@ -3894,10 +3922,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>612130.930864902</v>
+        <v>612050.5924099417</v>
       </c>
       <c r="R30" t="n">
-        <v>7036146.659491631</v>
+        <v>7036237.462344669</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -3966,7 +3994,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111840125</v>
+        <v>111840121</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -4011,10 +4039,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>612150.1243816372</v>
+        <v>612131.8014658812</v>
       </c>
       <c r="R31" t="n">
-        <v>7036136.582292198</v>
+        <v>7036083.52705478</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -4083,10 +4111,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111840140</v>
+        <v>111840119</v>
       </c>
       <c r="B32" t="n">
-        <v>78605</v>
+        <v>89405</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4095,25 +4123,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6462</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4123,10 +4151,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>611968.467425107</v>
+        <v>611657.7574473261</v>
       </c>
       <c r="R32" t="n">
-        <v>7036238.61380059</v>
+        <v>7036619.663314155</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -4195,10 +4223,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111840118</v>
+        <v>111840168</v>
       </c>
       <c r="B33" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4207,38 +4235,42 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>611685.1446571616</v>
+        <v>611958.0414993305</v>
       </c>
       <c r="R33" t="n">
-        <v>7036618.829449931</v>
+        <v>7036382.483518991</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -4307,10 +4339,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111840104</v>
+        <v>111840146</v>
       </c>
       <c r="B34" t="n">
-        <v>89369</v>
+        <v>56414</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4319,38 +4351,43 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5447</v>
+        <v>100049</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>611931.9467388361</v>
+        <v>611935.9852041593</v>
       </c>
       <c r="R34" t="n">
-        <v>7036448.75694545</v>
+        <v>7036435.908902055</v>
       </c>
       <c r="S34" t="n">
         <v>20</v>
@@ -4419,10 +4456,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111840163</v>
+        <v>111840134</v>
       </c>
       <c r="B35" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4431,30 +4468,31 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>15</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4463,10 +4501,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>612073.4874485112</v>
+        <v>611775.6287810439</v>
       </c>
       <c r="R35" t="n">
-        <v>7036236.921791457</v>
+        <v>7036557.94632658</v>
       </c>
       <c r="S35" t="n">
         <v>20</v>
@@ -4535,7 +4573,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111840114</v>
+        <v>111840118</v>
       </c>
       <c r="B36" t="n">
         <v>89405</v>
@@ -4575,10 +4613,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>611931.1515982752</v>
+        <v>611685.1446571616</v>
       </c>
       <c r="R36" t="n">
-        <v>7036433.051986331</v>
+        <v>7036618.829449931</v>
       </c>
       <c r="S36" t="n">
         <v>20</v>
@@ -4647,10 +4685,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111840172</v>
+        <v>111840177</v>
       </c>
       <c r="B37" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4659,42 +4697,38 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>611736.8774460263</v>
+        <v>611671.8001653572</v>
       </c>
       <c r="R37" t="n">
-        <v>7036614.368652546</v>
+        <v>7036615.675445669</v>
       </c>
       <c r="S37" t="n">
         <v>20</v>
@@ -4763,10 +4797,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111840143</v>
+        <v>111840172</v>
       </c>
       <c r="B38" t="n">
-        <v>89351</v>
+        <v>96348</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4775,38 +4809,42 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>112</v>
+        <v>220787</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Pat.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>611935.9852041593</v>
+        <v>611736.8774460263</v>
       </c>
       <c r="R38" t="n">
-        <v>7036435.908902055</v>
+        <v>7036614.368652546</v>
       </c>
       <c r="S38" t="n">
         <v>20</v>
@@ -4875,10 +4913,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111840182</v>
+        <v>111840170</v>
       </c>
       <c r="B39" t="n">
-        <v>89679</v>
+        <v>96348</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4887,38 +4925,42 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6008693</v>
+        <v>220787</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kritporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Resinoporia crassa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(P.Karst.) Audet</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>611987.1301913462</v>
+        <v>611721.2521968643</v>
       </c>
       <c r="R39" t="n">
-        <v>7036294.81288166</v>
+        <v>7036599.489451895</v>
       </c>
       <c r="S39" t="n">
         <v>20</v>
@@ -4987,10 +5029,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111840111</v>
+        <v>111840156</v>
       </c>
       <c r="B40" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5003,21 +5045,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5027,10 +5069,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>611565.3246701241</v>
+        <v>611644.9077998699</v>
       </c>
       <c r="R40" t="n">
-        <v>7036582.393106925</v>
+        <v>7036615.18305849</v>
       </c>
       <c r="S40" t="n">
         <v>20</v>
@@ -5099,10 +5141,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111840127</v>
+        <v>111840145</v>
       </c>
       <c r="B41" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5115,16 +5157,16 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -5135,7 +5177,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5144,10 +5186,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>612097.6396491884</v>
+        <v>611966.0247136273</v>
       </c>
       <c r="R41" t="n">
-        <v>7036226.122720091</v>
+        <v>7036359.471176716</v>
       </c>
       <c r="S41" t="n">
         <v>20</v>
@@ -5216,10 +5258,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111840145</v>
+        <v>111840161</v>
       </c>
       <c r="B42" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5228,31 +5270,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>40</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5261,10 +5302,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>611966.0247136273</v>
+        <v>611774.9902539523</v>
       </c>
       <c r="R42" t="n">
-        <v>7036359.471176716</v>
+        <v>7036601.817765385</v>
       </c>
       <c r="S42" t="n">
         <v>20</v>
@@ -5333,10 +5374,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111840152</v>
+        <v>111840165</v>
       </c>
       <c r="B43" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5345,38 +5386,42 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>611691.7206150193</v>
+        <v>611625.6525432562</v>
       </c>
       <c r="R43" t="n">
-        <v>7036559.041695474</v>
+        <v>7036563.002264032</v>
       </c>
       <c r="S43" t="n">
         <v>20</v>
@@ -5445,10 +5490,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111840110</v>
+        <v>111840098</v>
       </c>
       <c r="B44" t="n">
-        <v>89745</v>
+        <v>94134</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5457,25 +5502,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2062</v>
+        <v>53</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5485,10 +5530,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>611896.7164174926</v>
+        <v>612200.5371952844</v>
       </c>
       <c r="R44" t="n">
-        <v>7036468.574357864</v>
+        <v>7036080.565151189</v>
       </c>
       <c r="S44" t="n">
         <v>20</v>
@@ -5557,10 +5602,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111840168</v>
+        <v>111840122</v>
       </c>
       <c r="B45" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5569,30 +5614,31 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>10</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -5601,10 +5647,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>611958.0414993305</v>
+        <v>612218.6938216727</v>
       </c>
       <c r="R45" t="n">
-        <v>7036382.483518991</v>
+        <v>7036074.483427257</v>
       </c>
       <c r="S45" t="n">
         <v>20</v>
@@ -5673,10 +5719,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111840162</v>
+        <v>111840152</v>
       </c>
       <c r="B46" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5685,42 +5731,38 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>611796.2630279514</v>
+        <v>611691.7206150193</v>
       </c>
       <c r="R46" t="n">
-        <v>7036596.291893803</v>
+        <v>7036559.041695474</v>
       </c>
       <c r="S46" t="n">
         <v>20</v>
@@ -5789,10 +5831,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111840149</v>
+        <v>111840142</v>
       </c>
       <c r="B47" t="n">
-        <v>90854</v>
+        <v>78605</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5801,25 +5843,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2079</v>
+        <v>6462</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5829,10 +5871,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>612070.4118449257</v>
+        <v>611625.1043809571</v>
       </c>
       <c r="R47" t="n">
-        <v>7036183.955704447</v>
+        <v>7036617.178122533</v>
       </c>
       <c r="S47" t="n">
         <v>20</v>
@@ -5901,10 +5943,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111840121</v>
+        <v>111840169</v>
       </c>
       <c r="B48" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5913,31 +5955,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -5946,10 +5987,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>612131.8014658812</v>
+        <v>611826.8177700657</v>
       </c>
       <c r="R48" t="n">
-        <v>7036083.52705478</v>
+        <v>7036530.624793339</v>
       </c>
       <c r="S48" t="n">
         <v>20</v>
@@ -6018,10 +6059,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111840136</v>
+        <v>111840113</v>
       </c>
       <c r="B49" t="n">
-        <v>56543</v>
+        <v>89405</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6034,39 +6075,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>stationär</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>611872.9006968342</v>
+        <v>611968.6292715519</v>
       </c>
       <c r="R49" t="n">
-        <v>7036367.406045308</v>
+        <v>7036400.323734847</v>
       </c>
       <c r="S49" t="n">
         <v>20</v>
@@ -6135,10 +6171,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111840131</v>
+        <v>111840143</v>
       </c>
       <c r="B50" t="n">
-        <v>56398</v>
+        <v>89351</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6151,39 +6187,34 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>112</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>611968.8017988449</v>
+        <v>611935.9852041593</v>
       </c>
       <c r="R50" t="n">
-        <v>7036395.402627021</v>
+        <v>7036435.908902055</v>
       </c>
       <c r="S50" t="n">
         <v>20</v>
@@ -6252,10 +6283,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111840124</v>
+        <v>111840106</v>
       </c>
       <c r="B51" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6264,43 +6295,38 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>612162.5263506409</v>
+        <v>611685.1759468586</v>
       </c>
       <c r="R51" t="n">
-        <v>7036089.981436108</v>
+        <v>7036617.934765363</v>
       </c>
       <c r="S51" t="n">
         <v>20</v>
@@ -6369,10 +6395,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111840157</v>
+        <v>111840114</v>
       </c>
       <c r="B52" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6385,21 +6411,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6409,10 +6435,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>611643.964991785</v>
+        <v>611931.1515982752</v>
       </c>
       <c r="R52" t="n">
-        <v>7036616.493765838</v>
+        <v>7036433.051986331</v>
       </c>
       <c r="S52" t="n">
         <v>20</v>
@@ -6481,10 +6507,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111840130</v>
+        <v>111840107</v>
       </c>
       <c r="B53" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6493,43 +6519,38 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>611987.1615648521</v>
+        <v>611649.8351994418</v>
       </c>
       <c r="R53" t="n">
-        <v>7036293.918105817</v>
+        <v>7036615.355325347</v>
       </c>
       <c r="S53" t="n">
         <v>20</v>
@@ -6598,10 +6619,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111840135</v>
+        <v>111840111</v>
       </c>
       <c r="B54" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6614,39 +6635,34 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P54" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>611892.7620166774</v>
+        <v>611565.3246701241</v>
       </c>
       <c r="R54" t="n">
-        <v>7036376.61240829</v>
+        <v>7036582.393106925</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6715,10 +6731,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111840139</v>
+        <v>111840112</v>
       </c>
       <c r="B55" t="n">
-        <v>78605</v>
+        <v>89405</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6727,25 +6743,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6462</v>
+        <v>1202</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6755,10 +6771,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>611538.4945442909</v>
+        <v>611748.0554904841</v>
       </c>
       <c r="R55" t="n">
-        <v>7036580.1122336</v>
+        <v>7036525.628309194</v>
       </c>
       <c r="S55" t="n">
         <v>20</v>
@@ -6827,10 +6843,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111840144</v>
+        <v>111840126</v>
       </c>
       <c r="B56" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6843,16 +6859,16 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -6872,10 +6888,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>611756.2283190354</v>
+        <v>612130.930864902</v>
       </c>
       <c r="R56" t="n">
-        <v>7036522.778974289</v>
+        <v>7036146.659491631</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>
@@ -6944,10 +6960,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111840119</v>
+        <v>111840144</v>
       </c>
       <c r="B57" t="n">
-        <v>89405</v>
+        <v>56414</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6960,34 +6976,39 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>611657.7574473261</v>
+        <v>611756.2283190354</v>
       </c>
       <c r="R57" t="n">
-        <v>7036619.663314155</v>
+        <v>7036522.778974289</v>
       </c>
       <c r="S57" t="n">
         <v>20</v>
@@ -7056,10 +7077,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111840128</v>
+        <v>111840154</v>
       </c>
       <c r="B58" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7072,39 +7093,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P58" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>612050.5924099417</v>
+        <v>611999.9284227985</v>
       </c>
       <c r="R58" t="n">
-        <v>7036237.462344669</v>
+        <v>7036224.038725983</v>
       </c>
       <c r="S58" t="n">
         <v>20</v>
@@ -7173,10 +7189,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111840175</v>
+        <v>111840130</v>
       </c>
       <c r="B59" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7189,34 +7205,39 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>612016.4676519124</v>
+        <v>611987.1615648521</v>
       </c>
       <c r="R59" t="n">
-        <v>7036264.037915429</v>
+        <v>7036293.918105817</v>
       </c>
       <c r="S59" t="n">
         <v>20</v>
@@ -7285,10 +7306,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111840129</v>
+        <v>111840178</v>
       </c>
       <c r="B60" t="n">
-        <v>56398</v>
+        <v>96265</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7297,43 +7318,38 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>219790</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>612009.0800721663</v>
+        <v>611660.8587535081</v>
       </c>
       <c r="R60" t="n">
-        <v>7036270.05001692</v>
+        <v>7036556.618785212</v>
       </c>
       <c r="S60" t="n">
         <v>20</v>
@@ -7402,10 +7418,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111840161</v>
+        <v>111840153</v>
       </c>
       <c r="B61" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7414,42 +7430,38 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>611774.9902539523</v>
+        <v>611889.0449884314</v>
       </c>
       <c r="R61" t="n">
-        <v>7036601.817765385</v>
+        <v>7036303.469514119</v>
       </c>
       <c r="S61" t="n">
         <v>20</v>
@@ -7518,10 +7530,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111840156</v>
+        <v>111840176</v>
       </c>
       <c r="B62" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7534,21 +7546,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7558,10 +7570,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>611644.9077998699</v>
+        <v>612157.958919349</v>
       </c>
       <c r="R62" t="n">
-        <v>7036615.18305849</v>
+        <v>7036053.983385305</v>
       </c>
       <c r="S62" t="n">
         <v>20</v>
@@ -7630,10 +7642,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111840164</v>
+        <v>111840173</v>
       </c>
       <c r="B63" t="n">
-        <v>96348</v>
+        <v>89419</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7642,42 +7654,38 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>220787</v>
+        <v>1204</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>611550.5735735258</v>
+        <v>612202.8558842771</v>
       </c>
       <c r="R63" t="n">
-        <v>7036580.982027167</v>
+        <v>7036078.4067488</v>
       </c>
       <c r="S63" t="n">
         <v>20</v>
@@ -7746,10 +7754,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111840177</v>
+        <v>111840103</v>
       </c>
       <c r="B64" t="n">
-        <v>77515</v>
+        <v>89369</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7758,25 +7766,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7786,10 +7794,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>611671.8001653572</v>
+        <v>611937.0536248725</v>
       </c>
       <c r="R64" t="n">
-        <v>7036615.675445669</v>
+        <v>7036431.019251303</v>
       </c>
       <c r="S64" t="n">
         <v>20</v>
@@ -7858,10 +7866,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111840170</v>
+        <v>111840174</v>
       </c>
       <c r="B65" t="n">
-        <v>96348</v>
+        <v>89419</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7870,42 +7878,38 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>220787</v>
+        <v>1204</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>611721.2521968643</v>
+        <v>612005.5308763357</v>
       </c>
       <c r="R65" t="n">
-        <v>7036599.489451895</v>
+        <v>7036320.094612861</v>
       </c>
       <c r="S65" t="n">
         <v>20</v>
@@ -7974,10 +7978,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111840181</v>
+        <v>111840157</v>
       </c>
       <c r="B66" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7986,25 +7990,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8086,10 +8090,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111840133</v>
+        <v>111840155</v>
       </c>
       <c r="B67" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8102,39 +8106,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>611900.6540649632</v>
+        <v>611724.3624407195</v>
       </c>
       <c r="R67" t="n">
-        <v>7036471.399798824</v>
+        <v>7036587.505142178</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -8203,10 +8202,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111840173</v>
+        <v>111840150</v>
       </c>
       <c r="B68" t="n">
-        <v>89419</v>
+        <v>78578</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8219,21 +8218,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8243,10 +8242,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>612202.8558842771</v>
+        <v>611550.6048254245</v>
       </c>
       <c r="R68" t="n">
-        <v>7036078.4067488</v>
+        <v>7036580.087332346</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -8315,10 +8314,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111840117</v>
+        <v>111840124</v>
       </c>
       <c r="B69" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8331,34 +8330,39 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>611725.3738043295</v>
+        <v>612162.5263506409</v>
       </c>
       <c r="R69" t="n">
-        <v>7036571.416293882</v>
+        <v>7036089.981436108</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -8427,10 +8431,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111840100</v>
+        <v>111840117</v>
       </c>
       <c r="B70" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8439,25 +8443,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8467,10 +8471,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>612126.00427822</v>
+        <v>611725.3738043295</v>
       </c>
       <c r="R70" t="n">
-        <v>7036197.553588478</v>
+        <v>7036571.416293882</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>
@@ -8539,10 +8543,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111840167</v>
+        <v>111840099</v>
       </c>
       <c r="B71" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8551,42 +8555,38 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>612162.5263506409</v>
+        <v>611935.4835508752</v>
       </c>
       <c r="R71" t="n">
-        <v>7036089.981436108</v>
+        <v>7036271.053399008</v>
       </c>
       <c r="S71" t="n">
         <v>20</v>
@@ -8655,7 +8655,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111840122</v>
+        <v>111840129</v>
       </c>
       <c r="B72" t="n">
         <v>56398</v>
@@ -8700,10 +8700,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>612218.6938216727</v>
+        <v>612009.0800721663</v>
       </c>
       <c r="R72" t="n">
-        <v>7036074.483427257</v>
+        <v>7036270.05001692</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -8772,10 +8772,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111840154</v>
+        <v>111840105</v>
       </c>
       <c r="B73" t="n">
-        <v>78578</v>
+        <v>89369</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8784,25 +8784,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8812,10 +8812,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>611999.9284227985</v>
+        <v>611887.4997693001</v>
       </c>
       <c r="R73" t="n">
-        <v>7036224.038725983</v>
+        <v>7036488.407450524</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>
@@ -8884,7 +8884,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111840158</v>
+        <v>111840151</v>
       </c>
       <c r="B74" t="n">
         <v>78578</v>
@@ -8924,10 +8924,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>611625.1043809571</v>
+        <v>611655.8999817995</v>
       </c>
       <c r="R74" t="n">
-        <v>7036617.178122533</v>
+        <v>7036557.341203817</v>
       </c>
       <c r="S74" t="n">
         <v>20</v>
@@ -8996,10 +8996,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111840099</v>
+        <v>111840163</v>
       </c>
       <c r="B75" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9008,38 +9008,42 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>611935.4835508752</v>
+        <v>612073.4874485112</v>
       </c>
       <c r="R75" t="n">
-        <v>7036271.053399008</v>
+        <v>7036236.921791457</v>
       </c>
       <c r="S75" t="n">
         <v>20</v>
@@ -9108,10 +9112,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111840120</v>
+        <v>111840100</v>
       </c>
       <c r="B76" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9120,43 +9124,38 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>611913.2339886408</v>
+        <v>612126.00427822</v>
       </c>
       <c r="R76" t="n">
-        <v>7036278.784565655</v>
+        <v>7036197.553588478</v>
       </c>
       <c r="S76" t="n">
         <v>20</v>
@@ -9225,10 +9224,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111840169</v>
+        <v>111840123</v>
       </c>
       <c r="B77" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9237,30 +9236,31 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>100</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -9269,10 +9269,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>611826.8177700657</v>
+        <v>612199.4368418896</v>
       </c>
       <c r="R77" t="n">
-        <v>7036530.624793339</v>
+        <v>7036086.350105605</v>
       </c>
       <c r="S77" t="n">
         <v>20</v>

--- a/artfynd/A 40639-2022.xlsx
+++ b/artfynd/A 40639-2022.xlsx
@@ -2281,10 +2281,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111840149</v>
+        <v>111840127</v>
       </c>
       <c r="B16" t="n">
-        <v>90854</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2297,34 +2297,39 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2079</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>612070.4118449257</v>
+        <v>612097.6396491884</v>
       </c>
       <c r="R16" t="n">
-        <v>7036183.955704447</v>
+        <v>7036226.122720091</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2393,10 +2398,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111840127</v>
+        <v>111840149</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>90854</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2409,39 +2414,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>2079</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>612097.6396491884</v>
+        <v>612070.4118449257</v>
       </c>
       <c r="R17" t="n">
-        <v>7036226.122720091</v>
+        <v>7036183.955704447</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111840157</v>
+        <v>111840155</v>
       </c>
       <c r="B66" t="n">
         <v>78578</v>
@@ -8018,10 +8018,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>611643.964991785</v>
+        <v>611724.3624407195</v>
       </c>
       <c r="R66" t="n">
-        <v>7036616.493765838</v>
+        <v>7036587.505142178</v>
       </c>
       <c r="S66" t="n">
         <v>20</v>
@@ -8090,7 +8090,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111840155</v>
+        <v>111840157</v>
       </c>
       <c r="B67" t="n">
         <v>78578</v>
@@ -8130,10 +8130,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>611724.3624407195</v>
+        <v>611643.964991785</v>
       </c>
       <c r="R67" t="n">
-        <v>7036587.505142178</v>
+        <v>7036616.493765838</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>

--- a/artfynd/A 40639-2022.xlsx
+++ b/artfynd/A 40639-2022.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111840125</v>
+        <v>111840151</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,39 +813,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>612150.1243816372</v>
+        <v>611655.8999817995</v>
       </c>
       <c r="R3" t="n">
-        <v>7036136.582292198</v>
+        <v>7036557.341203817</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -914,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111840141</v>
+        <v>111840131</v>
       </c>
       <c r="B4" t="n">
-        <v>78605</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,38 +921,43 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>611995.7935480368</v>
+        <v>611968.8017988449</v>
       </c>
       <c r="R4" t="n">
-        <v>7036214.038866865</v>
+        <v>7036395.402627021</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111840101</v>
+        <v>111840132</v>
       </c>
       <c r="B5" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,38 +1038,43 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>612073.4874485112</v>
+        <v>611730.0076862896</v>
       </c>
       <c r="R5" t="n">
-        <v>7036236.921791457</v>
+        <v>7036605.618362699</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1138,10 +1143,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111840135</v>
+        <v>111840102</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,43 +1155,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>611892.7620166774</v>
+        <v>611958.0414993305</v>
       </c>
       <c r="R6" t="n">
-        <v>7036376.61240829</v>
+        <v>7036382.483518991</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1255,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111840136</v>
+        <v>111840106</v>
       </c>
       <c r="B7" t="n">
-        <v>56543</v>
+        <v>89369</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,43 +1267,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103021</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>stationär</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>611872.9006968342</v>
+        <v>611685.1759468586</v>
       </c>
       <c r="R7" t="n">
-        <v>7036367.406045308</v>
+        <v>7036617.934765363</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1372,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111840104</v>
+        <v>111840176</v>
       </c>
       <c r="B8" t="n">
-        <v>89369</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1384,25 +1379,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1412,10 +1407,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>611931.9467388361</v>
+        <v>612157.958919349</v>
       </c>
       <c r="R8" t="n">
-        <v>7036448.75694545</v>
+        <v>7036053.983385305</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1484,10 +1479,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111840131</v>
+        <v>111840107</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1496,43 +1491,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>611968.8017988449</v>
+        <v>611649.8351994418</v>
       </c>
       <c r="R9" t="n">
-        <v>7036395.402627021</v>
+        <v>7036615.355325347</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1601,10 +1591,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111840182</v>
+        <v>111840134</v>
       </c>
       <c r="B10" t="n">
-        <v>89679</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1613,38 +1603,43 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6008693</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kritporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Resinoporia crassa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Audet</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>611987.1301913462</v>
+        <v>611775.6287810439</v>
       </c>
       <c r="R10" t="n">
-        <v>7036294.81288166</v>
+        <v>7036557.94632658</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1713,10 +1708,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111840139</v>
+        <v>111840153</v>
       </c>
       <c r="B11" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1725,25 +1720,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1753,10 +1748,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>611538.4945442909</v>
+        <v>611889.0449884314</v>
       </c>
       <c r="R11" t="n">
-        <v>7036580.1122336</v>
+        <v>7036303.469514119</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1825,10 +1820,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111840116</v>
+        <v>111840145</v>
       </c>
       <c r="B12" t="n">
-        <v>89405</v>
+        <v>56414</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1841,34 +1836,39 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>611789.2367900747</v>
+        <v>611966.0247136273</v>
       </c>
       <c r="R12" t="n">
-        <v>7036592.014885741</v>
+        <v>7036359.471176716</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111840162</v>
+        <v>111840161</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>40</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1981,10 +1981,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>611796.2630279514</v>
+        <v>611774.9902539523</v>
       </c>
       <c r="R13" t="n">
-        <v>7036596.291893803</v>
+        <v>7036601.817765385</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2053,10 +2053,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111840102</v>
+        <v>111840165</v>
       </c>
       <c r="B14" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2065,38 +2065,42 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>611958.0414993305</v>
+        <v>611625.6525432562</v>
       </c>
       <c r="R14" t="n">
-        <v>7036382.483518991</v>
+        <v>7036563.002264032</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2165,10 +2169,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111840166</v>
+        <v>111840150</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2177,42 +2181,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>611872.0517480521</v>
+        <v>611550.6048254245</v>
       </c>
       <c r="R15" t="n">
-        <v>7036366.032528495</v>
+        <v>7036580.087332346</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111840127</v>
+        <v>111840168</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2293,31 +2293,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2326,10 +2325,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>612097.6396491884</v>
+        <v>611958.0414993305</v>
       </c>
       <c r="R16" t="n">
-        <v>7036226.122720091</v>
+        <v>7036382.483518991</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2398,10 +2397,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111840149</v>
+        <v>111840144</v>
       </c>
       <c r="B17" t="n">
-        <v>90854</v>
+        <v>56414</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2414,34 +2413,39 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2079</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>612070.4118449257</v>
+        <v>611756.2283190354</v>
       </c>
       <c r="R17" t="n">
-        <v>7036183.955704447</v>
+        <v>7036522.778974289</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2510,10 +2514,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111840120</v>
+        <v>111840154</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2526,39 +2530,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>611913.2339886408</v>
+        <v>611999.9284227985</v>
       </c>
       <c r="R18" t="n">
-        <v>7036278.784565655</v>
+        <v>7036224.038725983</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2627,10 +2626,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111840158</v>
+        <v>111840175</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2643,21 +2642,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2667,10 +2666,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>611625.1043809571</v>
+        <v>612016.4676519124</v>
       </c>
       <c r="R19" t="n">
-        <v>7036617.178122533</v>
+        <v>7036264.037915429</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2739,10 +2738,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111840133</v>
+        <v>111840105</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2751,43 +2750,38 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>611900.6540649632</v>
+        <v>611887.4997693001</v>
       </c>
       <c r="R20" t="n">
-        <v>7036471.399798824</v>
+        <v>7036488.407450524</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2856,10 +2850,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111840171</v>
+        <v>111840182</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>89679</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2868,25 +2862,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>6008693</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kritporing</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Resinoporia crassa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Audet</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2896,10 +2890,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>611730.9818362541</v>
+        <v>611987.1301913462</v>
       </c>
       <c r="R21" t="n">
-        <v>7036603.412985859</v>
+        <v>7036294.81288166</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2968,10 +2962,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111840132</v>
+        <v>111840110</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>89745</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2980,43 +2974,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>2062</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>611730.0076862896</v>
+        <v>611896.7164174926</v>
       </c>
       <c r="R22" t="n">
-        <v>7036605.618362699</v>
+        <v>7036468.574357864</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -3085,10 +3074,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111840110</v>
+        <v>111840172</v>
       </c>
       <c r="B23" t="n">
-        <v>89745</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3101,34 +3090,38 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2062</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>611896.7164174926</v>
+        <v>611736.8774460263</v>
       </c>
       <c r="R23" t="n">
-        <v>7036468.574357864</v>
+        <v>7036614.368652546</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -3197,10 +3190,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111840140</v>
+        <v>111840167</v>
       </c>
       <c r="B24" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3209,38 +3202,42 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>611968.467425107</v>
+        <v>612162.5263506409</v>
       </c>
       <c r="R24" t="n">
-        <v>7036238.61380059</v>
+        <v>7036089.981436108</v>
       </c>
       <c r="S24" t="n">
         <v>20</v>
@@ -3309,10 +3306,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111840164</v>
+        <v>111840143</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>89351</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3321,42 +3318,38 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>112</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t>Pat.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>611550.5735735258</v>
+        <v>611935.9852041593</v>
       </c>
       <c r="R25" t="n">
-        <v>7036580.982027167</v>
+        <v>7036435.908902055</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3425,10 +3418,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111840181</v>
+        <v>111840173</v>
       </c>
       <c r="B26" t="n">
-        <v>78611</v>
+        <v>89419</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3437,25 +3430,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6463</v>
+        <v>1204</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3465,10 +3458,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>611643.964991785</v>
+        <v>612202.8558842771</v>
       </c>
       <c r="R26" t="n">
-        <v>7036616.493765838</v>
+        <v>7036078.4067488</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3537,10 +3530,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111840167</v>
+        <v>111840158</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3549,42 +3542,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>612162.5263506409</v>
+        <v>611625.1043809571</v>
       </c>
       <c r="R27" t="n">
-        <v>7036089.981436108</v>
+        <v>7036617.178122533</v>
       </c>
       <c r="S27" t="n">
         <v>20</v>
@@ -3653,10 +3642,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111840175</v>
+        <v>111840122</v>
       </c>
       <c r="B28" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3669,34 +3658,39 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>612016.4676519124</v>
+        <v>612218.6938216727</v>
       </c>
       <c r="R28" t="n">
-        <v>7036264.037915429</v>
+        <v>7036074.483427257</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3765,10 +3759,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111840115</v>
+        <v>111840121</v>
       </c>
       <c r="B29" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3781,34 +3775,39 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>611896.7164174926</v>
+        <v>612131.8014658812</v>
       </c>
       <c r="R29" t="n">
-        <v>7036468.574357864</v>
+        <v>7036083.52705478</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>
@@ -3994,10 +3993,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111840121</v>
+        <v>111840157</v>
       </c>
       <c r="B31" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4010,39 +4009,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>612131.8014658812</v>
+        <v>611643.964991785</v>
       </c>
       <c r="R31" t="n">
-        <v>7036083.52705478</v>
+        <v>7036616.493765838</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -4111,10 +4105,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111840119</v>
+        <v>111840163</v>
       </c>
       <c r="B32" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4123,38 +4117,42 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>611657.7574473261</v>
+        <v>612073.4874485112</v>
       </c>
       <c r="R32" t="n">
-        <v>7036619.663314155</v>
+        <v>7036236.921791457</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -4223,10 +4221,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111840168</v>
+        <v>111840130</v>
       </c>
       <c r="B33" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4235,30 +4233,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>10</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4267,10 +4266,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>611958.0414993305</v>
+        <v>611987.1615648521</v>
       </c>
       <c r="R33" t="n">
-        <v>7036382.483518991</v>
+        <v>7036293.918105817</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -4339,10 +4338,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111840146</v>
+        <v>111840178</v>
       </c>
       <c r="B34" t="n">
-        <v>56414</v>
+        <v>96265</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4351,43 +4350,38 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100049</v>
+        <v>219790</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>611935.9852041593</v>
+        <v>611660.8587535081</v>
       </c>
       <c r="R34" t="n">
-        <v>7036435.908902055</v>
+        <v>7036556.618785212</v>
       </c>
       <c r="S34" t="n">
         <v>20</v>
@@ -4456,10 +4450,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111840134</v>
+        <v>111840177</v>
       </c>
       <c r="B35" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4472,39 +4466,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>611775.6287810439</v>
+        <v>611671.8001653572</v>
       </c>
       <c r="R35" t="n">
-        <v>7036557.94632658</v>
+        <v>7036615.675445669</v>
       </c>
       <c r="S35" t="n">
         <v>20</v>
@@ -4573,10 +4562,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111840118</v>
+        <v>111840146</v>
       </c>
       <c r="B36" t="n">
-        <v>89405</v>
+        <v>56414</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4589,34 +4578,39 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>611685.1446571616</v>
+        <v>611935.9852041593</v>
       </c>
       <c r="R36" t="n">
-        <v>7036618.829449931</v>
+        <v>7036435.908902055</v>
       </c>
       <c r="S36" t="n">
         <v>20</v>
@@ -4685,10 +4679,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111840177</v>
+        <v>111840125</v>
       </c>
       <c r="B37" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4701,34 +4695,39 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>611671.8001653572</v>
+        <v>612150.1243816372</v>
       </c>
       <c r="R37" t="n">
-        <v>7036615.675445669</v>
+        <v>7036136.582292198</v>
       </c>
       <c r="S37" t="n">
         <v>20</v>
@@ -4797,7 +4796,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111840172</v>
+        <v>111840162</v>
       </c>
       <c r="B38" t="n">
         <v>96348</v>
@@ -4832,7 +4831,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>200</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -4841,10 +4840,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>611736.8774460263</v>
+        <v>611796.2630279514</v>
       </c>
       <c r="R38" t="n">
-        <v>7036614.368652546</v>
+        <v>7036596.291893803</v>
       </c>
       <c r="S38" t="n">
         <v>20</v>
@@ -4913,10 +4912,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111840170</v>
+        <v>111840104</v>
       </c>
       <c r="B39" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4925,42 +4924,38 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>611721.2521968643</v>
+        <v>611931.9467388361</v>
       </c>
       <c r="R39" t="n">
-        <v>7036599.489451895</v>
+        <v>7036448.75694545</v>
       </c>
       <c r="S39" t="n">
         <v>20</v>
@@ -5029,10 +5024,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111840156</v>
+        <v>111840126</v>
       </c>
       <c r="B40" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5045,34 +5040,39 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>611644.9077998699</v>
+        <v>612130.930864902</v>
       </c>
       <c r="R40" t="n">
-        <v>7036615.18305849</v>
+        <v>7036146.659491631</v>
       </c>
       <c r="S40" t="n">
         <v>20</v>
@@ -5141,10 +5141,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111840145</v>
+        <v>111840136</v>
       </c>
       <c r="B41" t="n">
-        <v>56414</v>
+        <v>56543</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5157,27 +5157,27 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>stationär</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>611966.0247136273</v>
+        <v>611872.9006968342</v>
       </c>
       <c r="R41" t="n">
-        <v>7036359.471176716</v>
+        <v>7036367.406045308</v>
       </c>
       <c r="S41" t="n">
         <v>20</v>
@@ -5258,10 +5258,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111840161</v>
+        <v>111840116</v>
       </c>
       <c r="B42" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5270,42 +5270,38 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>611774.9902539523</v>
+        <v>611789.2367900747</v>
       </c>
       <c r="R42" t="n">
-        <v>7036601.817765385</v>
+        <v>7036592.014885741</v>
       </c>
       <c r="S42" t="n">
         <v>20</v>
@@ -5374,10 +5370,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111840165</v>
+        <v>111840099</v>
       </c>
       <c r="B43" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5386,42 +5382,38 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>611625.6525432562</v>
+        <v>611935.4835508752</v>
       </c>
       <c r="R43" t="n">
-        <v>7036563.002264032</v>
+        <v>7036271.053399008</v>
       </c>
       <c r="S43" t="n">
         <v>20</v>
@@ -5490,10 +5482,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111840098</v>
+        <v>111840115</v>
       </c>
       <c r="B44" t="n">
-        <v>94134</v>
+        <v>89405</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5506,21 +5498,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>53</v>
+        <v>1202</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5530,10 +5522,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>612200.5371952844</v>
+        <v>611896.7164174926</v>
       </c>
       <c r="R44" t="n">
-        <v>7036080.565151189</v>
+        <v>7036468.574357864</v>
       </c>
       <c r="S44" t="n">
         <v>20</v>
@@ -5602,10 +5594,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111840122</v>
+        <v>111840103</v>
       </c>
       <c r="B45" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5614,43 +5606,38 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>612218.6938216727</v>
+        <v>611937.0536248725</v>
       </c>
       <c r="R45" t="n">
-        <v>7036074.483427257</v>
+        <v>7036431.019251303</v>
       </c>
       <c r="S45" t="n">
         <v>20</v>
@@ -5719,10 +5706,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111840152</v>
+        <v>111840174</v>
       </c>
       <c r="B46" t="n">
-        <v>78578</v>
+        <v>89419</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5735,21 +5722,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5759,10 +5746,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>611691.7206150193</v>
+        <v>612005.5308763357</v>
       </c>
       <c r="R46" t="n">
-        <v>7036559.041695474</v>
+        <v>7036320.094612861</v>
       </c>
       <c r="S46" t="n">
         <v>20</v>
@@ -5831,10 +5818,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111840142</v>
+        <v>111840101</v>
       </c>
       <c r="B47" t="n">
-        <v>78605</v>
+        <v>89369</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5847,21 +5834,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6462</v>
+        <v>5447</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5871,10 +5858,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>611625.1043809571</v>
+        <v>612073.4874485112</v>
       </c>
       <c r="R47" t="n">
-        <v>7036617.178122533</v>
+        <v>7036236.921791457</v>
       </c>
       <c r="S47" t="n">
         <v>20</v>
@@ -5943,10 +5930,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111840169</v>
+        <v>111840135</v>
       </c>
       <c r="B48" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5955,30 +5942,31 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>100</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -5987,10 +5975,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>611826.8177700657</v>
+        <v>611892.7620166774</v>
       </c>
       <c r="R48" t="n">
-        <v>7036530.624793339</v>
+        <v>7036376.61240829</v>
       </c>
       <c r="S48" t="n">
         <v>20</v>
@@ -6059,10 +6047,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111840113</v>
+        <v>111840139</v>
       </c>
       <c r="B49" t="n">
-        <v>89405</v>
+        <v>78605</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6071,25 +6059,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1202</v>
+        <v>6462</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6099,10 +6087,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>611968.6292715519</v>
+        <v>611538.4945442909</v>
       </c>
       <c r="R49" t="n">
-        <v>7036400.323734847</v>
+        <v>7036580.1122336</v>
       </c>
       <c r="S49" t="n">
         <v>20</v>
@@ -6171,10 +6159,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111840143</v>
+        <v>111840142</v>
       </c>
       <c r="B50" t="n">
-        <v>89351</v>
+        <v>78605</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6183,25 +6171,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>112</v>
+        <v>6462</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6211,10 +6199,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>611935.9852041593</v>
+        <v>611625.1043809571</v>
       </c>
       <c r="R50" t="n">
-        <v>7036435.908902055</v>
+        <v>7036617.178122533</v>
       </c>
       <c r="S50" t="n">
         <v>20</v>
@@ -6283,10 +6271,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111840106</v>
+        <v>111840098</v>
       </c>
       <c r="B51" t="n">
-        <v>89369</v>
+        <v>94134</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6295,25 +6283,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5447</v>
+        <v>53</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6323,10 +6311,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>611685.1759468586</v>
+        <v>612200.5371952844</v>
       </c>
       <c r="R51" t="n">
-        <v>7036617.934765363</v>
+        <v>7036080.565151189</v>
       </c>
       <c r="S51" t="n">
         <v>20</v>
@@ -6395,10 +6383,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111840114</v>
+        <v>111840140</v>
       </c>
       <c r="B52" t="n">
-        <v>89405</v>
+        <v>78605</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6407,25 +6395,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1202</v>
+        <v>6462</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6435,10 +6423,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>611931.1515982752</v>
+        <v>611968.467425107</v>
       </c>
       <c r="R52" t="n">
-        <v>7036433.051986331</v>
+        <v>7036238.61380059</v>
       </c>
       <c r="S52" t="n">
         <v>20</v>
@@ -6507,10 +6495,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111840107</v>
+        <v>111840111</v>
       </c>
       <c r="B53" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6519,25 +6507,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6547,10 +6535,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>611649.8351994418</v>
+        <v>611565.3246701241</v>
       </c>
       <c r="R53" t="n">
-        <v>7036615.355325347</v>
+        <v>7036582.393106925</v>
       </c>
       <c r="S53" t="n">
         <v>20</v>
@@ -6619,10 +6607,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111840111</v>
+        <v>111840100</v>
       </c>
       <c r="B54" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6631,25 +6619,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6659,10 +6647,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>611565.3246701241</v>
+        <v>612126.00427822</v>
       </c>
       <c r="R54" t="n">
-        <v>7036582.393106925</v>
+        <v>7036197.553588478</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6731,10 +6719,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111840112</v>
+        <v>111840124</v>
       </c>
       <c r="B55" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6747,34 +6735,39 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>611748.0554904841</v>
+        <v>612162.5263506409</v>
       </c>
       <c r="R55" t="n">
-        <v>7036525.628309194</v>
+        <v>7036089.981436108</v>
       </c>
       <c r="S55" t="n">
         <v>20</v>
@@ -6843,10 +6836,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111840126</v>
+        <v>111840166</v>
       </c>
       <c r="B56" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6855,31 +6848,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -6888,10 +6880,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>612130.930864902</v>
+        <v>611872.0517480521</v>
       </c>
       <c r="R56" t="n">
-        <v>7036146.659491631</v>
+        <v>7036366.032528495</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>
@@ -6960,10 +6952,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111840144</v>
+        <v>111840113</v>
       </c>
       <c r="B57" t="n">
-        <v>56414</v>
+        <v>89405</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6976,39 +6968,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>611756.2283190354</v>
+        <v>611968.6292715519</v>
       </c>
       <c r="R57" t="n">
-        <v>7036522.778974289</v>
+        <v>7036400.323734847</v>
       </c>
       <c r="S57" t="n">
         <v>20</v>
@@ -7077,10 +7064,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111840154</v>
+        <v>111840117</v>
       </c>
       <c r="B58" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7093,21 +7080,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7117,10 +7104,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>611999.9284227985</v>
+        <v>611725.3738043295</v>
       </c>
       <c r="R58" t="n">
-        <v>7036224.038725983</v>
+        <v>7036571.416293882</v>
       </c>
       <c r="S58" t="n">
         <v>20</v>
@@ -7189,10 +7176,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111840130</v>
+        <v>111840114</v>
       </c>
       <c r="B59" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7205,39 +7192,34 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P59" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>611987.1615648521</v>
+        <v>611931.1515982752</v>
       </c>
       <c r="R59" t="n">
-        <v>7036293.918105817</v>
+        <v>7036433.051986331</v>
       </c>
       <c r="S59" t="n">
         <v>20</v>
@@ -7306,10 +7288,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111840178</v>
+        <v>111840141</v>
       </c>
       <c r="B60" t="n">
-        <v>96265</v>
+        <v>78605</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7322,21 +7304,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>219790</v>
+        <v>6462</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7346,10 +7328,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>611660.8587535081</v>
+        <v>611995.7935480368</v>
       </c>
       <c r="R60" t="n">
-        <v>7036556.618785212</v>
+        <v>7036214.038866865</v>
       </c>
       <c r="S60" t="n">
         <v>20</v>
@@ -7418,10 +7400,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111840153</v>
+        <v>111840164</v>
       </c>
       <c r="B61" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7430,38 +7412,42 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>611889.0449884314</v>
+        <v>611550.5735735258</v>
       </c>
       <c r="R61" t="n">
-        <v>7036303.469514119</v>
+        <v>7036580.982027167</v>
       </c>
       <c r="S61" t="n">
         <v>20</v>
@@ -7530,10 +7516,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111840176</v>
+        <v>111840170</v>
       </c>
       <c r="B62" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7542,38 +7528,42 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>612157.958919349</v>
+        <v>611721.2521968643</v>
       </c>
       <c r="R62" t="n">
-        <v>7036053.983385305</v>
+        <v>7036599.489451895</v>
       </c>
       <c r="S62" t="n">
         <v>20</v>
@@ -7642,10 +7632,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111840173</v>
+        <v>111840155</v>
       </c>
       <c r="B63" t="n">
-        <v>89419</v>
+        <v>78578</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7658,21 +7648,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7682,10 +7672,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>612202.8558842771</v>
+        <v>611724.3624407195</v>
       </c>
       <c r="R63" t="n">
-        <v>7036078.4067488</v>
+        <v>7036587.505142178</v>
       </c>
       <c r="S63" t="n">
         <v>20</v>
@@ -7754,10 +7744,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111840103</v>
+        <v>111840156</v>
       </c>
       <c r="B64" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7766,25 +7756,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7794,10 +7784,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>611937.0536248725</v>
+        <v>611644.9077998699</v>
       </c>
       <c r="R64" t="n">
-        <v>7036431.019251303</v>
+        <v>7036615.18305849</v>
       </c>
       <c r="S64" t="n">
         <v>20</v>
@@ -7866,10 +7856,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111840174</v>
+        <v>111840169</v>
       </c>
       <c r="B65" t="n">
-        <v>89419</v>
+        <v>96348</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7878,38 +7868,42 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1204</v>
+        <v>220787</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>612005.5308763357</v>
+        <v>611826.8177700657</v>
       </c>
       <c r="R65" t="n">
-        <v>7036320.094612861</v>
+        <v>7036530.624793339</v>
       </c>
       <c r="S65" t="n">
         <v>20</v>
@@ -7978,10 +7972,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111840155</v>
+        <v>111840120</v>
       </c>
       <c r="B66" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7994,34 +7988,39 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>611724.3624407195</v>
+        <v>611913.2339886408</v>
       </c>
       <c r="R66" t="n">
-        <v>7036587.505142178</v>
+        <v>7036278.784565655</v>
       </c>
       <c r="S66" t="n">
         <v>20</v>
@@ -8090,10 +8089,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111840157</v>
+        <v>111840149</v>
       </c>
       <c r="B67" t="n">
-        <v>78578</v>
+        <v>90854</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8106,21 +8105,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6458</v>
+        <v>2079</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8130,10 +8129,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>611643.964991785</v>
+        <v>612070.4118449257</v>
       </c>
       <c r="R67" t="n">
-        <v>7036616.493765838</v>
+        <v>7036183.955704447</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -8202,10 +8201,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111840150</v>
+        <v>111840181</v>
       </c>
       <c r="B68" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8214,25 +8213,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8242,10 +8241,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>611550.6048254245</v>
+        <v>611643.964991785</v>
       </c>
       <c r="R68" t="n">
-        <v>7036580.087332346</v>
+        <v>7036616.493765838</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -8314,10 +8313,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111840124</v>
+        <v>111840152</v>
       </c>
       <c r="B69" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8330,39 +8329,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P69" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>612162.5263506409</v>
+        <v>611691.7206150193</v>
       </c>
       <c r="R69" t="n">
-        <v>7036089.981436108</v>
+        <v>7036559.041695474</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -8431,10 +8425,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111840117</v>
+        <v>111840133</v>
       </c>
       <c r="B70" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8447,34 +8441,39 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>611725.3738043295</v>
+        <v>611900.6540649632</v>
       </c>
       <c r="R70" t="n">
-        <v>7036571.416293882</v>
+        <v>7036471.399798824</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>
@@ -8543,10 +8542,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111840099</v>
+        <v>111840171</v>
       </c>
       <c r="B71" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8555,25 +8554,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8583,10 +8582,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>611935.4835508752</v>
+        <v>611730.9818362541</v>
       </c>
       <c r="R71" t="n">
-        <v>7036271.053399008</v>
+        <v>7036603.412985859</v>
       </c>
       <c r="S71" t="n">
         <v>20</v>
@@ -8655,10 +8654,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111840129</v>
+        <v>111840119</v>
       </c>
       <c r="B72" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8671,39 +8670,34 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P72" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>612009.0800721663</v>
+        <v>611657.7574473261</v>
       </c>
       <c r="R72" t="n">
-        <v>7036270.05001692</v>
+        <v>7036619.663314155</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -8772,10 +8766,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111840105</v>
+        <v>111840123</v>
       </c>
       <c r="B73" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8784,38 +8778,43 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>611887.4997693001</v>
+        <v>612199.4368418896</v>
       </c>
       <c r="R73" t="n">
-        <v>7036488.407450524</v>
+        <v>7036086.350105605</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>
@@ -8884,10 +8883,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111840151</v>
+        <v>111840127</v>
       </c>
       <c r="B74" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8900,34 +8899,39 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>611655.8999817995</v>
+        <v>612097.6396491884</v>
       </c>
       <c r="R74" t="n">
-        <v>7036557.341203817</v>
+        <v>7036226.122720091</v>
       </c>
       <c r="S74" t="n">
         <v>20</v>
@@ -8996,10 +9000,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111840163</v>
+        <v>111840112</v>
       </c>
       <c r="B75" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9008,42 +9012,38 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>612073.4874485112</v>
+        <v>611748.0554904841</v>
       </c>
       <c r="R75" t="n">
-        <v>7036236.921791457</v>
+        <v>7036525.628309194</v>
       </c>
       <c r="S75" t="n">
         <v>20</v>
@@ -9112,10 +9112,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111840100</v>
+        <v>111840129</v>
       </c>
       <c r="B76" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9124,38 +9124,43 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>612126.00427822</v>
+        <v>612009.0800721663</v>
       </c>
       <c r="R76" t="n">
-        <v>7036197.553588478</v>
+        <v>7036270.05001692</v>
       </c>
       <c r="S76" t="n">
         <v>20</v>
@@ -9224,10 +9229,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111840123</v>
+        <v>111840118</v>
       </c>
       <c r="B77" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9240,39 +9245,34 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P77" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>612199.4368418896</v>
+        <v>611685.1446571616</v>
       </c>
       <c r="R77" t="n">
-        <v>7036086.350105605</v>
+        <v>7036618.829449931</v>
       </c>
       <c r="S77" t="n">
         <v>20</v>

--- a/artfynd/A 40639-2022.xlsx
+++ b/artfynd/A 40639-2022.xlsx
@@ -6836,10 +6836,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111840166</v>
+        <v>111840155</v>
       </c>
       <c r="B56" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6848,42 +6848,38 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>611872.0517480521</v>
+        <v>611724.3624407195</v>
       </c>
       <c r="R56" t="n">
-        <v>7036366.032528495</v>
+        <v>7036587.505142178</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>
@@ -6952,10 +6948,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111840113</v>
+        <v>111840166</v>
       </c>
       <c r="B57" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6964,38 +6960,42 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>611968.6292715519</v>
+        <v>611872.0517480521</v>
       </c>
       <c r="R57" t="n">
-        <v>7036400.323734847</v>
+        <v>7036366.032528495</v>
       </c>
       <c r="S57" t="n">
         <v>20</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111840117</v>
+        <v>111840113</v>
       </c>
       <c r="B58" t="n">
         <v>89405</v>
@@ -7104,10 +7104,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>611725.3738043295</v>
+        <v>611968.6292715519</v>
       </c>
       <c r="R58" t="n">
-        <v>7036571.416293882</v>
+        <v>7036400.323734847</v>
       </c>
       <c r="S58" t="n">
         <v>20</v>
@@ -7176,7 +7176,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111840114</v>
+        <v>111840117</v>
       </c>
       <c r="B59" t="n">
         <v>89405</v>
@@ -7216,10 +7216,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>611931.1515982752</v>
+        <v>611725.3738043295</v>
       </c>
       <c r="R59" t="n">
-        <v>7036433.051986331</v>
+        <v>7036571.416293882</v>
       </c>
       <c r="S59" t="n">
         <v>20</v>
@@ -7288,10 +7288,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111840141</v>
+        <v>111840114</v>
       </c>
       <c r="B60" t="n">
-        <v>78605</v>
+        <v>89405</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7300,25 +7300,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6462</v>
+        <v>1202</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7328,10 +7328,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>611995.7935480368</v>
+        <v>611931.1515982752</v>
       </c>
       <c r="R60" t="n">
-        <v>7036214.038866865</v>
+        <v>7036433.051986331</v>
       </c>
       <c r="S60" t="n">
         <v>20</v>
@@ -7400,10 +7400,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111840164</v>
+        <v>111840141</v>
       </c>
       <c r="B61" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7412,42 +7412,38 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>611550.5735735258</v>
+        <v>611995.7935480368</v>
       </c>
       <c r="R61" t="n">
-        <v>7036580.982027167</v>
+        <v>7036214.038866865</v>
       </c>
       <c r="S61" t="n">
         <v>20</v>
@@ -7516,7 +7512,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111840170</v>
+        <v>111840164</v>
       </c>
       <c r="B62" t="n">
         <v>96348</v>
@@ -7551,7 +7547,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>50</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -7560,10 +7556,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>611721.2521968643</v>
+        <v>611550.5735735258</v>
       </c>
       <c r="R62" t="n">
-        <v>7036599.489451895</v>
+        <v>7036580.982027167</v>
       </c>
       <c r="S62" t="n">
         <v>20</v>
@@ -7632,10 +7628,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111840155</v>
+        <v>111840170</v>
       </c>
       <c r="B63" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7644,38 +7640,42 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>611724.3624407195</v>
+        <v>611721.2521968643</v>
       </c>
       <c r="R63" t="n">
-        <v>7036587.505142178</v>
+        <v>7036599.489451895</v>
       </c>
       <c r="S63" t="n">
         <v>20</v>

--- a/artfynd/A 40639-2022.xlsx
+++ b/artfynd/A 40639-2022.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111840151</v>
+        <v>111840140</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>611655.8999817995</v>
+        <v>611968</v>
       </c>
       <c r="R3" t="n">
-        <v>7036557.341203817</v>
+        <v>7036239</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -870,19 +870,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,7 +899,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111840131</v>
+        <v>111840126</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -954,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>611968.8017988449</v>
+        <v>612131</v>
       </c>
       <c r="R4" t="n">
-        <v>7036395.402627021</v>
+        <v>7036147</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -987,19 +977,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1026,7 +1006,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111840132</v>
+        <v>111840127</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1062,7 +1042,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>upprörd, varnande</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1071,10 +1051,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>611730.0076862896</v>
+        <v>612098</v>
       </c>
       <c r="R5" t="n">
-        <v>7036605.618362699</v>
+        <v>7036226</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1104,19 +1084,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1143,10 +1113,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111840102</v>
+        <v>111840181</v>
       </c>
       <c r="B6" t="n">
-        <v>89369</v>
+        <v>78611</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1159,21 +1129,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5447</v>
+        <v>6463</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1183,10 +1153,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>611958.0414993305</v>
+        <v>611644</v>
       </c>
       <c r="R6" t="n">
-        <v>7036382.483518991</v>
+        <v>7036616</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1216,19 +1186,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111840106</v>
+        <v>111840133</v>
       </c>
       <c r="B7" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,38 +1227,43 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>611685.1759468586</v>
+        <v>611901</v>
       </c>
       <c r="R7" t="n">
-        <v>7036617.934765363</v>
+        <v>7036471</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1328,19 +1293,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1367,10 +1322,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111840176</v>
+        <v>111840100</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>89369</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,25 +1334,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1407,10 +1362,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>612157.958919349</v>
+        <v>612126</v>
       </c>
       <c r="R8" t="n">
-        <v>7036053.983385305</v>
+        <v>7036198</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1440,19 +1395,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1479,10 +1424,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111840107</v>
+        <v>111840129</v>
       </c>
       <c r="B9" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1491,38 +1436,43 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>611649.8351994418</v>
+        <v>612009</v>
       </c>
       <c r="R9" t="n">
-        <v>7036615.355325347</v>
+        <v>7036270</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1552,19 +1502,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1591,10 +1531,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111840134</v>
+        <v>111840175</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1607,39 +1547,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>611775.6287810439</v>
+        <v>612016</v>
       </c>
       <c r="R10" t="n">
-        <v>7036557.94632658</v>
+        <v>7036264</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1669,19 +1604,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1708,10 +1633,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111840153</v>
+        <v>111840164</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1720,38 +1645,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>611889.0449884314</v>
+        <v>611551</v>
       </c>
       <c r="R11" t="n">
-        <v>7036303.469514119</v>
+        <v>7036581</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1781,19 +1710,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1820,10 +1739,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111840145</v>
+        <v>111840143</v>
       </c>
       <c r="B12" t="n">
-        <v>56414</v>
+        <v>89351</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1836,39 +1755,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100049</v>
+        <v>112</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>611966.0247136273</v>
+        <v>611936</v>
       </c>
       <c r="R12" t="n">
-        <v>7036359.471176716</v>
+        <v>7036436</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1898,19 +1812,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1937,10 +1841,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111840161</v>
+        <v>111840122</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1949,30 +1853,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>40</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1981,10 +1886,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>611774.9902539523</v>
+        <v>612219</v>
       </c>
       <c r="R13" t="n">
-        <v>7036601.817765385</v>
+        <v>7036074</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2014,19 +1919,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2053,10 +1948,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111840165</v>
+        <v>111840106</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2065,42 +1960,38 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>611625.6525432562</v>
+        <v>611685</v>
       </c>
       <c r="R14" t="n">
-        <v>7036563.002264032</v>
+        <v>7036618</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2130,19 +2021,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2169,10 +2050,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111840150</v>
+        <v>111840141</v>
       </c>
       <c r="B15" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2181,25 +2062,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2209,10 +2090,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>611550.6048254245</v>
+        <v>611996</v>
       </c>
       <c r="R15" t="n">
-        <v>7036580.087332346</v>
+        <v>7036214</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2242,19 +2123,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2281,10 +2152,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111840168</v>
+        <v>111840177</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2293,42 +2164,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>611958.0414993305</v>
+        <v>611672</v>
       </c>
       <c r="R16" t="n">
-        <v>7036382.483518991</v>
+        <v>7036616</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2358,19 +2225,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2397,10 +2254,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111840144</v>
+        <v>111840149</v>
       </c>
       <c r="B17" t="n">
-        <v>56414</v>
+        <v>90854</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2413,39 +2270,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>2079</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>611756.2283190354</v>
+        <v>612070</v>
       </c>
       <c r="R17" t="n">
-        <v>7036522.778974289</v>
+        <v>7036184</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2475,19 +2327,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2514,7 +2356,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111840154</v>
+        <v>111840155</v>
       </c>
       <c r="B18" t="n">
         <v>78578</v>
@@ -2554,10 +2396,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>611999.9284227985</v>
+        <v>611724</v>
       </c>
       <c r="R18" t="n">
-        <v>7036224.038725983</v>
+        <v>7036588</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2587,19 +2429,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2626,10 +2458,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111840175</v>
+        <v>111840132</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2642,34 +2474,39 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>612016.4676519124</v>
+        <v>611730</v>
       </c>
       <c r="R19" t="n">
-        <v>7036264.037915429</v>
+        <v>7036606</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2699,19 +2536,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2738,10 +2565,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111840105</v>
+        <v>111840158</v>
       </c>
       <c r="B20" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2750,25 +2577,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2778,10 +2605,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>611887.4997693001</v>
+        <v>611625</v>
       </c>
       <c r="R20" t="n">
-        <v>7036488.407450524</v>
+        <v>7036617</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2811,19 +2638,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2850,10 +2667,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111840182</v>
+        <v>111840176</v>
       </c>
       <c r="B21" t="n">
-        <v>89679</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2862,25 +2679,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6008693</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kritporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Resinoporia crassa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Audet</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2890,10 +2707,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>611987.1301913462</v>
+        <v>612158</v>
       </c>
       <c r="R21" t="n">
-        <v>7036294.81288166</v>
+        <v>7036054</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2923,19 +2740,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2962,10 +2769,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111840110</v>
+        <v>111840098</v>
       </c>
       <c r="B22" t="n">
-        <v>89745</v>
+        <v>94134</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2974,25 +2781,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2062</v>
+        <v>53</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3002,10 +2809,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>611896.7164174926</v>
+        <v>612201</v>
       </c>
       <c r="R22" t="n">
-        <v>7036468.574357864</v>
+        <v>7036081</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -3035,19 +2842,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3074,10 +2871,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111840172</v>
+        <v>111840120</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3086,30 +2883,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>20</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -3118,10 +2916,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>611736.8774460263</v>
+        <v>611913</v>
       </c>
       <c r="R23" t="n">
-        <v>7036614.368652546</v>
+        <v>7036279</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -3151,19 +2949,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3190,10 +2978,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111840167</v>
+        <v>111840174</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>89419</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3202,42 +2990,38 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>1204</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>612162.5263506409</v>
+        <v>612006</v>
       </c>
       <c r="R24" t="n">
-        <v>7036089.981436108</v>
+        <v>7036320</v>
       </c>
       <c r="S24" t="n">
         <v>20</v>
@@ -3267,19 +3051,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3306,10 +3080,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111840143</v>
+        <v>111840128</v>
       </c>
       <c r="B25" t="n">
-        <v>89351</v>
+        <v>56398</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3322,34 +3096,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>112</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>611935.9852041593</v>
+        <v>612051</v>
       </c>
       <c r="R25" t="n">
-        <v>7036435.908902055</v>
+        <v>7036237</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3379,19 +3158,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3418,10 +3187,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111840173</v>
+        <v>111840166</v>
       </c>
       <c r="B26" t="n">
-        <v>89419</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3430,38 +3199,42 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1204</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>612202.8558842771</v>
+        <v>611872</v>
       </c>
       <c r="R26" t="n">
-        <v>7036078.4067488</v>
+        <v>7036366</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3491,19 +3264,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3530,10 +3293,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111840158</v>
+        <v>111840171</v>
       </c>
       <c r="B27" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3542,25 +3305,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3570,10 +3333,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>611625.1043809571</v>
+        <v>611731</v>
       </c>
       <c r="R27" t="n">
-        <v>7036617.178122533</v>
+        <v>7036603</v>
       </c>
       <c r="S27" t="n">
         <v>20</v>
@@ -3603,19 +3366,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3642,10 +3395,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111840122</v>
+        <v>111840150</v>
       </c>
       <c r="B28" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3658,39 +3411,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>612218.6938216727</v>
+        <v>611551</v>
       </c>
       <c r="R28" t="n">
-        <v>7036074.483427257</v>
+        <v>7036580</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3720,19 +3468,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3759,10 +3497,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111840121</v>
+        <v>111840146</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3775,16 +3513,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3795,7 +3533,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3804,10 +3542,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>612131.8014658812</v>
+        <v>611936</v>
       </c>
       <c r="R29" t="n">
-        <v>7036083.52705478</v>
+        <v>7036436</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>
@@ -3837,19 +3575,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3876,10 +3604,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111840128</v>
+        <v>111840157</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3892,39 +3620,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>612050.5924099417</v>
+        <v>611644</v>
       </c>
       <c r="R30" t="n">
-        <v>7036237.462344669</v>
+        <v>7036616</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -3954,19 +3677,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3993,7 +3706,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111840157</v>
+        <v>111840156</v>
       </c>
       <c r="B31" t="n">
         <v>78578</v>
@@ -4033,10 +3746,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>611643.964991785</v>
+        <v>611645</v>
       </c>
       <c r="R31" t="n">
-        <v>7036616.493765838</v>
+        <v>7036615</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -4066,19 +3779,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4105,10 +3808,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111840163</v>
+        <v>111840124</v>
       </c>
       <c r="B32" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4117,30 +3820,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>15</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4149,10 +3853,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>612073.4874485112</v>
+        <v>612163</v>
       </c>
       <c r="R32" t="n">
-        <v>7036236.921791457</v>
+        <v>7036090</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -4182,19 +3886,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4221,10 +3915,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111840130</v>
+        <v>111840116</v>
       </c>
       <c r="B33" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4237,39 +3931,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>611987.1615648521</v>
+        <v>611789</v>
       </c>
       <c r="R33" t="n">
-        <v>7036293.918105817</v>
+        <v>7036592</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -4299,19 +3988,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4338,10 +4017,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111840178</v>
+        <v>111840119</v>
       </c>
       <c r="B34" t="n">
-        <v>96265</v>
+        <v>89405</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4350,25 +4029,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>219790</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4378,10 +4057,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>611660.8587535081</v>
+        <v>611658</v>
       </c>
       <c r="R34" t="n">
-        <v>7036556.618785212</v>
+        <v>7036620</v>
       </c>
       <c r="S34" t="n">
         <v>20</v>
@@ -4411,19 +4090,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4450,10 +4119,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111840177</v>
+        <v>111840168</v>
       </c>
       <c r="B35" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4462,38 +4131,42 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>611671.8001653572</v>
+        <v>611958</v>
       </c>
       <c r="R35" t="n">
-        <v>7036615.675445669</v>
+        <v>7036382</v>
       </c>
       <c r="S35" t="n">
         <v>20</v>
@@ -4523,19 +4196,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4562,10 +4225,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111840146</v>
+        <v>111840125</v>
       </c>
       <c r="B36" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4578,16 +4241,16 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4598,7 +4261,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4607,10 +4270,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>611935.9852041593</v>
+        <v>612150</v>
       </c>
       <c r="R36" t="n">
-        <v>7036435.908902055</v>
+        <v>7036137</v>
       </c>
       <c r="S36" t="n">
         <v>20</v>
@@ -4640,19 +4303,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4679,10 +4332,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111840125</v>
+        <v>111840136</v>
       </c>
       <c r="B37" t="n">
-        <v>56398</v>
+        <v>56543</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4695,27 +4348,27 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>stationär</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -4724,10 +4377,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>612150.1243816372</v>
+        <v>611873</v>
       </c>
       <c r="R37" t="n">
-        <v>7036136.582292198</v>
+        <v>7036367</v>
       </c>
       <c r="S37" t="n">
         <v>20</v>
@@ -4757,19 +4410,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4796,10 +4439,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111840162</v>
+        <v>111840105</v>
       </c>
       <c r="B38" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4808,42 +4451,38 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>611796.2630279514</v>
+        <v>611887</v>
       </c>
       <c r="R38" t="n">
-        <v>7036596.291893803</v>
+        <v>7036488</v>
       </c>
       <c r="S38" t="n">
         <v>20</v>
@@ -4873,19 +4512,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4912,10 +4541,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111840104</v>
+        <v>111840117</v>
       </c>
       <c r="B39" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4924,25 +4553,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4952,10 +4581,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>611931.9467388361</v>
+        <v>611725</v>
       </c>
       <c r="R39" t="n">
-        <v>7036448.75694545</v>
+        <v>7036571</v>
       </c>
       <c r="S39" t="n">
         <v>20</v>
@@ -4985,19 +4614,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5024,7 +4643,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111840126</v>
+        <v>111840135</v>
       </c>
       <c r="B40" t="n">
         <v>56398</v>
@@ -5060,7 +4679,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5069,10 +4688,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>612130.930864902</v>
+        <v>611893</v>
       </c>
       <c r="R40" t="n">
-        <v>7036146.659491631</v>
+        <v>7036377</v>
       </c>
       <c r="S40" t="n">
         <v>20</v>
@@ -5102,19 +4721,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5141,10 +4750,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111840136</v>
+        <v>111840099</v>
       </c>
       <c r="B41" t="n">
-        <v>56543</v>
+        <v>89369</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5153,43 +4762,38 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>103021</v>
+        <v>5447</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>stationär</t>
-        </is>
-      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>611872.9006968342</v>
+        <v>611935</v>
       </c>
       <c r="R41" t="n">
-        <v>7036367.406045308</v>
+        <v>7036271</v>
       </c>
       <c r="S41" t="n">
         <v>20</v>
@@ -5219,19 +4823,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5258,10 +4852,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111840116</v>
+        <v>111840162</v>
       </c>
       <c r="B42" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5270,38 +4864,42 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>611789.2367900747</v>
+        <v>611796</v>
       </c>
       <c r="R42" t="n">
-        <v>7036592.014885741</v>
+        <v>7036596</v>
       </c>
       <c r="S42" t="n">
         <v>20</v>
@@ -5331,19 +4929,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5370,10 +4958,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111840099</v>
+        <v>111840131</v>
       </c>
       <c r="B43" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5382,38 +4970,43 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>611935.4835508752</v>
+        <v>611969</v>
       </c>
       <c r="R43" t="n">
-        <v>7036271.053399008</v>
+        <v>7036395</v>
       </c>
       <c r="S43" t="n">
         <v>20</v>
@@ -5443,19 +5036,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5482,10 +5065,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111840115</v>
+        <v>111840163</v>
       </c>
       <c r="B44" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5494,38 +5077,42 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>611896.7164174926</v>
+        <v>612073</v>
       </c>
       <c r="R44" t="n">
-        <v>7036468.574357864</v>
+        <v>7036237</v>
       </c>
       <c r="S44" t="n">
         <v>20</v>
@@ -5555,19 +5142,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5594,10 +5171,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111840103</v>
+        <v>111840153</v>
       </c>
       <c r="B45" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5606,25 +5183,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5634,10 +5211,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>611937.0536248725</v>
+        <v>611889</v>
       </c>
       <c r="R45" t="n">
-        <v>7036431.019251303</v>
+        <v>7036303</v>
       </c>
       <c r="S45" t="n">
         <v>20</v>
@@ -5667,19 +5244,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5706,10 +5273,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111840174</v>
+        <v>111840151</v>
       </c>
       <c r="B46" t="n">
-        <v>89419</v>
+        <v>78578</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5722,21 +5289,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5746,10 +5313,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>612005.5308763357</v>
+        <v>611656</v>
       </c>
       <c r="R46" t="n">
-        <v>7036320.094612861</v>
+        <v>7036557</v>
       </c>
       <c r="S46" t="n">
         <v>20</v>
@@ -5779,19 +5346,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5818,10 +5375,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111840101</v>
+        <v>111840112</v>
       </c>
       <c r="B47" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5830,25 +5387,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5858,10 +5415,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>612073.4874485112</v>
+        <v>611748</v>
       </c>
       <c r="R47" t="n">
-        <v>7036236.921791457</v>
+        <v>7036526</v>
       </c>
       <c r="S47" t="n">
         <v>20</v>
@@ -5891,19 +5448,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5930,10 +5477,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111840135</v>
+        <v>111840107</v>
       </c>
       <c r="B48" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5942,43 +5489,38 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P48" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>611892.7620166774</v>
+        <v>611650</v>
       </c>
       <c r="R48" t="n">
-        <v>7036376.61240829</v>
+        <v>7036615</v>
       </c>
       <c r="S48" t="n">
         <v>20</v>
@@ -6008,19 +5550,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6047,7 +5579,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111840139</v>
+        <v>111840142</v>
       </c>
       <c r="B49" t="n">
         <v>78605</v>
@@ -6087,10 +5619,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>611538.4945442909</v>
+        <v>611625</v>
       </c>
       <c r="R49" t="n">
-        <v>7036580.1122336</v>
+        <v>7036617</v>
       </c>
       <c r="S49" t="n">
         <v>20</v>
@@ -6120,19 +5652,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6159,10 +5681,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111840142</v>
+        <v>111840154</v>
       </c>
       <c r="B50" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6171,25 +5693,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6199,10 +5721,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>611625.1043809571</v>
+        <v>612000</v>
       </c>
       <c r="R50" t="n">
-        <v>7036617.178122533</v>
+        <v>7036224</v>
       </c>
       <c r="S50" t="n">
         <v>20</v>
@@ -6232,19 +5754,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA50" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6271,10 +5783,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111840098</v>
+        <v>111840121</v>
       </c>
       <c r="B51" t="n">
-        <v>94134</v>
+        <v>56398</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6287,34 +5799,39 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>53</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>612200.5371952844</v>
+        <v>612132</v>
       </c>
       <c r="R51" t="n">
-        <v>7036080.565151189</v>
+        <v>7036084</v>
       </c>
       <c r="S51" t="n">
         <v>20</v>
@@ -6344,19 +5861,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA51" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6383,10 +5890,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111840140</v>
+        <v>111840152</v>
       </c>
       <c r="B52" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6395,25 +5902,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6423,10 +5930,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>611968.467425107</v>
+        <v>611692</v>
       </c>
       <c r="R52" t="n">
-        <v>7036238.61380059</v>
+        <v>7036559</v>
       </c>
       <c r="S52" t="n">
         <v>20</v>
@@ -6456,19 +5963,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA52" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6495,10 +5992,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111840111</v>
+        <v>111840110</v>
       </c>
       <c r="B53" t="n">
-        <v>89405</v>
+        <v>89745</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6507,25 +6004,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1202</v>
+        <v>2062</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6535,10 +6032,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>611565.3246701241</v>
+        <v>611897</v>
       </c>
       <c r="R53" t="n">
-        <v>7036582.393106925</v>
+        <v>7036469</v>
       </c>
       <c r="S53" t="n">
         <v>20</v>
@@ -6568,19 +6065,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6607,10 +6094,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111840100</v>
+        <v>111840118</v>
       </c>
       <c r="B54" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6619,25 +6106,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6647,10 +6134,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>612126.00427822</v>
+        <v>611685</v>
       </c>
       <c r="R54" t="n">
-        <v>7036197.553588478</v>
+        <v>7036619</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6680,19 +6167,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA54" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6719,10 +6196,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111840124</v>
+        <v>111840167</v>
       </c>
       <c r="B55" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6731,31 +6208,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -6764,10 +6240,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>612162.5263506409</v>
+        <v>612163</v>
       </c>
       <c r="R55" t="n">
-        <v>7036089.981436108</v>
+        <v>7036090</v>
       </c>
       <c r="S55" t="n">
         <v>20</v>
@@ -6797,19 +6273,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA55" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6836,10 +6302,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111840155</v>
+        <v>111840178</v>
       </c>
       <c r="B56" t="n">
-        <v>78578</v>
+        <v>96265</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6848,25 +6314,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6458</v>
+        <v>219790</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6876,10 +6342,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>611724.3624407195</v>
+        <v>611661</v>
       </c>
       <c r="R56" t="n">
-        <v>7036587.505142178</v>
+        <v>7036557</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>
@@ -6909,19 +6375,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6948,10 +6404,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111840166</v>
+        <v>111840101</v>
       </c>
       <c r="B57" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6960,42 +6416,38 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>611872.0517480521</v>
+        <v>612073</v>
       </c>
       <c r="R57" t="n">
-        <v>7036366.032528495</v>
+        <v>7036237</v>
       </c>
       <c r="S57" t="n">
         <v>20</v>
@@ -7025,19 +6477,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7064,10 +6506,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111840113</v>
+        <v>111840169</v>
       </c>
       <c r="B58" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7076,38 +6518,42 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>611968.6292715519</v>
+        <v>611827</v>
       </c>
       <c r="R58" t="n">
-        <v>7036400.323734847</v>
+        <v>7036531</v>
       </c>
       <c r="S58" t="n">
         <v>20</v>
@@ -7137,19 +6583,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7176,7 +6612,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111840117</v>
+        <v>111840114</v>
       </c>
       <c r="B59" t="n">
         <v>89405</v>
@@ -7216,10 +6652,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>611725.3738043295</v>
+        <v>611931</v>
       </c>
       <c r="R59" t="n">
-        <v>7036571.416293882</v>
+        <v>7036433</v>
       </c>
       <c r="S59" t="n">
         <v>20</v>
@@ -7249,19 +6685,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA59" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7288,7 +6714,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111840114</v>
+        <v>111840115</v>
       </c>
       <c r="B60" t="n">
         <v>89405</v>
@@ -7328,10 +6754,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>611931.1515982752</v>
+        <v>611897</v>
       </c>
       <c r="R60" t="n">
-        <v>7036433.051986331</v>
+        <v>7036469</v>
       </c>
       <c r="S60" t="n">
         <v>20</v>
@@ -7361,19 +6787,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7400,10 +6816,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111840141</v>
+        <v>111840145</v>
       </c>
       <c r="B61" t="n">
-        <v>78605</v>
+        <v>56414</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7412,38 +6828,43 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6462</v>
+        <v>100049</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>611995.7935480368</v>
+        <v>611966</v>
       </c>
       <c r="R61" t="n">
-        <v>7036214.038866865</v>
+        <v>7036359</v>
       </c>
       <c r="S61" t="n">
         <v>20</v>
@@ -7473,19 +6894,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA61" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7512,7 +6923,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111840164</v>
+        <v>111840170</v>
       </c>
       <c r="B62" t="n">
         <v>96348</v>
@@ -7547,7 +6958,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>20</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -7556,10 +6967,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>611550.5735735258</v>
+        <v>611721</v>
       </c>
       <c r="R62" t="n">
-        <v>7036580.982027167</v>
+        <v>7036599</v>
       </c>
       <c r="S62" t="n">
         <v>20</v>
@@ -7589,19 +7000,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA62" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7628,10 +7029,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111840170</v>
+        <v>111840134</v>
       </c>
       <c r="B63" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7640,30 +7041,31 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>20</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -7672,10 +7074,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>611721.2521968643</v>
+        <v>611776</v>
       </c>
       <c r="R63" t="n">
-        <v>7036599.489451895</v>
+        <v>7036558</v>
       </c>
       <c r="S63" t="n">
         <v>20</v>
@@ -7705,19 +7107,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA63" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7744,10 +7136,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111840156</v>
+        <v>111840123</v>
       </c>
       <c r="B64" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7760,34 +7152,39 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>611644.9077998699</v>
+        <v>612199</v>
       </c>
       <c r="R64" t="n">
-        <v>7036615.18305849</v>
+        <v>7036086</v>
       </c>
       <c r="S64" t="n">
         <v>20</v>
@@ -7817,19 +7214,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA64" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7856,10 +7243,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111840169</v>
+        <v>111840104</v>
       </c>
       <c r="B65" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7868,42 +7255,38 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>611826.8177700657</v>
+        <v>611932</v>
       </c>
       <c r="R65" t="n">
-        <v>7036530.624793339</v>
+        <v>7036449</v>
       </c>
       <c r="S65" t="n">
         <v>20</v>
@@ -7933,19 +7316,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA65" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7972,10 +7345,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111840120</v>
+        <v>111840103</v>
       </c>
       <c r="B66" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7984,43 +7357,38 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P66" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>611913.2339886408</v>
+        <v>611937</v>
       </c>
       <c r="R66" t="n">
-        <v>7036278.784565655</v>
+        <v>7036431</v>
       </c>
       <c r="S66" t="n">
         <v>20</v>
@@ -8050,19 +7418,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA66" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8089,10 +7447,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111840149</v>
+        <v>111840144</v>
       </c>
       <c r="B67" t="n">
-        <v>90854</v>
+        <v>56414</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8105,34 +7463,39 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2079</v>
+        <v>100049</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>612070.4118449257</v>
+        <v>611756</v>
       </c>
       <c r="R67" t="n">
-        <v>7036183.955704447</v>
+        <v>7036523</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -8162,19 +7525,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA67" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8201,10 +7554,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111840181</v>
+        <v>111840182</v>
       </c>
       <c r="B68" t="n">
-        <v>78611</v>
+        <v>89679</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8213,25 +7566,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6463</v>
+        <v>6008693</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Kritporing</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Resinoporia crassa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Audet</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8241,10 +7594,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>611643.964991785</v>
+        <v>611987</v>
       </c>
       <c r="R68" t="n">
-        <v>7036616.493765838</v>
+        <v>7036295</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -8274,19 +7627,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA68" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8313,10 +7656,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111840152</v>
+        <v>111840139</v>
       </c>
       <c r="B69" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8325,25 +7668,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8353,10 +7696,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>611691.7206150193</v>
+        <v>611538</v>
       </c>
       <c r="R69" t="n">
-        <v>7036559.041695474</v>
+        <v>7036580</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -8386,19 +7729,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA69" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8425,10 +7758,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111840133</v>
+        <v>111840113</v>
       </c>
       <c r="B70" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8441,39 +7774,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P70" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>611900.6540649632</v>
+        <v>611969</v>
       </c>
       <c r="R70" t="n">
-        <v>7036471.399798824</v>
+        <v>7036400</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>
@@ -8503,19 +7831,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA70" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8542,7 +7860,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111840171</v>
+        <v>111840172</v>
       </c>
       <c r="B71" t="n">
         <v>96348</v>
@@ -8575,17 +7893,21 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>611730.9818362541</v>
+        <v>611737</v>
       </c>
       <c r="R71" t="n">
-        <v>7036603.412985859</v>
+        <v>7036614</v>
       </c>
       <c r="S71" t="n">
         <v>20</v>
@@ -8615,19 +7937,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA71" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8654,10 +7966,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111840119</v>
+        <v>111840102</v>
       </c>
       <c r="B72" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8666,25 +7978,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8694,10 +8006,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>611657.7574473261</v>
+        <v>611958</v>
       </c>
       <c r="R72" t="n">
-        <v>7036619.663314155</v>
+        <v>7036382</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -8727,19 +8039,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA72" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB72" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8766,10 +8068,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111840123</v>
+        <v>111840111</v>
       </c>
       <c r="B73" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8782,39 +8084,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>612199.4368418896</v>
+        <v>611565</v>
       </c>
       <c r="R73" t="n">
-        <v>7036086.350105605</v>
+        <v>7036582</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>
@@ -8844,19 +8141,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA73" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB73" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8883,10 +8170,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111840127</v>
+        <v>111840173</v>
       </c>
       <c r="B74" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8899,39 +8186,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>612097.6396491884</v>
+        <v>612203</v>
       </c>
       <c r="R74" t="n">
-        <v>7036226.122720091</v>
+        <v>7036078</v>
       </c>
       <c r="S74" t="n">
         <v>20</v>
@@ -8961,19 +8243,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA74" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB74" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9000,10 +8272,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111840112</v>
+        <v>111840161</v>
       </c>
       <c r="B75" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9012,38 +8284,42 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>611748.0554904841</v>
+        <v>611775</v>
       </c>
       <c r="R75" t="n">
-        <v>7036525.628309194</v>
+        <v>7036602</v>
       </c>
       <c r="S75" t="n">
         <v>20</v>
@@ -9073,19 +8349,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA75" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB75" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9112,7 +8378,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111840129</v>
+        <v>111840130</v>
       </c>
       <c r="B76" t="n">
         <v>56398</v>
@@ -9157,10 +8423,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>612009.0800721663</v>
+        <v>611987</v>
       </c>
       <c r="R76" t="n">
-        <v>7036270.05001692</v>
+        <v>7036294</v>
       </c>
       <c r="S76" t="n">
         <v>20</v>
@@ -9190,19 +8456,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA76" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB76" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9229,10 +8485,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111840118</v>
+        <v>111840165</v>
       </c>
       <c r="B77" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9241,38 +8497,42 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>611685.1446571616</v>
+        <v>611626</v>
       </c>
       <c r="R77" t="n">
-        <v>7036618.829449931</v>
+        <v>7036563</v>
       </c>
       <c r="S77" t="n">
         <v>20</v>
@@ -9302,19 +8562,9 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA77" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="AB77" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD77" t="b">

--- a/artfynd/A 40639-2022.xlsx
+++ b/artfynd/A 40639-2022.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111840140</v>
+        <v>111840146</v>
       </c>
       <c r="B3" t="n">
-        <v>78605</v>
+        <v>56414</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,38 +809,43 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6462</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>611968</v>
+        <v>611936</v>
       </c>
       <c r="R3" t="n">
-        <v>7036239</v>
+        <v>7036436</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -899,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111840126</v>
+        <v>111840140</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>78605</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -911,43 +916,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>612131</v>
+        <v>611968</v>
       </c>
       <c r="R4" t="n">
-        <v>7036147</v>
+        <v>7036239</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1006,10 +1006,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111840127</v>
+        <v>111840152</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1022,39 +1022,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>612098</v>
+        <v>611692</v>
       </c>
       <c r="R5" t="n">
-        <v>7036226</v>
+        <v>7036559</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1113,10 +1108,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111840181</v>
+        <v>111840163</v>
       </c>
       <c r="B6" t="n">
-        <v>78611</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1125,38 +1120,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>611644</v>
+        <v>612073</v>
       </c>
       <c r="R6" t="n">
-        <v>7036616</v>
+        <v>7036237</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1215,10 +1214,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111840133</v>
+        <v>111840171</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1227,43 +1226,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>611901</v>
+        <v>611731</v>
       </c>
       <c r="R7" t="n">
-        <v>7036471</v>
+        <v>7036603</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1322,10 +1316,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111840100</v>
+        <v>111840123</v>
       </c>
       <c r="B8" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1334,38 +1328,43 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>612126</v>
+        <v>612199</v>
       </c>
       <c r="R8" t="n">
-        <v>7036198</v>
+        <v>7036086</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1424,10 +1423,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111840129</v>
+        <v>111840168</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1436,31 +1435,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1469,10 +1467,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>612009</v>
+        <v>611958</v>
       </c>
       <c r="R9" t="n">
-        <v>7036270</v>
+        <v>7036382</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1531,10 +1529,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111840175</v>
+        <v>111840161</v>
       </c>
       <c r="B10" t="n">
-        <v>89423</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1543,38 +1541,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>612016</v>
+        <v>611775</v>
       </c>
       <c r="R10" t="n">
-        <v>7036264</v>
+        <v>7036602</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1633,10 +1635,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111840164</v>
+        <v>111840149</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>90854</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1645,42 +1647,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>2079</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t>(S.Lundell) Parmasto</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>611551</v>
+        <v>612070</v>
       </c>
       <c r="R11" t="n">
-        <v>7036581</v>
+        <v>7036184</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1739,10 +1737,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111840143</v>
+        <v>111840125</v>
       </c>
       <c r="B12" t="n">
-        <v>89351</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1755,34 +1753,39 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>112</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>611936</v>
+        <v>612150</v>
       </c>
       <c r="R12" t="n">
-        <v>7036436</v>
+        <v>7036137</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1841,7 +1844,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111840122</v>
+        <v>111840132</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -1877,7 +1880,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>upprörd, varnande</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1886,10 +1889,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>612219</v>
+        <v>611730</v>
       </c>
       <c r="R13" t="n">
-        <v>7036074</v>
+        <v>7036606</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -1948,7 +1951,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111840106</v>
+        <v>111840103</v>
       </c>
       <c r="B14" t="n">
         <v>89369</v>
@@ -1988,10 +1991,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>611685</v>
+        <v>611937</v>
       </c>
       <c r="R14" t="n">
-        <v>7036618</v>
+        <v>7036431</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2050,10 +2053,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111840141</v>
+        <v>111840114</v>
       </c>
       <c r="B15" t="n">
-        <v>78605</v>
+        <v>89405</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2062,25 +2065,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6462</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2090,10 +2093,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>611996</v>
+        <v>611931</v>
       </c>
       <c r="R15" t="n">
-        <v>7036214</v>
+        <v>7036433</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2152,10 +2155,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111840177</v>
+        <v>111840110</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>89745</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2164,25 +2167,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>2062</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2192,10 +2195,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>611672</v>
+        <v>611897</v>
       </c>
       <c r="R16" t="n">
-        <v>7036616</v>
+        <v>7036469</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2254,10 +2257,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111840149</v>
+        <v>111840173</v>
       </c>
       <c r="B17" t="n">
-        <v>90854</v>
+        <v>89419</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2270,21 +2273,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2079</v>
+        <v>1204</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2294,10 +2297,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>612070</v>
+        <v>612203</v>
       </c>
       <c r="R17" t="n">
-        <v>7036184</v>
+        <v>7036078</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2356,10 +2359,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111840155</v>
+        <v>111840162</v>
       </c>
       <c r="B18" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2368,38 +2371,42 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>611724</v>
+        <v>611796</v>
       </c>
       <c r="R18" t="n">
-        <v>7036588</v>
+        <v>7036596</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2458,10 +2465,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111840132</v>
+        <v>111840166</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2470,31 +2477,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2503,10 +2509,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>611730</v>
+        <v>611872</v>
       </c>
       <c r="R19" t="n">
-        <v>7036606</v>
+        <v>7036366</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2565,7 +2571,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111840158</v>
+        <v>111840155</v>
       </c>
       <c r="B20" t="n">
         <v>78578</v>
@@ -2605,10 +2611,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>611625</v>
+        <v>611724</v>
       </c>
       <c r="R20" t="n">
-        <v>7036617</v>
+        <v>7036588</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2667,10 +2673,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111840176</v>
+        <v>111840111</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2683,21 +2689,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2707,10 +2713,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>612158</v>
+        <v>611565</v>
       </c>
       <c r="R21" t="n">
-        <v>7036054</v>
+        <v>7036582</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2769,10 +2775,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111840098</v>
+        <v>111840144</v>
       </c>
       <c r="B22" t="n">
-        <v>94134</v>
+        <v>56414</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2785,34 +2791,39 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>53</v>
+        <v>100049</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>612201</v>
+        <v>611756</v>
       </c>
       <c r="R22" t="n">
-        <v>7036081</v>
+        <v>7036523</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -2871,7 +2882,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111840120</v>
+        <v>111840126</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -2907,7 +2918,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2916,10 +2927,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>611913</v>
+        <v>612131</v>
       </c>
       <c r="R23" t="n">
-        <v>7036279</v>
+        <v>7036147</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -2978,10 +2989,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111840174</v>
+        <v>111840101</v>
       </c>
       <c r="B24" t="n">
-        <v>89419</v>
+        <v>89369</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2990,25 +3001,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1204</v>
+        <v>5447</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3018,10 +3029,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>612006</v>
+        <v>612073</v>
       </c>
       <c r="R24" t="n">
-        <v>7036320</v>
+        <v>7036237</v>
       </c>
       <c r="S24" t="n">
         <v>20</v>
@@ -3080,10 +3091,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111840128</v>
+        <v>111840176</v>
       </c>
       <c r="B25" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3096,39 +3107,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>612051</v>
+        <v>612158</v>
       </c>
       <c r="R25" t="n">
-        <v>7036237</v>
+        <v>7036054</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3187,10 +3193,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111840166</v>
+        <v>111840124</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3199,30 +3205,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3231,10 +3238,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>611872</v>
+        <v>612163</v>
       </c>
       <c r="R26" t="n">
-        <v>7036366</v>
+        <v>7036090</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3293,10 +3300,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111840171</v>
+        <v>111840145</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3305,38 +3312,43 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>611731</v>
+        <v>611966</v>
       </c>
       <c r="R27" t="n">
-        <v>7036603</v>
+        <v>7036359</v>
       </c>
       <c r="S27" t="n">
         <v>20</v>
@@ -3395,10 +3407,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111840150</v>
+        <v>111840170</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3407,38 +3419,42 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>611551</v>
+        <v>611721</v>
       </c>
       <c r="R28" t="n">
-        <v>7036580</v>
+        <v>7036599</v>
       </c>
       <c r="S28" t="n">
         <v>20</v>
@@ -3497,10 +3513,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111840146</v>
+        <v>111840153</v>
       </c>
       <c r="B29" t="n">
-        <v>56414</v>
+        <v>78578</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3513,39 +3529,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100049</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>611936</v>
+        <v>611889</v>
       </c>
       <c r="R29" t="n">
-        <v>7036436</v>
+        <v>7036303</v>
       </c>
       <c r="S29" t="n">
         <v>20</v>
@@ -3604,10 +3615,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111840157</v>
+        <v>111840182</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>89679</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3616,25 +3627,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>6008693</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kritporing</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Resinoporia crassa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Audet</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3644,10 +3655,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>611644</v>
+        <v>611987</v>
       </c>
       <c r="R30" t="n">
-        <v>7036616</v>
+        <v>7036295</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -3706,10 +3717,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111840156</v>
+        <v>111840141</v>
       </c>
       <c r="B31" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3718,25 +3729,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3746,10 +3757,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>611645</v>
+        <v>611996</v>
       </c>
       <c r="R31" t="n">
-        <v>7036615</v>
+        <v>7036214</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -3808,10 +3819,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111840124</v>
+        <v>111840177</v>
       </c>
       <c r="B32" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3824,39 +3835,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>612163</v>
+        <v>611672</v>
       </c>
       <c r="R32" t="n">
-        <v>7036090</v>
+        <v>7036616</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -3915,10 +3921,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111840116</v>
+        <v>111840107</v>
       </c>
       <c r="B33" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3927,25 +3933,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3955,10 +3961,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>611789</v>
+        <v>611650</v>
       </c>
       <c r="R33" t="n">
-        <v>7036592</v>
+        <v>7036615</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -4017,10 +4023,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111840119</v>
+        <v>111840131</v>
       </c>
       <c r="B34" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4033,34 +4039,39 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>611658</v>
+        <v>611969</v>
       </c>
       <c r="R34" t="n">
-        <v>7036620</v>
+        <v>7036395</v>
       </c>
       <c r="S34" t="n">
         <v>20</v>
@@ -4119,10 +4130,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111840168</v>
+        <v>111840129</v>
       </c>
       <c r="B35" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4131,30 +4142,31 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>10</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4163,10 +4175,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>611958</v>
+        <v>612009</v>
       </c>
       <c r="R35" t="n">
-        <v>7036382</v>
+        <v>7036270</v>
       </c>
       <c r="S35" t="n">
         <v>20</v>
@@ -4225,10 +4237,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111840125</v>
+        <v>111840174</v>
       </c>
       <c r="B36" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4241,39 +4253,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>612150</v>
+        <v>612006</v>
       </c>
       <c r="R36" t="n">
-        <v>7036137</v>
+        <v>7036320</v>
       </c>
       <c r="S36" t="n">
         <v>20</v>
@@ -4332,10 +4339,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111840136</v>
+        <v>111840181</v>
       </c>
       <c r="B37" t="n">
-        <v>56543</v>
+        <v>78611</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4344,43 +4351,38 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>103021</v>
+        <v>6463</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>stationär</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>611873</v>
+        <v>611644</v>
       </c>
       <c r="R37" t="n">
-        <v>7036367</v>
+        <v>7036616</v>
       </c>
       <c r="S37" t="n">
         <v>20</v>
@@ -4439,7 +4441,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111840105</v>
+        <v>111840106</v>
       </c>
       <c r="B38" t="n">
         <v>89369</v>
@@ -4479,10 +4481,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>611887</v>
+        <v>611685</v>
       </c>
       <c r="R38" t="n">
-        <v>7036488</v>
+        <v>7036618</v>
       </c>
       <c r="S38" t="n">
         <v>20</v>
@@ -4541,10 +4543,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111840117</v>
+        <v>111840154</v>
       </c>
       <c r="B39" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4557,21 +4559,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4581,10 +4583,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>611725</v>
+        <v>612000</v>
       </c>
       <c r="R39" t="n">
-        <v>7036571</v>
+        <v>7036224</v>
       </c>
       <c r="S39" t="n">
         <v>20</v>
@@ -4643,10 +4645,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111840135</v>
+        <v>111840119</v>
       </c>
       <c r="B40" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4659,39 +4661,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>611893</v>
+        <v>611658</v>
       </c>
       <c r="R40" t="n">
-        <v>7036377</v>
+        <v>7036620</v>
       </c>
       <c r="S40" t="n">
         <v>20</v>
@@ -4750,10 +4747,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111840099</v>
+        <v>111840151</v>
       </c>
       <c r="B41" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4762,25 +4759,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4790,10 +4787,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>611935</v>
+        <v>611656</v>
       </c>
       <c r="R41" t="n">
-        <v>7036271</v>
+        <v>7036557</v>
       </c>
       <c r="S41" t="n">
         <v>20</v>
@@ -4852,10 +4849,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111840162</v>
+        <v>111840120</v>
       </c>
       <c r="B42" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -4864,30 +4861,31 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>200</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -4896,10 +4894,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>611796</v>
+        <v>611913</v>
       </c>
       <c r="R42" t="n">
-        <v>7036596</v>
+        <v>7036279</v>
       </c>
       <c r="S42" t="n">
         <v>20</v>
@@ -4958,10 +4956,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111840131</v>
+        <v>111840118</v>
       </c>
       <c r="B43" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -4974,39 +4972,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>611969</v>
+        <v>611685</v>
       </c>
       <c r="R43" t="n">
-        <v>7036395</v>
+        <v>7036619</v>
       </c>
       <c r="S43" t="n">
         <v>20</v>
@@ -5065,10 +5058,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111840163</v>
+        <v>111840117</v>
       </c>
       <c r="B44" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5077,42 +5070,38 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>612073</v>
+        <v>611725</v>
       </c>
       <c r="R44" t="n">
-        <v>7036237</v>
+        <v>7036571</v>
       </c>
       <c r="S44" t="n">
         <v>20</v>
@@ -5171,10 +5160,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111840153</v>
+        <v>111840175</v>
       </c>
       <c r="B45" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5187,21 +5176,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5211,10 +5200,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>611889</v>
+        <v>612016</v>
       </c>
       <c r="R45" t="n">
-        <v>7036303</v>
+        <v>7036264</v>
       </c>
       <c r="S45" t="n">
         <v>20</v>
@@ -5273,10 +5262,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111840151</v>
+        <v>111840167</v>
       </c>
       <c r="B46" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5285,38 +5274,42 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>611656</v>
+        <v>612163</v>
       </c>
       <c r="R46" t="n">
-        <v>7036557</v>
+        <v>7036090</v>
       </c>
       <c r="S46" t="n">
         <v>20</v>
@@ -5375,10 +5368,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111840112</v>
+        <v>111840134</v>
       </c>
       <c r="B47" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5391,34 +5384,39 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>611748</v>
+        <v>611776</v>
       </c>
       <c r="R47" t="n">
-        <v>7036526</v>
+        <v>7036558</v>
       </c>
       <c r="S47" t="n">
         <v>20</v>
@@ -5477,10 +5475,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111840107</v>
+        <v>111840169</v>
       </c>
       <c r="B48" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5489,38 +5487,42 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>611650</v>
+        <v>611827</v>
       </c>
       <c r="R48" t="n">
-        <v>7036615</v>
+        <v>7036531</v>
       </c>
       <c r="S48" t="n">
         <v>20</v>
@@ -5579,10 +5581,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111840142</v>
+        <v>111840130</v>
       </c>
       <c r="B49" t="n">
-        <v>78605</v>
+        <v>56398</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5591,38 +5593,43 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>611625</v>
+        <v>611987</v>
       </c>
       <c r="R49" t="n">
-        <v>7036617</v>
+        <v>7036294</v>
       </c>
       <c r="S49" t="n">
         <v>20</v>
@@ -5681,10 +5688,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111840154</v>
+        <v>111840121</v>
       </c>
       <c r="B50" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5697,34 +5704,39 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>612000</v>
+        <v>612132</v>
       </c>
       <c r="R50" t="n">
-        <v>7036224</v>
+        <v>7036084</v>
       </c>
       <c r="S50" t="n">
         <v>20</v>
@@ -5783,10 +5795,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111840121</v>
+        <v>111840143</v>
       </c>
       <c r="B51" t="n">
-        <v>56398</v>
+        <v>89351</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -5799,39 +5811,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>112</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>612132</v>
+        <v>611936</v>
       </c>
       <c r="R51" t="n">
-        <v>7036084</v>
+        <v>7036436</v>
       </c>
       <c r="S51" t="n">
         <v>20</v>
@@ -5890,10 +5897,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111840152</v>
+        <v>111840122</v>
       </c>
       <c r="B52" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -5906,34 +5913,39 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>611692</v>
+        <v>612219</v>
       </c>
       <c r="R52" t="n">
-        <v>7036559</v>
+        <v>7036074</v>
       </c>
       <c r="S52" t="n">
         <v>20</v>
@@ -5992,10 +6004,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111840110</v>
+        <v>111840165</v>
       </c>
       <c r="B53" t="n">
-        <v>89745</v>
+        <v>96348</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6008,34 +6020,38 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2062</v>
+        <v>220787</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>611897</v>
+        <v>611626</v>
       </c>
       <c r="R53" t="n">
-        <v>7036469</v>
+        <v>7036563</v>
       </c>
       <c r="S53" t="n">
         <v>20</v>
@@ -6094,7 +6110,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111840118</v>
+        <v>111840112</v>
       </c>
       <c r="B54" t="n">
         <v>89405</v>
@@ -6134,10 +6150,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>611685</v>
+        <v>611748</v>
       </c>
       <c r="R54" t="n">
-        <v>7036619</v>
+        <v>7036526</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6196,10 +6212,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111840167</v>
+        <v>111840136</v>
       </c>
       <c r="B55" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6208,30 +6224,31 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>stationär</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -6240,10 +6257,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>612163</v>
+        <v>611873</v>
       </c>
       <c r="R55" t="n">
-        <v>7036090</v>
+        <v>7036367</v>
       </c>
       <c r="S55" t="n">
         <v>20</v>
@@ -6302,10 +6319,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111840178</v>
+        <v>111840157</v>
       </c>
       <c r="B56" t="n">
-        <v>96265</v>
+        <v>78578</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6314,25 +6331,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>219790</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6342,10 +6359,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>611661</v>
+        <v>611644</v>
       </c>
       <c r="R56" t="n">
-        <v>7036557</v>
+        <v>7036616</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>
@@ -6404,10 +6421,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111840101</v>
+        <v>111840115</v>
       </c>
       <c r="B57" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6416,25 +6433,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6444,10 +6461,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>612073</v>
+        <v>611897</v>
       </c>
       <c r="R57" t="n">
-        <v>7036237</v>
+        <v>7036469</v>
       </c>
       <c r="S57" t="n">
         <v>20</v>
@@ -6506,10 +6523,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111840169</v>
+        <v>111840142</v>
       </c>
       <c r="B58" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6518,42 +6535,38 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>611827</v>
+        <v>611625</v>
       </c>
       <c r="R58" t="n">
-        <v>7036531</v>
+        <v>7036617</v>
       </c>
       <c r="S58" t="n">
         <v>20</v>
@@ -6612,10 +6625,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111840114</v>
+        <v>111840128</v>
       </c>
       <c r="B59" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6628,34 +6641,39 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>611931</v>
+        <v>612051</v>
       </c>
       <c r="R59" t="n">
-        <v>7036433</v>
+        <v>7036237</v>
       </c>
       <c r="S59" t="n">
         <v>20</v>
@@ -6714,10 +6732,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111840115</v>
+        <v>111840127</v>
       </c>
       <c r="B60" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -6730,34 +6748,39 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>611897</v>
+        <v>612098</v>
       </c>
       <c r="R60" t="n">
-        <v>7036469</v>
+        <v>7036226</v>
       </c>
       <c r="S60" t="n">
         <v>20</v>
@@ -6816,10 +6839,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111840145</v>
+        <v>111840178</v>
       </c>
       <c r="B61" t="n">
-        <v>56414</v>
+        <v>96265</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -6828,43 +6851,38 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100049</v>
+        <v>219790</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>611966</v>
+        <v>611661</v>
       </c>
       <c r="R61" t="n">
-        <v>7036359</v>
+        <v>7036557</v>
       </c>
       <c r="S61" t="n">
         <v>20</v>
@@ -6923,10 +6941,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111840170</v>
+        <v>111840158</v>
       </c>
       <c r="B62" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -6935,42 +6953,38 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>611721</v>
+        <v>611625</v>
       </c>
       <c r="R62" t="n">
-        <v>7036599</v>
+        <v>7036617</v>
       </c>
       <c r="S62" t="n">
         <v>20</v>
@@ -7029,10 +7043,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111840134</v>
+        <v>111840099</v>
       </c>
       <c r="B63" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7041,43 +7055,38 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>611776</v>
+        <v>611935</v>
       </c>
       <c r="R63" t="n">
-        <v>7036558</v>
+        <v>7036271</v>
       </c>
       <c r="S63" t="n">
         <v>20</v>
@@ -7136,7 +7145,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111840123</v>
+        <v>111840133</v>
       </c>
       <c r="B64" t="n">
         <v>56398</v>
@@ -7172,7 +7181,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -7181,10 +7190,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>612199</v>
+        <v>611901</v>
       </c>
       <c r="R64" t="n">
-        <v>7036086</v>
+        <v>7036471</v>
       </c>
       <c r="S64" t="n">
         <v>20</v>
@@ -7345,7 +7354,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111840103</v>
+        <v>111840102</v>
       </c>
       <c r="B66" t="n">
         <v>89369</v>
@@ -7385,10 +7394,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>611937</v>
+        <v>611958</v>
       </c>
       <c r="R66" t="n">
-        <v>7036431</v>
+        <v>7036382</v>
       </c>
       <c r="S66" t="n">
         <v>20</v>
@@ -7447,10 +7456,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111840144</v>
+        <v>111840156</v>
       </c>
       <c r="B67" t="n">
-        <v>56414</v>
+        <v>78578</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7463,39 +7472,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>100049</v>
+        <v>6458</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>611756</v>
+        <v>611645</v>
       </c>
       <c r="R67" t="n">
-        <v>7036523</v>
+        <v>7036615</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -7554,10 +7558,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111840182</v>
+        <v>111840135</v>
       </c>
       <c r="B68" t="n">
-        <v>89679</v>
+        <v>56398</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -7566,38 +7570,43 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6008693</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Kritporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Resinoporia crassa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(P.Karst.) Audet</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>611987</v>
+        <v>611893</v>
       </c>
       <c r="R68" t="n">
-        <v>7036295</v>
+        <v>7036377</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -7860,10 +7869,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111840172</v>
+        <v>111840098</v>
       </c>
       <c r="B71" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -7872,42 +7881,38 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>611737</v>
+        <v>612201</v>
       </c>
       <c r="R71" t="n">
-        <v>7036614</v>
+        <v>7036081</v>
       </c>
       <c r="S71" t="n">
         <v>20</v>
@@ -7966,10 +7971,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111840102</v>
+        <v>111840172</v>
       </c>
       <c r="B72" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -7978,38 +7983,42 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>611958</v>
+        <v>611737</v>
       </c>
       <c r="R72" t="n">
-        <v>7036382</v>
+        <v>7036614</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -8068,10 +8077,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111840111</v>
+        <v>111840100</v>
       </c>
       <c r="B73" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8080,25 +8089,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8108,10 +8117,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>611565</v>
+        <v>612126</v>
       </c>
       <c r="R73" t="n">
-        <v>7036582</v>
+        <v>7036198</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>
@@ -8170,10 +8179,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111840173</v>
+        <v>111840116</v>
       </c>
       <c r="B74" t="n">
-        <v>89419</v>
+        <v>89405</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8186,21 +8195,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8210,10 +8219,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>612203</v>
+        <v>611789</v>
       </c>
       <c r="R74" t="n">
-        <v>7036078</v>
+        <v>7036592</v>
       </c>
       <c r="S74" t="n">
         <v>20</v>
@@ -8272,10 +8281,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111840161</v>
+        <v>111840105</v>
       </c>
       <c r="B75" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8284,42 +8293,38 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>611775</v>
+        <v>611887</v>
       </c>
       <c r="R75" t="n">
-        <v>7036602</v>
+        <v>7036488</v>
       </c>
       <c r="S75" t="n">
         <v>20</v>
@@ -8378,10 +8383,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111840130</v>
+        <v>111840164</v>
       </c>
       <c r="B76" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8390,31 +8395,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>50</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -8423,10 +8427,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>611987</v>
+        <v>611551</v>
       </c>
       <c r="R76" t="n">
-        <v>7036294</v>
+        <v>7036581</v>
       </c>
       <c r="S76" t="n">
         <v>20</v>
@@ -8485,10 +8489,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111840165</v>
+        <v>111840150</v>
       </c>
       <c r="B77" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -8497,42 +8501,38 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
           <t>Björkån-Älggårdshöjden, Ång</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>611626</v>
+        <v>611551</v>
       </c>
       <c r="R77" t="n">
-        <v>7036563</v>
+        <v>7036580</v>
       </c>
       <c r="S77" t="n">
         <v>20</v>
